--- a/MatlabWorkingDirectory/CoreSizeData.xlsx
+++ b/MatlabWorkingDirectory/CoreSizeData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/806421492071dedd/Programming/MATLAB/Scripts/Theses/GPT_Fixes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kelly\School\Colleage\MaxAlton\HV-Power-Supply-Weight-Optimization\MatlabWorkingDirectory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF3F2724-23D5-4AA4-8A28-B4D901296DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03F8883-C6AD-4213-857C-94DD1818DD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{3CD1987F-FA11-4D3B-B1FD-40FF621CA499}"/>
+    <workbookView xWindow="1152" yWindow="0" windowWidth="17280" windowHeight="12336" xr2:uid="{3CD1987F-FA11-4D3B-B1FD-40FF621CA499}"/>
   </bookViews>
   <sheets>
     <sheet name="Ecore" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="205">
   <si>
     <t>No.</t>
   </si>
@@ -492,13 +492,172 @@
   </si>
   <si>
     <t>ER 32/6/25</t>
+  </si>
+  <si>
+    <t>UI 93/104/20</t>
+  </si>
+  <si>
+    <t>UI 93/104/30</t>
+  </si>
+  <si>
+    <t>UI 126/119/20</t>
+  </si>
+  <si>
+    <t>U 141/78/30</t>
+  </si>
+  <si>
+    <t>UI 101/76/30</t>
+  </si>
+  <si>
+    <t>UI 93/152/16</t>
+  </si>
+  <si>
+    <t>U10/8/3</t>
+  </si>
+  <si>
+    <t>U15/11/6</t>
+  </si>
+  <si>
+    <t>U20/16/7</t>
+  </si>
+  <si>
+    <t>U25/16/6</t>
+  </si>
+  <si>
+    <t>U25/20/13</t>
+  </si>
+  <si>
+    <t>U30/25/16</t>
+  </si>
+  <si>
+    <t>U33/22/9</t>
+  </si>
+  <si>
+    <t>U46/40/28</t>
+  </si>
+  <si>
+    <t>U67/27/14</t>
+  </si>
+  <si>
+    <t>U80/65/32</t>
+  </si>
+  <si>
+    <t>U93/52/30</t>
+  </si>
+  <si>
+    <t>U93/76/16</t>
+  </si>
+  <si>
+    <t>U93/76/30</t>
+  </si>
+  <si>
+    <t>U100/57/25</t>
+  </si>
+  <si>
+    <t>U126/91/20</t>
+  </si>
+  <si>
+    <t>UR35/27.5/13</t>
+  </si>
+  <si>
+    <t>UR37/26/18</t>
+  </si>
+  <si>
+    <t>UR39/35/15</t>
+  </si>
+  <si>
+    <t>UR42/21/12</t>
+  </si>
+  <si>
+    <t>UR46/21/11</t>
+  </si>
+  <si>
+    <t>UR48/39/17</t>
+  </si>
+  <si>
+    <t>UR55/38/36</t>
+  </si>
+  <si>
+    <t>UR57/28/16</t>
+  </si>
+  <si>
+    <t>UR59/36/17</t>
+  </si>
+  <si>
+    <t>UR64/29/14</t>
+  </si>
+  <si>
+    <t>UR64/40/20</t>
+  </si>
+  <si>
+    <t>UR64/40/20-D</t>
+  </si>
+  <si>
+    <t>UR70/33/17</t>
+  </si>
+  <si>
+    <t>U 11/4/6</t>
+  </si>
+  <si>
+    <t>U 22/21/6</t>
+  </si>
+  <si>
+    <t>U 25/13/13</t>
+  </si>
+  <si>
+    <t>U 25/16/6</t>
+  </si>
+  <si>
+    <t>U 25/16/12</t>
+  </si>
+  <si>
+    <t>U 93/76/16</t>
+  </si>
+  <si>
+    <t>U 93/76/30</t>
+  </si>
+  <si>
+    <t>U 93/76/32</t>
+  </si>
+  <si>
+    <t>U 126/91/20</t>
+  </si>
+  <si>
+    <t>U 102/57/25</t>
+  </si>
+  <si>
+    <t>UR 41/21/11</t>
+  </si>
+  <si>
+    <t>UR 41/21</t>
+  </si>
+  <si>
+    <t>UR 41/25</t>
+  </si>
+  <si>
+    <t>UR 41/30</t>
+  </si>
+  <si>
+    <t>UR 57</t>
+  </si>
+  <si>
+    <t>UR 59</t>
+  </si>
+  <si>
+    <t>UR 64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IGNORE For calculations </t>
+  </si>
+  <si>
+    <t>U cores have no seondary leg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,21 +665,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -532,24 +689,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -882,27 +1042,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978730B7-EAA2-46C1-9C1E-8E1268D8BF16}">
-  <dimension ref="A1:O146"/>
+  <dimension ref="A1:O197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I187" sqref="I187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="11" max="11" width="26.109375" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -939,11 +1098,14 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="O1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -977,11 +1139,11 @@
       <c r="L2">
         <v>1.2</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="6">
         <v>3.8</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1015,11 +1177,11 @@
       <c r="L3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="6">
         <v>3.7</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1053,11 +1215,11 @@
       <c r="L4">
         <v>1.65</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1091,11 +1253,11 @@
       <c r="L5">
         <v>3.15</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="6">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1129,11 +1291,11 @@
       <c r="L6">
         <v>3.15</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="6">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1167,11 +1329,11 @@
       <c r="L7">
         <v>2.6</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1205,11 +1367,11 @@
       <c r="L8">
         <v>3.3</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="6">
         <v>11.4</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1243,11 +1405,11 @@
       <c r="L9">
         <v>4</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="6">
         <v>20.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1281,11 +1443,11 @@
       <c r="L10">
         <v>4.8</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="6">
         <v>11.4</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1319,11 +1481,11 @@
       <c r="L11">
         <v>4.79</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="6">
         <v>11.38</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1357,11 +1519,11 @@
       <c r="L12">
         <v>3.8</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="6">
         <v>12.6</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1395,11 +1557,11 @@
       <c r="L13">
         <v>4.05</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1433,11 +1595,11 @@
       <c r="L14">
         <v>4.7249999999999996</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="6">
         <v>22.3</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1471,11 +1633,11 @@
       <c r="L15">
         <v>6.2249999999999996</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="6">
         <v>12.8</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1509,11 +1671,11 @@
       <c r="L16">
         <v>5</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="6">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1547,11 +1709,11 @@
       <c r="L17">
         <v>5</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="6">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1585,11 +1747,11 @@
       <c r="L18">
         <v>6.15</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="6">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1623,11 +1785,11 @@
       <c r="L19">
         <v>6.25</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="6">
         <v>17.2</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1661,11 +1823,11 @@
       <c r="L20">
         <v>6.6</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="6">
         <v>22.4</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1699,11 +1861,11 @@
       <c r="L21">
         <v>8.1</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="6">
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1737,11 +1899,11 @@
       <c r="L22">
         <v>7.25</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="6">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1775,13 +1937,12 @@
       <c r="L23" s="1">
         <v>7.15</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23" s="7">
         <v>31.5</v>
       </c>
       <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1815,13 +1976,12 @@
       <c r="L24" s="1">
         <v>8.0749999999999993</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M24" s="7">
         <v>20.8</v>
       </c>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1855,13 +2015,12 @@
       <c r="L25" s="1">
         <v>8.65</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M25" s="7">
         <v>29.6</v>
       </c>
       <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1895,13 +2054,12 @@
       <c r="L26" s="1">
         <v>8.65</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M26" s="7">
         <v>29.6</v>
       </c>
       <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15">
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1935,13 +2093,12 @@
       <c r="L27" s="1">
         <v>8.65</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M27" s="7">
         <v>52</v>
       </c>
       <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15">
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1975,13 +2132,12 @@
       <c r="L28" s="1">
         <v>8.4</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M28" s="7">
         <v>24.2</v>
       </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15">
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2015,13 +2171,12 @@
       <c r="L29" s="1">
         <v>10.15</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M29" s="7">
         <v>37</v>
       </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15">
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2055,13 +2210,12 @@
       <c r="L30" s="1">
         <v>10.15</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M30" s="7">
         <v>37</v>
       </c>
       <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15">
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2095,13 +2249,12 @@
       <c r="L31" s="1">
         <v>9.6</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M31" s="7">
         <v>29.2</v>
       </c>
       <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2135,13 +2288,12 @@
       <c r="L32" s="1">
         <v>12.1</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M32" s="7">
         <v>44.4</v>
       </c>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2175,13 +2327,12 @@
       <c r="L33" s="1">
         <v>13</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M33" s="7">
         <v>43.8</v>
       </c>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15">
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2215,13 +2366,12 @@
       <c r="L34" s="1">
         <v>19.649999999999999</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M34" s="7">
         <v>56.4</v>
       </c>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="1:15">
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2255,13 +2405,12 @@
       <c r="L35" s="1">
         <v>22.824999999999999</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M35" s="7">
         <v>93.7</v>
       </c>
       <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="1:15">
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2295,13 +2444,12 @@
       <c r="L36" s="1">
         <v>6.625</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M36" s="7">
         <v>24.6</v>
       </c>
       <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="1:15">
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2335,13 +2483,12 @@
       <c r="L37" s="1">
         <v>7.73</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" s="7">
         <v>27.8</v>
       </c>
       <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="1:15">
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2375,13 +2522,12 @@
       <c r="L38" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38" s="7">
         <v>31.8</v>
       </c>
       <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="1:15">
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2415,13 +2561,12 @@
       <c r="L39" s="1">
         <v>14.05</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39" s="7">
         <v>45.5</v>
       </c>
       <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="1:15">
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2455,13 +2600,12 @@
       <c r="L40" s="1">
         <v>1.55</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40" s="7">
         <v>7.5</v>
       </c>
       <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-    </row>
-    <row r="41" spans="1:15">
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2495,13 +2639,12 @@
       <c r="L41" s="1">
         <v>1.8</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41" s="7">
         <v>9.1</v>
       </c>
       <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-    </row>
-    <row r="42" spans="1:15">
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2535,13 +2678,12 @@
       <c r="L42" s="1">
         <v>2.85</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42" s="7">
         <v>11</v>
       </c>
       <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-    </row>
-    <row r="43" spans="1:15">
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2575,13 +2717,12 @@
       <c r="L43" s="1">
         <v>3.25</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43" s="7">
         <v>15.4</v>
       </c>
       <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-    </row>
-    <row r="44" spans="1:15">
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2615,13 +2756,12 @@
       <c r="L44" s="1">
         <v>3.65</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44" s="7">
         <v>18.600000000000001</v>
       </c>
       <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-    </row>
-    <row r="45" spans="1:15">
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2655,13 +2795,12 @@
       <c r="L45" s="1">
         <v>3.9</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45" s="7">
         <v>22.4</v>
       </c>
       <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-    </row>
-    <row r="46" spans="1:15">
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2695,13 +2834,12 @@
       <c r="L46" s="1">
         <v>5.9249999999999998</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46" s="7">
         <v>19.5</v>
       </c>
       <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-    </row>
-    <row r="47" spans="1:15">
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2735,13 +2873,12 @@
       <c r="L47" s="1">
         <v>5.9249999999999998</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47" s="7">
         <v>25.3</v>
       </c>
       <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-    </row>
-    <row r="48" spans="1:15">
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2775,13 +2912,12 @@
       <c r="L48" s="1">
         <v>7.4249999999999998</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48" s="7">
         <v>29.5</v>
       </c>
       <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-    </row>
-    <row r="49" spans="1:15">
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2815,13 +2951,12 @@
       <c r="L49" s="1">
         <v>8.15</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49" s="7">
         <v>30.9</v>
       </c>
       <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-    </row>
-    <row r="50" spans="1:15">
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2855,13 +2990,12 @@
       <c r="L50" s="1">
         <v>7.25</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50" s="7">
         <v>31.2</v>
       </c>
       <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-    </row>
-    <row r="51" spans="1:15">
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2895,13 +3029,12 @@
       <c r="L51" s="1">
         <v>7.7</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51" s="7">
         <v>31.2</v>
       </c>
       <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-    </row>
-    <row r="52" spans="1:15">
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2935,13 +3068,12 @@
       <c r="L52" s="1">
         <v>10</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52" s="7">
         <v>29.4</v>
       </c>
       <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-    </row>
-    <row r="53" spans="1:15">
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2975,13 +3107,12 @@
       <c r="L53" s="1">
         <v>9.6</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53" s="7">
         <v>22.9</v>
       </c>
       <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-    </row>
-    <row r="54" spans="1:15">
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3015,13 +3146,12 @@
       <c r="L54" s="1">
         <v>11.375</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M54" s="7">
         <v>22.2</v>
       </c>
       <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-    </row>
-    <row r="55" spans="1:15">
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3055,13 +3185,12 @@
       <c r="L55" s="1">
         <v>6.1</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M55" s="7">
         <v>22</v>
       </c>
       <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-    </row>
-    <row r="56" spans="1:15">
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3095,13 +3224,12 @@
       <c r="L56" s="1">
         <v>7.25</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M56" s="7">
         <v>23.6</v>
       </c>
       <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-    </row>
-    <row r="57" spans="1:15">
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3135,13 +3263,12 @@
       <c r="L57" s="1">
         <v>8.25</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57" s="7">
         <v>28.4</v>
       </c>
       <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-    </row>
-    <row r="58" spans="1:15">
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3175,13 +3302,12 @@
       <c r="L58" s="1">
         <v>8.65</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M58" s="7">
         <v>32.200000000000003</v>
       </c>
       <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-    </row>
-    <row r="59" spans="1:15">
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3215,13 +3341,12 @@
       <c r="L59" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M59" s="7">
         <v>35.4</v>
       </c>
       <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-    </row>
-    <row r="60" spans="1:15">
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3255,13 +3380,12 @@
       <c r="L60" s="1">
         <v>11.15</v>
       </c>
-      <c r="M60" s="1">
+      <c r="M60" s="7">
         <v>40.4</v>
       </c>
       <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-    </row>
-    <row r="61" spans="1:15">
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3295,14 +3419,13 @@
       <c r="L61" s="1">
         <v>11.525</v>
       </c>
-      <c r="M61" s="1">
+      <c r="M61" s="7">
         <v>45</v>
       </c>
       <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62">
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
       <c r="B62" t="s">
@@ -3314,8 +3437,8 @@
       <c r="D62">
         <v>33.1</v>
       </c>
-      <c r="E62" s="3">
-        <f>C62/D62</f>
+      <c r="E62" s="2">
+        <f t="shared" ref="E62:E68" si="0">C62/D62</f>
         <v>43.80664652567976</v>
       </c>
       <c r="F62">
@@ -3332,18 +3455,18 @@
         <v>3.0250000000000004</v>
       </c>
       <c r="K62">
-        <f t="shared" ref="K62:K112" si="0">I62</f>
+        <f t="shared" ref="K62:K112" si="1">I62</f>
         <v>5.75</v>
       </c>
       <c r="L62">
         <f>(15.95-K62)/2</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="6">
         <v>15.95</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3356,8 +3479,8 @@
       <c r="D63">
         <v>40.299999999999997</v>
       </c>
-      <c r="E63" s="3">
-        <f>C63/D63</f>
+      <c r="E63" s="2">
+        <f t="shared" si="0"/>
         <v>51.364764267990076</v>
       </c>
       <c r="F63">
@@ -3377,14 +3500,14 @@
         <v>6.35</v>
       </c>
       <c r="L63">
-        <f t="shared" ref="L63:L111" si="1">(M63-H63)/2</f>
+        <f t="shared" ref="L63:L111" si="2">(M63-H63)/2</f>
         <v>6.1450000000000005</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="6">
         <v>18.64</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3397,8 +3520,8 @@
       <c r="D64">
         <v>83.7</v>
       </c>
-      <c r="E64" s="3">
-        <f>C64/D64</f>
+      <c r="E64" s="2">
+        <f t="shared" si="0"/>
         <v>49.223416965352449</v>
       </c>
       <c r="F64">
@@ -3415,18 +3538,18 @@
         <v>4.6999999999999993</v>
       </c>
       <c r="K64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.75</v>
       </c>
       <c r="L64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6750000000000007</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="6">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3439,8 +3562,8 @@
       <c r="D65">
         <v>113</v>
       </c>
-      <c r="E65" s="3">
-        <f>C65/D65</f>
+      <c r="E65" s="2">
+        <f t="shared" si="0"/>
         <v>59.469026548672566</v>
       </c>
       <c r="F65">
@@ -3457,18 +3580,18 @@
         <v>5.1999999999999993</v>
       </c>
       <c r="K65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.65</v>
       </c>
       <c r="L65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6000000000000005</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="6">
         <v>19.850000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3481,8 +3604,8 @@
       <c r="D66">
         <v>119</v>
       </c>
-      <c r="E66" s="3">
-        <f>C66/D66</f>
+      <c r="E66" s="2">
+        <f t="shared" si="0"/>
         <v>66.470588235294116</v>
       </c>
       <c r="F66">
@@ -3499,18 +3622,18 @@
         <v>4.6999999999999993</v>
       </c>
       <c r="K66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.7</v>
       </c>
       <c r="L66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.9500000000000011</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="6">
         <v>23.6</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3523,8 +3646,8 @@
       <c r="D67">
         <v>89.3</v>
       </c>
-      <c r="E67" s="3">
-        <f>C67/D67</f>
+      <c r="E67" s="2">
+        <f t="shared" si="0"/>
         <v>70.212765957446805</v>
       </c>
       <c r="F67">
@@ -3541,18 +3664,18 @@
         <v>4.9849999999999994</v>
       </c>
       <c r="K67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
       <c r="L67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.7649999999999997</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="6">
         <v>24.93</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3565,8 +3688,8 @@
       <c r="D68" s="1">
         <v>143</v>
       </c>
-      <c r="E68" s="4">
-        <f>C68/D68</f>
+      <c r="E68" s="3">
+        <f t="shared" si="0"/>
         <v>77.622377622377627</v>
       </c>
       <c r="F68">
@@ -3583,20 +3706,19 @@
         <v>5.6000000000000014</v>
       </c>
       <c r="K68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.85</v>
       </c>
       <c r="L68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5749999999999993</v>
       </c>
-      <c r="M68" s="1">
+      <c r="M68" s="7">
         <v>29</v>
       </c>
       <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-    </row>
-    <row r="69" spans="1:15">
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3609,8 +3731,8 @@
       <c r="D69">
         <v>14.5</v>
       </c>
-      <c r="E69" s="4">
-        <f t="shared" ref="E69:E111" si="2">C69/D69</f>
+      <c r="E69" s="3">
+        <f t="shared" ref="E69:E111" si="3">C69/D69</f>
         <v>20.689655172413794</v>
       </c>
       <c r="F69">
@@ -3627,19 +3749,18 @@
         <v>1.5</v>
       </c>
       <c r="K69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="6">
         <v>11</v>
       </c>
-      <c r="N69" s="2"/>
-    </row>
-    <row r="70" spans="1:15">
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3652,8 +3773,8 @@
       <c r="D70">
         <v>39.5</v>
       </c>
-      <c r="E70" s="4">
-        <f t="shared" si="2"/>
+      <c r="E70" s="3">
+        <f t="shared" si="3"/>
         <v>24.303797468354432</v>
       </c>
       <c r="F70">
@@ -3670,18 +3791,18 @@
         <v>2</v>
       </c>
       <c r="K70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="L70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3694,8 +3815,8 @@
       <c r="D71">
         <v>78.5</v>
       </c>
-      <c r="E71" s="4">
-        <f t="shared" si="2"/>
+      <c r="E71" s="3">
+        <f t="shared" si="3"/>
         <v>32.484076433121018</v>
       </c>
       <c r="F71">
@@ -3712,18 +3833,18 @@
         <v>2.5</v>
       </c>
       <c r="K71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.8</v>
       </c>
       <c r="L71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9</v>
       </c>
-      <c r="M71">
+      <c r="M71" s="6">
         <v>16.8</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3736,8 +3857,8 @@
       <c r="D72">
         <v>129</v>
       </c>
-      <c r="E72" s="4">
-        <f t="shared" si="2"/>
+      <c r="E72" s="3">
+        <f t="shared" si="3"/>
         <v>41.70542635658915</v>
       </c>
       <c r="F72">
@@ -3754,18 +3875,18 @@
         <v>3.4250000000000007</v>
       </c>
       <c r="K72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.32</v>
       </c>
       <c r="L72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.2749999999999986</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="6">
         <v>24.9</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3778,8 +3899,8 @@
       <c r="D73">
         <v>194</v>
       </c>
-      <c r="E73" s="4">
-        <f t="shared" si="2"/>
+      <c r="E73" s="3">
+        <f t="shared" si="3"/>
         <v>52.577319587628864</v>
       </c>
       <c r="F73">
@@ -3796,18 +3917,18 @@
         <v>3.9350000000000005</v>
       </c>
       <c r="K73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25.4</v>
       </c>
       <c r="L73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.315000000000001</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="6">
         <v>30.23</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3820,8 +3941,8 @@
       <c r="D74">
         <v>225</v>
       </c>
-      <c r="E74" s="4">
-        <f t="shared" si="2"/>
+      <c r="E74" s="3">
+        <f t="shared" si="3"/>
         <v>61.777777777777779</v>
       </c>
       <c r="F74">
@@ -3838,18 +3959,18 @@
         <v>4.25</v>
       </c>
       <c r="K74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.9</v>
       </c>
       <c r="L74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.3</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="6">
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3862,8 +3983,8 @@
       <c r="D75">
         <v>305</v>
       </c>
-      <c r="E75" s="4">
-        <f t="shared" si="2"/>
+      <c r="E75" s="3">
+        <f t="shared" si="3"/>
         <v>80.655737704918039</v>
       </c>
       <c r="F75">
@@ -3880,18 +4001,18 @@
         <v>4.1999999999999993</v>
       </c>
       <c r="K75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38.1</v>
       </c>
       <c r="L75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.95</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3904,8 +4025,8 @@
       <c r="D76">
         <v>511</v>
       </c>
-      <c r="E76" s="4">
-        <f t="shared" si="2"/>
+      <c r="E76" s="3">
+        <f t="shared" si="3"/>
         <v>79.647749510763205</v>
       </c>
       <c r="F76">
@@ -3922,18 +4043,18 @@
         <v>5.1000000000000014</v>
       </c>
       <c r="K76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50.8</v>
       </c>
       <c r="L76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.799999999999997</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="6">
         <v>53.8</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <f>A76+1</f>
         <v>76</v>
@@ -3947,8 +4068,8 @@
       <c r="D77">
         <v>8.4700000000000006</v>
       </c>
-      <c r="E77" s="4">
-        <f t="shared" si="2"/>
+      <c r="E77" s="3">
+        <f t="shared" si="3"/>
         <v>14.167650531286894</v>
       </c>
       <c r="F77">
@@ -3965,20 +4086,20 @@
         <v>1</v>
       </c>
       <c r="K77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="6">
         <v>7.5</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
-        <f t="shared" ref="A78:A138" si="3">A77+1</f>
+        <f t="shared" ref="A78:A138" si="4">A77+1</f>
         <v>77</v>
       </c>
       <c r="B78" t="s">
@@ -3990,8 +4111,8 @@
       <c r="D78">
         <v>11.9</v>
       </c>
-      <c r="E78" s="4">
-        <f t="shared" si="2"/>
+      <c r="E78" s="3">
+        <f t="shared" si="3"/>
         <v>14.621848739495798</v>
       </c>
       <c r="F78">
@@ -4008,20 +4129,20 @@
         <v>1.1500000000000004</v>
       </c>
       <c r="K78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2249999999999996</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="6">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="B79" t="s">
@@ -4033,8 +4154,8 @@
       <c r="D79">
         <v>17.600000000000001</v>
       </c>
-      <c r="E79" s="4">
-        <f t="shared" si="2"/>
+      <c r="E79" s="3">
+        <f t="shared" si="3"/>
         <v>18.920454545454543</v>
       </c>
       <c r="F79">
@@ -4051,20 +4172,20 @@
         <v>1.3499999999999996</v>
       </c>
       <c r="K79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8</v>
       </c>
       <c r="L79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5000000000000004</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="6">
         <v>11.8</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="B80" t="s">
@@ -4076,8 +4197,8 @@
       <c r="D80">
         <v>30.2</v>
       </c>
-      <c r="E80" s="4">
-        <f t="shared" si="2"/>
+      <c r="E80" s="3">
+        <f t="shared" si="3"/>
         <v>22.086092715231789</v>
       </c>
       <c r="F80">
@@ -4094,20 +4215,20 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="K80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="L80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6999999999999993</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="6">
         <v>15.6</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="B81" t="s">
@@ -4119,8 +4240,8 @@
       <c r="D81">
         <v>50.2</v>
       </c>
-      <c r="E81" s="4">
-        <f t="shared" si="2"/>
+      <c r="E81" s="3">
+        <f t="shared" si="3"/>
         <v>26.693227091633464</v>
       </c>
       <c r="F81">
@@ -4137,20 +4258,20 @@
         <v>-2</v>
       </c>
       <c r="K81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="L81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="6">
         <v>20.2</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="B82" t="s">
@@ -4162,8 +4283,8 @@
       <c r="D82">
         <v>141</v>
       </c>
-      <c r="E82" s="4">
-        <f t="shared" si="2"/>
+      <c r="E82" s="3">
+        <f t="shared" si="3"/>
         <v>38.297872340425535</v>
       </c>
       <c r="F82">
@@ -4180,20 +4301,20 @@
         <v>2.4500000000000011</v>
       </c>
       <c r="K82">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25.4</v>
       </c>
       <c r="L82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3999999999999995</v>
       </c>
-      <c r="M82">
+      <c r="M82" s="6">
         <v>27.2</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="B83" t="s">
@@ -4205,8 +4326,8 @@
       <c r="D83">
         <v>225</v>
       </c>
-      <c r="E83" s="4">
-        <f t="shared" si="2"/>
+      <c r="E83" s="3">
+        <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
       <c r="F83">
@@ -4223,20 +4344,20 @@
         <v>3.3000000000000007</v>
       </c>
       <c r="K83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="L83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.02</v>
       </c>
-      <c r="M83">
+      <c r="M83" s="6">
         <v>34.04</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="B84" t="s">
@@ -4248,8 +4369,8 @@
       <c r="D84">
         <v>351</v>
       </c>
-      <c r="E84" s="4">
-        <f t="shared" si="2"/>
+      <c r="E84" s="3">
+        <f t="shared" si="3"/>
         <v>73.504273504273499</v>
       </c>
       <c r="F84">
@@ -4266,20 +4387,20 @@
         <v>4.6000000000000014</v>
       </c>
       <c r="K84">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38.1</v>
       </c>
       <c r="L84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.899999999999999</v>
       </c>
-      <c r="M84">
+      <c r="M84" s="6">
         <v>41.8</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="B85" t="s">
@@ -4291,8 +4412,8 @@
       <c r="D85">
         <v>566</v>
       </c>
-      <c r="E85" s="4">
-        <f t="shared" si="2"/>
+      <c r="E85" s="3">
+        <f t="shared" si="3"/>
         <v>92.932862190812727</v>
       </c>
       <c r="F85">
@@ -4309,20 +4430,20 @@
         <v>5.25</v>
       </c>
       <c r="K85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50.8</v>
       </c>
       <c r="L85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.05</v>
       </c>
-      <c r="M85">
+      <c r="M85" s="6">
         <v>53.5</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="B86" t="s">
@@ -4334,8 +4455,8 @@
       <c r="D86">
         <v>22.5</v>
       </c>
-      <c r="E86" s="4">
-        <f t="shared" si="2"/>
+      <c r="E86" s="3">
+        <f t="shared" si="3"/>
         <v>39.6</v>
       </c>
       <c r="F86">
@@ -4352,20 +4473,20 @@
         <v>2.3499999999999996</v>
       </c>
       <c r="K86">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="L86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.75</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="6">
         <v>14.3</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="B87" t="s">
@@ -4377,8 +4498,8 @@
       <c r="D87">
         <v>32.1</v>
       </c>
-      <c r="E87" s="4">
-        <f t="shared" si="2"/>
+      <c r="E87" s="3">
+        <f t="shared" si="3"/>
         <v>46.417445482866043</v>
       </c>
       <c r="F87">
@@ -4395,20 +4516,20 @@
         <v>3.1499999999999995</v>
       </c>
       <c r="K87">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.1</v>
       </c>
       <c r="L87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="M87">
+      <c r="M87" s="6">
         <v>14.1</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="B88" t="s">
@@ -4420,8 +4541,8 @@
       <c r="D88">
         <v>21.6</v>
       </c>
-      <c r="E88" s="4">
-        <f t="shared" si="2"/>
+      <c r="E88" s="3">
+        <f t="shared" si="3"/>
         <v>43.379629629629626</v>
       </c>
       <c r="F88">
@@ -4438,20 +4559,20 @@
         <v>2.5500000000000007</v>
       </c>
       <c r="K88">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6999999999999993</v>
       </c>
       <c r="L88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="M88">
+      <c r="M88" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="B89" t="s">
@@ -4463,8 +4584,8 @@
       <c r="D89">
         <v>52.5</v>
       </c>
-      <c r="E89" s="4">
-        <f t="shared" si="2"/>
+      <c r="E89" s="3">
+        <f t="shared" si="3"/>
         <v>57.523809523809526</v>
       </c>
       <c r="F89">
@@ -4481,20 +4602,20 @@
         <v>3.75</v>
       </c>
       <c r="K89">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.8</v>
       </c>
       <c r="L89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M89">
+      <c r="M89" s="6">
         <v>17.5</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="B90" t="s">
@@ -4506,8 +4627,8 @@
       <c r="D90">
         <v>38.799999999999997</v>
       </c>
-      <c r="E90" s="4">
-        <f t="shared" si="2"/>
+      <c r="E90" s="3">
+        <f t="shared" si="3"/>
         <v>49.226804123711347</v>
       </c>
       <c r="F90">
@@ -4524,20 +4645,20 @@
         <v>3.2999999999999989</v>
       </c>
       <c r="K90">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.7799999999999994</v>
       </c>
       <c r="L90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.15</v>
       </c>
-      <c r="M90">
+      <c r="M90" s="6">
         <v>18.8</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="B91" t="s">
@@ -4549,8 +4670,8 @@
       <c r="D91">
         <v>60</v>
       </c>
-      <c r="E91" s="4">
-        <f t="shared" si="2"/>
+      <c r="E91" s="3">
+        <f t="shared" si="3"/>
         <v>66.666666666666671</v>
       </c>
       <c r="F91">
@@ -4567,20 +4688,20 @@
         <v>5.25</v>
       </c>
       <c r="K91">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.2</v>
       </c>
       <c r="L91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.15</v>
       </c>
-      <c r="M91">
+      <c r="M91" s="6">
         <v>19.5</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="B92" t="s">
@@ -4592,8 +4713,8 @@
       <c r="D92">
         <v>83</v>
       </c>
-      <c r="E92" s="4">
-        <f t="shared" si="2"/>
+      <c r="E92" s="3">
+        <f t="shared" si="3"/>
         <v>73.975903614457835</v>
       </c>
       <c r="F92">
@@ -4610,20 +4731,20 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="K92">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.399999999999999</v>
       </c>
       <c r="L92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6</v>
       </c>
-      <c r="M92">
+      <c r="M92" s="6">
         <v>22.7</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="B93" t="s">
@@ -4635,8 +4756,8 @@
       <c r="D93">
         <v>96</v>
       </c>
-      <c r="E93" s="4">
-        <f t="shared" si="2"/>
+      <c r="E93" s="3">
+        <f t="shared" si="3"/>
         <v>74.864583333333329</v>
       </c>
       <c r="F93">
@@ -4652,20 +4773,20 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="K93">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.399999999999999</v>
       </c>
       <c r="L93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6</v>
       </c>
-      <c r="M93">
+      <c r="M93" s="6">
         <v>22.7</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="B94" t="s">
@@ -4677,8 +4798,8 @@
       <c r="D94">
         <v>84.8</v>
       </c>
-      <c r="E94" s="4">
-        <f t="shared" si="2"/>
+      <c r="E94" s="3">
+        <f t="shared" si="3"/>
         <v>69.575471698113205</v>
       </c>
       <c r="F94">
@@ -4695,20 +4816,20 @@
         <v>4.75</v>
       </c>
       <c r="K94">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.65</v>
       </c>
       <c r="L94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.7250000000000005</v>
       </c>
-      <c r="M94">
+      <c r="M94" s="6">
         <v>25.1</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="B95" t="s">
@@ -4720,8 +4841,8 @@
       <c r="D95">
         <v>120</v>
       </c>
-      <c r="E95" s="4">
-        <f t="shared" si="2"/>
+      <c r="E95" s="3">
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="F95">
@@ -4738,20 +4859,20 @@
         <v>5.75</v>
       </c>
       <c r="K95">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="L95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.15</v>
       </c>
-      <c r="M95">
+      <c r="M95" s="6">
         <v>24.5</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="B96" t="s">
@@ -4763,8 +4884,8 @@
       <c r="D96">
         <v>149</v>
       </c>
-      <c r="E96" s="4">
-        <f t="shared" si="2"/>
+      <c r="E96" s="3">
+        <f t="shared" si="3"/>
         <v>77.181208053691279</v>
       </c>
       <c r="F96">
@@ -4781,20 +4902,20 @@
         <v>6</v>
       </c>
       <c r="K96">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
       <c r="L96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0500000000000007</v>
       </c>
-      <c r="M96">
+      <c r="M96" s="6">
         <v>28.6</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="B97" t="s">
@@ -4806,8 +4927,8 @@
       <c r="D97">
         <v>178</v>
       </c>
-      <c r="E97" s="4">
-        <f t="shared" si="2"/>
+      <c r="E97" s="3">
+        <f t="shared" si="3"/>
         <v>97.19101123595506</v>
       </c>
       <c r="F97">
@@ -4824,20 +4945,20 @@
         <v>6.25</v>
       </c>
       <c r="K97">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.2</v>
       </c>
       <c r="L97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.65</v>
       </c>
-      <c r="M97">
+      <c r="M97" s="6">
         <v>29.5</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="B98" t="s">
@@ -4849,8 +4970,8 @@
       <c r="D98">
         <v>234</v>
       </c>
-      <c r="E98" s="4">
-        <f t="shared" si="2"/>
+      <c r="E98" s="3">
+        <f t="shared" si="3"/>
         <v>97.008547008547012</v>
       </c>
       <c r="F98">
@@ -4866,20 +4987,20 @@
         <v>6.25</v>
       </c>
       <c r="K98">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21.2</v>
       </c>
       <c r="L98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.65</v>
       </c>
-      <c r="M98">
+      <c r="M98" s="6">
         <v>29.5</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="B99" t="s">
@@ -4891,8 +5012,8 @@
       <c r="D99">
         <v>233</v>
       </c>
-      <c r="E99" s="4">
-        <f t="shared" si="2"/>
+      <c r="E99" s="3">
+        <f t="shared" si="3"/>
         <v>88.841201716738198</v>
       </c>
       <c r="F99">
@@ -4909,20 +5030,20 @@
         <v>7.5499999999999989</v>
       </c>
       <c r="K99">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.600000000000001</v>
       </c>
       <c r="L99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.1000000000000014</v>
       </c>
-      <c r="M99">
+      <c r="M99" s="6">
         <v>31.8</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="B100" t="s">
@@ -4934,8 +5055,8 @@
       <c r="D100">
         <v>354</v>
       </c>
-      <c r="E100" s="4">
-        <f t="shared" si="2"/>
+      <c r="E100" s="3">
+        <f t="shared" si="3"/>
         <v>124.01129943502825</v>
       </c>
       <c r="F100">
@@ -4952,20 +5073,20 @@
         <v>8.75</v>
       </c>
       <c r="K100">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.8</v>
       </c>
       <c r="L100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.15</v>
       </c>
-      <c r="M100">
+      <c r="M100" s="6">
         <v>37.5</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="B101" t="s">
@@ -4977,8 +5098,8 @@
       <c r="D101">
         <v>420</v>
       </c>
-      <c r="E101" s="4">
-        <f t="shared" si="2"/>
+      <c r="E101" s="3">
+        <f t="shared" si="3"/>
         <v>124.04761904761905</v>
       </c>
       <c r="F101">
@@ -4994,20 +5115,20 @@
         <v>8.75</v>
       </c>
       <c r="K101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.8</v>
       </c>
       <c r="L101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.15</v>
       </c>
-      <c r="M101">
+      <c r="M101" s="6">
         <v>37.5</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="B102" t="s">
@@ -5019,8 +5140,8 @@
       <c r="D102">
         <v>340</v>
       </c>
-      <c r="E102" s="4">
-        <f t="shared" si="2"/>
+      <c r="E102" s="3">
+        <f t="shared" si="3"/>
         <v>107.05882352941177</v>
       </c>
       <c r="F102">
@@ -5037,20 +5158,20 @@
         <v>9</v>
       </c>
       <c r="K102">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.6</v>
       </c>
       <c r="L102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.65</v>
       </c>
-      <c r="M102">
+      <c r="M102" s="6">
         <v>38.1</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="B103" t="s">
@@ -5062,8 +5183,8 @@
       <c r="D103">
         <v>535</v>
       </c>
-      <c r="E103" s="4">
-        <f t="shared" si="2"/>
+      <c r="E103" s="3">
+        <f t="shared" si="3"/>
         <v>147.00934579439252</v>
       </c>
       <c r="F103">
@@ -5080,20 +5201,20 @@
         <v>10.399999999999999</v>
       </c>
       <c r="K103">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32.799999999999997</v>
       </c>
       <c r="L103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.100000000000001</v>
       </c>
-      <c r="M103">
+      <c r="M103" s="6">
         <v>44.2</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="B104" t="s">
@@ -5105,8 +5226,8 @@
       <c r="D104">
         <v>683</v>
       </c>
-      <c r="E104" s="4">
-        <f t="shared" si="2"/>
+      <c r="E104" s="3">
+        <f t="shared" si="3"/>
         <v>149.34114202049781</v>
       </c>
       <c r="F104">
@@ -5123,20 +5244,20 @@
         <v>11.25</v>
       </c>
       <c r="K104">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>33.200000000000003</v>
       </c>
       <c r="L104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="M104">
+      <c r="M104" s="6">
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>104</v>
       </c>
       <c r="B105" t="s">
@@ -5148,8 +5269,8 @@
       <c r="D105">
         <v>390</v>
       </c>
-      <c r="E105" s="4">
-        <f t="shared" si="2"/>
+      <c r="E105" s="3">
+        <f t="shared" si="3"/>
         <v>184.10256410256412</v>
       </c>
       <c r="F105">
@@ -5166,20 +5287,20 @@
         <v>10.55</v>
       </c>
       <c r="K105">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38.5</v>
       </c>
       <c r="L105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.350000000000001</v>
       </c>
-      <c r="M105">
+      <c r="M105" s="6">
         <v>58.9</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>105</v>
       </c>
       <c r="B106" t="s">
@@ -5191,8 +5312,8 @@
       <c r="D106">
         <v>85.4</v>
       </c>
-      <c r="E106" s="4">
-        <f t="shared" si="2"/>
+      <c r="E106" s="3">
+        <f t="shared" si="3"/>
         <v>74.941451990632316</v>
       </c>
       <c r="F106">
@@ -5209,20 +5330,20 @@
         <v>3.4000000000000004</v>
       </c>
       <c r="K106">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.4</v>
       </c>
       <c r="L106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9249999999999998</v>
       </c>
-      <c r="M106">
+      <c r="M106" s="6">
         <v>21.75</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>106</v>
       </c>
       <c r="B107" t="s">
@@ -5234,8 +5355,8 @@
       <c r="D107">
         <v>111</v>
       </c>
-      <c r="E107" s="4">
-        <f t="shared" si="2"/>
+      <c r="E107" s="3">
+        <f t="shared" si="3"/>
         <v>89.63963963963964</v>
       </c>
       <c r="F107">
@@ -5252,20 +5373,20 @@
         <v>4.6999999999999993</v>
       </c>
       <c r="K107">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.3</v>
       </c>
       <c r="L107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.15</v>
       </c>
-      <c r="M107">
+      <c r="M107" s="6">
         <v>25.6</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>107</v>
       </c>
       <c r="B108" t="s">
@@ -5277,8 +5398,8 @@
       <c r="D108">
         <v>170</v>
       </c>
-      <c r="E108" s="4">
-        <f t="shared" si="2"/>
+      <c r="E108" s="3">
+        <f t="shared" si="3"/>
         <v>98.82352941176471</v>
       </c>
       <c r="F108">
@@ -5295,20 +5416,20 @@
         <v>5.8000000000000007</v>
       </c>
       <c r="K108">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="L108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6999999999999993</v>
       </c>
-      <c r="M108">
+      <c r="M108" s="6">
         <v>30.4</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
       <c r="B109" t="s">
@@ -5320,8 +5441,8 @@
       <c r="D109">
         <v>233</v>
       </c>
-      <c r="E109" s="4">
-        <f t="shared" si="2"/>
+      <c r="E109" s="3">
+        <f t="shared" si="3"/>
         <v>78.969957081545061</v>
       </c>
       <c r="F109">
@@ -5338,20 +5459,20 @@
         <v>6.5</v>
       </c>
       <c r="K109">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="L109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="M109">
+      <c r="M109" s="6">
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>109</v>
       </c>
       <c r="B110" t="s">
@@ -5363,8 +5484,8 @@
       <c r="D110">
         <v>243</v>
       </c>
-      <c r="E110" s="4">
-        <f t="shared" si="2"/>
+      <c r="E110" s="3">
+        <f t="shared" si="3"/>
         <v>118.10699588477367</v>
       </c>
       <c r="F110">
@@ -5381,20 +5502,20 @@
         <v>5.8500000000000014</v>
       </c>
       <c r="K110">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17.2</v>
       </c>
       <c r="L110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.049999999999999</v>
       </c>
-      <c r="M110">
+      <c r="M110" s="6">
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="B111" t="s">
@@ -5406,8 +5527,8 @@
       <c r="D111">
         <v>256</v>
       </c>
-      <c r="E111" s="4">
-        <f t="shared" si="2"/>
+      <c r="E111" s="3">
+        <f t="shared" si="3"/>
         <v>89.84375</v>
       </c>
       <c r="F111">
@@ -5424,32 +5545,32 @@
         <v>6.8500000000000014</v>
       </c>
       <c r="K111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18.3</v>
       </c>
       <c r="L111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.749999999999998</v>
       </c>
-      <c r="M111">
+      <c r="M111" s="6">
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>123</v>
       </c>
-      <c r="C112" s="5">
+      <c r="C112">
         <v>9780</v>
       </c>
       <c r="D112">
         <v>127</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E112" s="3">
         <v>76.7</v>
       </c>
       <c r="F112">
@@ -5465,31 +5586,31 @@
         <v>5.99</v>
       </c>
       <c r="K112">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.69</v>
       </c>
       <c r="L112">
         <v>8.86</v>
       </c>
-      <c r="M112">
+      <c r="M112" s="6">
         <v>27.6</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>124</v>
       </c>
-      <c r="C113" s="5">
+      <c r="C113">
         <v>10500</v>
       </c>
       <c r="D113">
         <v>107</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E113" s="3">
         <v>98.4</v>
       </c>
       <c r="F113">
@@ -5505,31 +5626,31 @@
         <v>5.94</v>
       </c>
       <c r="K113">
-        <f t="shared" ref="K113:K146" si="4">I113</f>
+        <f t="shared" ref="K113:K146" si="5">I113</f>
         <v>9</v>
       </c>
       <c r="L113">
         <v>8.9</v>
       </c>
-      <c r="M113">
+      <c r="M113" s="6">
         <v>29.5</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>125</v>
       </c>
-      <c r="C114" s="5">
+      <c r="C114">
         <v>17300</v>
       </c>
       <c r="D114">
         <v>178</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E114" s="3">
         <v>97</v>
       </c>
       <c r="F114">
@@ -5545,31 +5666,31 @@
         <v>6.75</v>
       </c>
       <c r="K114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.2</v>
       </c>
       <c r="L114">
         <v>8.65</v>
       </c>
-      <c r="M114">
+      <c r="M114" s="6">
         <v>29.5</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>126</v>
       </c>
-      <c r="C115" s="5">
+      <c r="C115">
         <v>22700</v>
       </c>
       <c r="D115">
         <v>233</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E115" s="3">
         <v>97</v>
       </c>
       <c r="F115">
@@ -5585,31 +5706,31 @@
         <v>6.75</v>
       </c>
       <c r="K115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="L115">
         <v>8.65</v>
       </c>
-      <c r="M115">
+      <c r="M115" s="6">
         <v>29.5</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>127</v>
       </c>
-      <c r="C116" s="5">
+      <c r="C116">
         <v>34200</v>
       </c>
       <c r="D116">
         <v>236</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E116" s="3">
         <v>145</v>
       </c>
       <c r="F116">
@@ -5625,31 +5746,31 @@
         <v>5.98</v>
       </c>
       <c r="K116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="L116">
         <v>9.1300000000000008</v>
       </c>
-      <c r="M116">
+      <c r="M116" s="6">
         <v>29.5</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>128</v>
       </c>
-      <c r="C117" s="5">
+      <c r="C117">
         <v>11500</v>
       </c>
       <c r="D117">
         <v>149</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E117" s="3">
         <v>77</v>
       </c>
       <c r="F117">
@@ -5665,31 +5786,31 @@
         <v>6.33</v>
       </c>
       <c r="K117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.4</v>
       </c>
       <c r="L117">
         <v>7.95</v>
       </c>
-      <c r="M117">
+      <c r="M117" s="6">
         <v>28.6</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>110</v>
       </c>
-      <c r="C118" s="5">
+      <c r="C118">
         <v>20800</v>
       </c>
       <c r="D118">
         <v>234</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E118" s="3">
         <v>88.9</v>
       </c>
       <c r="F118">
@@ -5705,31 +5826,31 @@
         <v>7.54</v>
       </c>
       <c r="K118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.6</v>
       </c>
       <c r="L118">
         <v>7.87</v>
       </c>
-      <c r="M118">
+      <c r="M118" s="6">
         <v>32.4</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>129</v>
       </c>
-      <c r="C119" s="5">
+      <c r="C119">
         <v>44000</v>
       </c>
       <c r="D119">
         <v>353</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E119" s="3">
         <v>124</v>
       </c>
       <c r="F119">
@@ -5745,31 +5866,31 @@
         <v>9.35</v>
       </c>
       <c r="K119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="L119">
         <v>10.15</v>
       </c>
-      <c r="M119">
+      <c r="M119" s="6">
         <v>37.5</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>130</v>
       </c>
-      <c r="C120" s="5">
+      <c r="C120">
         <v>52000</v>
       </c>
       <c r="D120">
         <v>420</v>
       </c>
-      <c r="E120" s="4">
+      <c r="E120" s="3">
         <v>123</v>
       </c>
       <c r="F120">
@@ -5785,31 +5906,31 @@
         <v>9.35</v>
       </c>
       <c r="K120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.61</v>
       </c>
       <c r="L120">
         <v>10.15</v>
       </c>
-      <c r="M120">
+      <c r="M120" s="6">
         <v>37.5</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>113</v>
       </c>
-      <c r="C121" s="5">
+      <c r="C121">
         <v>36000</v>
       </c>
       <c r="D121">
         <v>337</v>
       </c>
-      <c r="E121" s="4">
+      <c r="E121" s="3">
         <v>107</v>
       </c>
       <c r="F121">
@@ -5825,31 +5946,31 @@
         <v>9.5</v>
       </c>
       <c r="K121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.8</v>
       </c>
       <c r="L121">
         <v>9.0299999999999994</v>
       </c>
-      <c r="M121">
+      <c r="M121" s="6">
         <v>38.1</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>131</v>
       </c>
-      <c r="C122" s="5">
+      <c r="C122">
         <v>27200</v>
       </c>
       <c r="D122">
         <v>248</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E122" s="3">
         <v>110</v>
       </c>
       <c r="F122">
@@ -5865,31 +5986,31 @@
         <v>7.7</v>
       </c>
       <c r="K122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.62</v>
       </c>
       <c r="L122">
         <v>14.49</v>
       </c>
-      <c r="M122">
+      <c r="M122" s="6">
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>132</v>
       </c>
-      <c r="C123" s="5">
+      <c r="C123">
         <v>55900</v>
       </c>
       <c r="D123">
         <v>402</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E123" s="3">
         <v>139</v>
       </c>
       <c r="F123">
@@ -5905,31 +6026,31 @@
         <v>9</v>
       </c>
       <c r="K123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.3</v>
       </c>
       <c r="L123">
         <v>12.1</v>
       </c>
-      <c r="M123">
+      <c r="M123" s="6">
         <v>42.3</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>114</v>
       </c>
-      <c r="C124" s="5">
+      <c r="C124">
         <v>79000</v>
       </c>
       <c r="D124">
         <v>540</v>
       </c>
-      <c r="E124" s="4">
+      <c r="E124" s="3">
         <v>147</v>
       </c>
       <c r="F124">
@@ -5945,31 +6066,31 @@
         <v>9.9499999999999993</v>
       </c>
       <c r="K124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.4</v>
       </c>
       <c r="L124">
         <v>12.72</v>
       </c>
-      <c r="M124">
+      <c r="M124" s="6">
         <v>44.2</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>115</v>
       </c>
-      <c r="C125" s="5">
+      <c r="C125">
         <v>102000</v>
       </c>
       <c r="D125">
         <v>683</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E125" s="3">
         <v>149</v>
       </c>
       <c r="F125">
@@ -5985,31 +6106,31 @@
         <v>11.25</v>
       </c>
       <c r="K125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="L125">
         <v>13</v>
       </c>
-      <c r="M125">
+      <c r="M125" s="6">
         <v>48</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>133</v>
       </c>
-      <c r="C126" s="5">
+      <c r="C126">
         <v>50300</v>
       </c>
       <c r="D126">
         <v>368</v>
       </c>
-      <c r="E126" s="4">
+      <c r="E126" s="3">
         <v>137</v>
       </c>
       <c r="F126">
@@ -6025,31 +6146,31 @@
         <v>9.5299999999999994</v>
       </c>
       <c r="K126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="L126">
         <v>16.899999999999999</v>
       </c>
-      <c r="M126">
+      <c r="M126" s="6">
         <v>52.6</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>116</v>
       </c>
-      <c r="C127" s="5">
+      <c r="C127">
         <v>72300</v>
       </c>
       <c r="D127">
         <v>392</v>
       </c>
-      <c r="E127" s="4">
+      <c r="E127" s="3">
         <v>184</v>
       </c>
       <c r="F127">
@@ -6065,25 +6186,25 @@
         <v>11.25</v>
       </c>
       <c r="K127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>19.8</v>
       </c>
       <c r="L127">
         <v>19.45</v>
       </c>
-      <c r="M127">
+      <c r="M127" s="6">
         <v>59.1</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>134</v>
       </c>
-      <c r="C128" s="5">
+      <c r="C128">
         <v>202000</v>
       </c>
       <c r="D128">
@@ -6105,25 +6226,25 @@
         <v>13.75</v>
       </c>
       <c r="K128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>27.5</v>
       </c>
       <c r="L128">
         <v>22.65</v>
       </c>
-      <c r="M128">
+      <c r="M128" s="6">
         <v>72</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>135</v>
       </c>
-      <c r="C129" s="5">
+      <c r="C129">
         <v>11100</v>
       </c>
       <c r="D129">
@@ -6145,25 +6266,25 @@
         <v>3.81</v>
       </c>
       <c r="K129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.5299999999999994</v>
       </c>
       <c r="L129">
         <v>11.43</v>
       </c>
-      <c r="M129">
+      <c r="M129" s="6">
         <v>30.23</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>136</v>
       </c>
-      <c r="C130" s="5">
+      <c r="C130">
         <v>13100</v>
       </c>
       <c r="D130">
@@ -6185,25 +6306,25 @@
         <v>4.2</v>
       </c>
       <c r="K130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.51</v>
       </c>
       <c r="L130">
         <v>13.46</v>
       </c>
-      <c r="M130">
+      <c r="M130" s="6">
         <v>34.4</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>137</v>
       </c>
-      <c r="C131" s="5">
+      <c r="C131">
         <v>13900</v>
       </c>
       <c r="D131">
@@ -6225,25 +6346,25 @@
         <v>4.7</v>
       </c>
       <c r="K131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
       <c r="L131">
         <v>13.2</v>
       </c>
-      <c r="M131">
+      <c r="M131" s="6">
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>138</v>
       </c>
-      <c r="C132" s="5">
+      <c r="C132">
         <v>24600</v>
       </c>
       <c r="D132">
@@ -6265,25 +6386,25 @@
         <v>3.7</v>
       </c>
       <c r="K132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.54</v>
       </c>
       <c r="L132">
         <v>21.4</v>
       </c>
-      <c r="M132">
+      <c r="M132" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>139</v>
       </c>
-      <c r="C133" s="5">
+      <c r="C133">
         <v>41400</v>
       </c>
       <c r="D133">
@@ -6305,25 +6426,25 @@
         <v>5.08</v>
       </c>
       <c r="K133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.199999999999999</v>
       </c>
       <c r="L133">
         <v>21.8</v>
       </c>
-      <c r="M133">
+      <c r="M133" s="6">
         <v>53.16</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>140</v>
       </c>
-      <c r="C134" s="5">
+      <c r="C134">
         <v>79800</v>
       </c>
       <c r="D134">
@@ -6345,25 +6466,25 @@
         <v>8</v>
       </c>
       <c r="K134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.3</v>
       </c>
       <c r="L134">
         <v>36</v>
       </c>
-      <c r="M134">
+      <c r="M134" s="6">
         <v>86</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>141</v>
       </c>
-      <c r="C135" s="5">
+      <c r="C135">
         <v>120</v>
       </c>
       <c r="D135">
@@ -6386,26 +6507,26 @@
         <v>1</v>
       </c>
       <c r="K135">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="L135">
+        <f t="shared" ref="L135:L146" si="6">(M135-H135)/2</f>
+        <v>2</v>
+      </c>
+      <c r="M135" s="6">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A136">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="L135">
-        <f t="shared" ref="L135:L146" si="5">(M135-H135)/2</f>
-        <v>2</v>
-      </c>
-      <c r="M135">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13">
-      <c r="A136">
-        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>142</v>
       </c>
-      <c r="C136" s="5">
+      <c r="C136">
         <v>174</v>
       </c>
       <c r="D136">
@@ -6428,26 +6549,26 @@
         <v>1.1500000000000004</v>
       </c>
       <c r="K136">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="6"/>
+        <v>2.2249999999999996</v>
+      </c>
+      <c r="M136" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="L136">
-        <f t="shared" si="5"/>
-        <v>2.2249999999999996</v>
-      </c>
-      <c r="M136">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13">
-      <c r="A137">
-        <f t="shared" si="3"/>
         <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>143</v>
       </c>
-      <c r="C137" s="5">
+      <c r="C137">
         <v>348</v>
       </c>
       <c r="D137">
@@ -6470,26 +6591,26 @@
         <v>0.80000000000000071</v>
       </c>
       <c r="K137">
+        <f t="shared" si="5"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="6"/>
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="M137" s="6">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A138">
         <f t="shared" si="4"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L137">
-        <f t="shared" si="5"/>
-        <v>3.0999999999999996</v>
-      </c>
-      <c r="M137">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13">
-      <c r="A138">
-        <f t="shared" si="3"/>
         <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>144</v>
       </c>
-      <c r="C138" s="5">
+      <c r="C138">
         <v>333</v>
       </c>
       <c r="D138">
@@ -6512,26 +6633,26 @@
         <v>1.5499999999999998</v>
       </c>
       <c r="K138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.8</v>
       </c>
       <c r="L138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.4</v>
       </c>
-      <c r="M138">
+      <c r="M138" s="6">
         <v>11.6</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139">
-        <f t="shared" ref="A139:A146" si="6">A138+1</f>
+        <f t="shared" ref="A139:A197" si="7">A138+1</f>
         <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>145</v>
       </c>
-      <c r="C139" s="5">
+      <c r="C139">
         <v>667</v>
       </c>
       <c r="D139">
@@ -6554,26 +6675,26 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="K139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="L139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.6999999999999993</v>
       </c>
-      <c r="M139">
+      <c r="M139" s="6">
         <v>15.6</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>146</v>
       </c>
-      <c r="C140" s="5">
+      <c r="C140">
         <v>1960</v>
       </c>
       <c r="D140">
@@ -6596,26 +6717,26 @@
         <v>1</v>
       </c>
       <c r="K140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="L140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="M140">
+      <c r="M140" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>146</v>
       </c>
-      <c r="C141" s="5">
+      <c r="C141">
         <v>1960</v>
       </c>
       <c r="D141">
@@ -6638,26 +6759,26 @@
         <v>1</v>
       </c>
       <c r="K141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="L141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5999999999999996</v>
       </c>
-      <c r="M141">
+      <c r="M141" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>147</v>
       </c>
-      <c r="C142" s="5">
+      <c r="C142">
         <v>1340</v>
       </c>
       <c r="D142">
@@ -6680,26 +6801,26 @@
         <v>1.5</v>
       </c>
       <c r="K142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12.5</v>
       </c>
       <c r="L142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.1</v>
       </c>
-      <c r="M142">
+      <c r="M142" s="6">
         <v>20.2</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>148</v>
       </c>
-      <c r="C143" s="5">
+      <c r="C143">
         <v>3100</v>
       </c>
       <c r="D143">
@@ -6722,26 +6843,26 @@
         <v>1.5</v>
       </c>
       <c r="K143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="L143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.5</v>
       </c>
-      <c r="M143">
+      <c r="M143" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>149</v>
       </c>
-      <c r="C144" s="5">
+      <c r="C144">
         <v>4145</v>
       </c>
       <c r="D144">
@@ -6764,26 +6885,26 @@
         <v>1.5</v>
       </c>
       <c r="K144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="L144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.5</v>
       </c>
-      <c r="M144">
+      <c r="M144" s="6">
         <v>22</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>150</v>
       </c>
-      <c r="C145" s="5">
+      <c r="C145">
         <v>4970</v>
       </c>
       <c r="D145">
@@ -6806,26 +6927,26 @@
         <v>2</v>
       </c>
       <c r="K145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="L145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.5</v>
       </c>
-      <c r="M145">
+      <c r="M145" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="146" spans="1:13">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>151</v>
       </c>
-      <c r="C146" s="5">
+      <c r="C146">
         <v>5400</v>
       </c>
       <c r="D146">
@@ -6848,15 +6969,2153 @@
         <v>2.4500000000000011</v>
       </c>
       <c r="K146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25.4</v>
       </c>
       <c r="L146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.3999999999999995</v>
       </c>
-      <c r="M146">
+      <c r="M146" s="6">
         <v>27.2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <f t="shared" si="7"/>
+        <v>146</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C147">
+        <v>159000</v>
+      </c>
+      <c r="D147">
+        <v>448</v>
+      </c>
+      <c r="E147" s="2">
+        <f>C147/D147</f>
+        <v>354.91071428571428</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
+      </c>
+      <c r="H147">
+        <v>28</v>
+      </c>
+      <c r="I147">
+        <v>16</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>34.6</v>
+      </c>
+      <c r="M147" s="6">
+        <v>48</v>
+      </c>
+      <c r="N147" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <f t="shared" si="7"/>
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>152</v>
+      </c>
+      <c r="C148">
+        <v>144000</v>
+      </c>
+      <c r="D148">
+        <v>560</v>
+      </c>
+      <c r="E148" s="2">
+        <f>C148/D148</f>
+        <v>257.14285714285717</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+      <c r="H148">
+        <v>28</v>
+      </c>
+      <c r="I148">
+        <v>20</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>34.6</v>
+      </c>
+      <c r="M148" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <f t="shared" si="7"/>
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149">
+        <v>217000</v>
+      </c>
+      <c r="D149">
+        <v>840</v>
+      </c>
+      <c r="E149" s="2">
+        <f>C149/D149</f>
+        <v>258.33333333333331</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+      <c r="H149">
+        <v>28</v>
+      </c>
+      <c r="I149">
+        <v>30</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>34.6</v>
+      </c>
+      <c r="M149" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <f t="shared" si="7"/>
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>156</v>
+      </c>
+      <c r="C150">
+        <v>310800</v>
+      </c>
+      <c r="D150">
+        <v>840</v>
+      </c>
+      <c r="E150" s="2">
+        <f t="shared" ref="E150:E197" si="8">C150/D150</f>
+        <v>370</v>
+      </c>
+      <c r="F150">
+        <v>3</v>
+      </c>
+      <c r="H150">
+        <v>28</v>
+      </c>
+      <c r="I150">
+        <v>30</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>44</v>
+      </c>
+      <c r="M150" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>154</v>
+      </c>
+      <c r="C151">
+        <v>198000</v>
+      </c>
+      <c r="D151">
+        <v>560</v>
+      </c>
+      <c r="E151" s="2">
+        <f t="shared" si="8"/>
+        <v>353.57142857142856</v>
+      </c>
+      <c r="F151">
+        <v>3</v>
+      </c>
+      <c r="H151">
+        <v>28</v>
+      </c>
+      <c r="I151">
+        <v>20</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>70</v>
+      </c>
+      <c r="M151" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <f t="shared" si="7"/>
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>155</v>
+      </c>
+      <c r="C152">
+        <v>508950</v>
+      </c>
+      <c r="D152">
+        <v>1350</v>
+      </c>
+      <c r="E152" s="2">
+        <f t="shared" si="8"/>
+        <v>377</v>
+      </c>
+      <c r="F152">
+        <v>3</v>
+      </c>
+      <c r="H152">
+        <v>45.5</v>
+      </c>
+      <c r="I152">
+        <v>30</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>50</v>
+      </c>
+      <c r="M152" s="6">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <f t="shared" si="7"/>
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>158</v>
+      </c>
+      <c r="C153">
+        <v>309</v>
+      </c>
+      <c r="D153">
+        <v>8.07</v>
+      </c>
+      <c r="E153" s="2">
+        <f t="shared" si="8"/>
+        <v>38.289962825278806</v>
+      </c>
+      <c r="F153">
+        <v>3</v>
+      </c>
+      <c r="H153">
+        <f>(9.9-L153)/2</f>
+        <v>2.7750000000000004</v>
+      </c>
+      <c r="I153">
+        <v>2.85</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M153" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <f t="shared" si="7"/>
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>159</v>
+      </c>
+      <c r="C154">
+        <v>1680</v>
+      </c>
+      <c r="D154">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="E154" s="2">
+        <f t="shared" si="8"/>
+        <v>52.012383900928796</v>
+      </c>
+      <c r="F154">
+        <v>3</v>
+      </c>
+      <c r="H154">
+        <f>(15.4-L154)/2</f>
+        <v>5</v>
+      </c>
+      <c r="I154">
+        <v>6.25</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>5.4</v>
+      </c>
+      <c r="M154" s="6">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <f t="shared" si="7"/>
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>160</v>
+      </c>
+      <c r="C155">
+        <v>3800</v>
+      </c>
+      <c r="D155">
+        <v>56</v>
+      </c>
+      <c r="E155" s="2">
+        <f t="shared" si="8"/>
+        <v>67.857142857142861</v>
+      </c>
+      <c r="F155">
+        <v>3</v>
+      </c>
+      <c r="H155">
+        <f>(20.8-L155)/2</f>
+        <v>7.2</v>
+      </c>
+      <c r="I155">
+        <v>7.5</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>6.4</v>
+      </c>
+      <c r="M155" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <f t="shared" si="7"/>
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>161</v>
+      </c>
+      <c r="C156">
+        <v>3380</v>
+      </c>
+      <c r="D156">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="E156" s="2">
+        <f t="shared" si="8"/>
+        <v>83.870967741935488</v>
+      </c>
+      <c r="F156">
+        <v>3</v>
+      </c>
+      <c r="H156">
+        <f>(25.4-L156)/2</f>
+        <v>6.35</v>
+      </c>
+      <c r="I156">
+        <v>6.4</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>12.7</v>
+      </c>
+      <c r="M156" s="6">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <f t="shared" si="7"/>
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>162</v>
+      </c>
+      <c r="C157">
+        <v>9180</v>
+      </c>
+      <c r="D157">
+        <v>104</v>
+      </c>
+      <c r="E157" s="2">
+        <f t="shared" si="8"/>
+        <v>88.269230769230774</v>
+      </c>
+      <c r="F157">
+        <v>3</v>
+      </c>
+      <c r="H157">
+        <f>(24.8-L157)/2</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I157">
+        <v>12.7</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>8.4</v>
+      </c>
+      <c r="M157" s="6">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <f t="shared" si="7"/>
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>163</v>
+      </c>
+      <c r="C158">
+        <v>17900</v>
+      </c>
+      <c r="D158">
+        <v>161</v>
+      </c>
+      <c r="E158" s="2">
+        <f t="shared" si="8"/>
+        <v>111.18012422360249</v>
+      </c>
+      <c r="F158">
+        <v>3</v>
+      </c>
+      <c r="H158">
+        <f>(31.3-L158)/2</f>
+        <v>10.4</v>
+      </c>
+      <c r="I158">
+        <v>16</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>10.5</v>
+      </c>
+      <c r="M158" s="6">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <f t="shared" si="7"/>
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>164</v>
+      </c>
+      <c r="C159">
+        <v>9490</v>
+      </c>
+      <c r="D159">
+        <v>86.5</v>
+      </c>
+      <c r="E159" s="2">
+        <f t="shared" si="8"/>
+        <v>109.71098265895954</v>
+      </c>
+      <c r="F159">
+        <v>3</v>
+      </c>
+      <c r="H159">
+        <f>(33.3-L159)/2</f>
+        <v>9.4999999999999982</v>
+      </c>
+      <c r="I159">
+        <v>9.4</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>14.3</v>
+      </c>
+      <c r="M159" s="6">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <f t="shared" si="7"/>
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>165</v>
+      </c>
+      <c r="C160">
+        <v>71300</v>
+      </c>
+      <c r="D160">
+        <v>392</v>
+      </c>
+      <c r="E160" s="2">
+        <f t="shared" si="8"/>
+        <v>181.88775510204081</v>
+      </c>
+      <c r="F160">
+        <v>3</v>
+      </c>
+      <c r="H160">
+        <f>(46-L160)/2</f>
+        <v>14</v>
+      </c>
+      <c r="I160">
+        <v>28</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>18</v>
+      </c>
+      <c r="M160" s="6">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <f t="shared" si="7"/>
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>166</v>
+      </c>
+      <c r="C161">
+        <v>35200</v>
+      </c>
+      <c r="D161">
+        <v>204</v>
+      </c>
+      <c r="E161" s="2">
+        <f t="shared" si="8"/>
+        <v>172.54901960784315</v>
+      </c>
+      <c r="F161">
+        <v>3</v>
+      </c>
+      <c r="H161">
+        <f>(67.3-L161)/2</f>
+        <v>14.25</v>
+      </c>
+      <c r="I161">
+        <v>14.3</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="M161" s="6">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <f t="shared" si="7"/>
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>167</v>
+      </c>
+      <c r="C162">
+        <v>219000</v>
+      </c>
+      <c r="D162">
+        <v>706</v>
+      </c>
+      <c r="E162" s="2">
+        <f t="shared" si="8"/>
+        <v>310.19830028328613</v>
+      </c>
+      <c r="F162">
+        <v>3</v>
+      </c>
+      <c r="H162">
+        <f>(79.8-L162)/2</f>
+        <v>22.299999999999997</v>
+      </c>
+      <c r="I162">
+        <v>31.7</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="M162" s="6">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <f t="shared" si="7"/>
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>168</v>
+      </c>
+      <c r="C163">
+        <v>217000</v>
+      </c>
+      <c r="D163">
+        <v>840</v>
+      </c>
+      <c r="E163" s="2">
+        <f t="shared" si="8"/>
+        <v>258.33333333333331</v>
+      </c>
+      <c r="F163">
+        <v>3</v>
+      </c>
+      <c r="H163">
+        <f>(92-L163)/2</f>
+        <v>27.9</v>
+      </c>
+      <c r="I163">
+        <v>30</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="M163" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <f t="shared" si="7"/>
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>169</v>
+      </c>
+      <c r="C164">
+        <v>159000</v>
+      </c>
+      <c r="D164">
+        <v>448</v>
+      </c>
+      <c r="E164" s="2">
+        <f t="shared" si="8"/>
+        <v>354.91071428571428</v>
+      </c>
+      <c r="F164">
+        <v>3</v>
+      </c>
+      <c r="H164">
+        <f>(93-L164)/2</f>
+        <v>28.4</v>
+      </c>
+      <c r="I164">
+        <v>16</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="M164" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <f t="shared" si="7"/>
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>170</v>
+      </c>
+      <c r="C165">
+        <v>297000</v>
+      </c>
+      <c r="D165">
+        <v>840</v>
+      </c>
+      <c r="E165" s="2">
+        <f t="shared" si="8"/>
+        <v>353.57142857142856</v>
+      </c>
+      <c r="F165">
+        <v>3</v>
+      </c>
+      <c r="H165">
+        <f>(93-L165)/2</f>
+        <v>28.4</v>
+      </c>
+      <c r="I165">
+        <v>30</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="M165" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <f t="shared" si="7"/>
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>171</v>
+      </c>
+      <c r="C166">
+        <v>199000</v>
+      </c>
+      <c r="D166">
+        <v>645</v>
+      </c>
+      <c r="E166" s="2">
+        <f t="shared" si="8"/>
+        <v>308.52713178294573</v>
+      </c>
+      <c r="F166">
+        <v>3</v>
+      </c>
+      <c r="H166">
+        <f>(101.6-L166)/2</f>
+        <v>25.4</v>
+      </c>
+      <c r="I166">
+        <v>25.4</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>50.8</v>
+      </c>
+      <c r="M166" s="6">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <f t="shared" si="7"/>
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>172</v>
+      </c>
+      <c r="C167">
+        <v>268800</v>
+      </c>
+      <c r="D167">
+        <v>560</v>
+      </c>
+      <c r="E167" s="2">
+        <f t="shared" si="8"/>
+        <v>480</v>
+      </c>
+      <c r="F167">
+        <v>3</v>
+      </c>
+      <c r="H167">
+        <f>(126-70)/2</f>
+        <v>28</v>
+      </c>
+      <c r="I167">
+        <v>20</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>70</v>
+      </c>
+      <c r="M167" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="6">
+        <f t="shared" si="7"/>
+        <v>167</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C168" s="6">
+        <v>16640</v>
+      </c>
+      <c r="D168" s="6">
+        <v>129</v>
+      </c>
+      <c r="E168" s="8">
+        <f t="shared" si="8"/>
+        <v>128.99224806201551</v>
+      </c>
+      <c r="F168" s="6">
+        <v>3</v>
+      </c>
+      <c r="H168" s="6">
+        <f>(O168-L168)/2</f>
+        <v>11.7</v>
+      </c>
+      <c r="I168" s="6">
+        <v>13</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168" s="6">
+        <v>12</v>
+      </c>
+      <c r="M168" s="6">
+        <v>17.5</v>
+      </c>
+      <c r="O168" s="6">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <f t="shared" si="7"/>
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>174</v>
+      </c>
+      <c r="C169">
+        <v>18900</v>
+      </c>
+      <c r="D169">
+        <v>148</v>
+      </c>
+      <c r="E169" s="2">
+        <f t="shared" si="8"/>
+        <v>127.70270270270271</v>
+      </c>
+      <c r="F169">
+        <v>3</v>
+      </c>
+      <c r="H169" s="6">
+        <f>(O169-L169)/2</f>
+        <v>11.5</v>
+      </c>
+      <c r="I169">
+        <v>14.7</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>13.9</v>
+      </c>
+      <c r="M169" s="6">
+        <v>16.8</v>
+      </c>
+      <c r="O169">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <f t="shared" si="7"/>
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>175</v>
+      </c>
+      <c r="C170">
+        <v>24300</v>
+      </c>
+      <c r="D170">
+        <v>149</v>
+      </c>
+      <c r="E170" s="2">
+        <f t="shared" si="8"/>
+        <v>163.08724832214764</v>
+      </c>
+      <c r="F170">
+        <v>3</v>
+      </c>
+      <c r="H170" s="6">
+        <f>(O170-L170)/2</f>
+        <v>11.850000000000001</v>
+      </c>
+      <c r="I170">
+        <v>14.9</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>0</v>
+      </c>
+      <c r="L170">
+        <v>15</v>
+      </c>
+      <c r="M170" s="6">
+        <v>24.8</v>
+      </c>
+      <c r="O170">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <f t="shared" si="7"/>
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>176</v>
+      </c>
+      <c r="C171">
+        <v>11800</v>
+      </c>
+      <c r="D171">
+        <v>104</v>
+      </c>
+      <c r="E171" s="2">
+        <f t="shared" si="8"/>
+        <v>113.46153846153847</v>
+      </c>
+      <c r="F171">
+        <v>3</v>
+      </c>
+      <c r="H171" s="6">
+        <f>(O171-L171)/2</f>
+        <v>11.799999999999999</v>
+      </c>
+      <c r="I171">
+        <v>11.9</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>0</v>
+      </c>
+      <c r="L171">
+        <v>18.2</v>
+      </c>
+      <c r="M171" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="O171">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <f t="shared" si="7"/>
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>177</v>
+      </c>
+      <c r="C172">
+        <v>11600</v>
+      </c>
+      <c r="D172">
+        <v>88</v>
+      </c>
+      <c r="E172" s="2">
+        <f t="shared" si="8"/>
+        <v>131.81818181818181</v>
+      </c>
+      <c r="F172">
+        <v>3</v>
+      </c>
+      <c r="H172" s="6">
+        <f>(O172-L172)/2</f>
+        <v>10.900000000000002</v>
+      </c>
+      <c r="I172">
+        <v>11.15</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>24.4</v>
+      </c>
+      <c r="M172" s="6">
+        <v>11.85</v>
+      </c>
+      <c r="O172">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <f t="shared" si="7"/>
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>178</v>
+      </c>
+      <c r="C173">
+        <v>39990</v>
+      </c>
+      <c r="D173">
+        <v>215</v>
+      </c>
+      <c r="E173" s="2">
+        <f t="shared" si="8"/>
+        <v>186</v>
+      </c>
+      <c r="F173">
+        <v>3</v>
+      </c>
+      <c r="H173" s="6">
+        <f>(O173-L173)/2</f>
+        <v>15.3</v>
+      </c>
+      <c r="I173">
+        <v>17</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="M173" s="6">
+        <v>26.9</v>
+      </c>
+      <c r="O173">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <f t="shared" si="7"/>
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>179</v>
+      </c>
+      <c r="C174">
+        <v>78570</v>
+      </c>
+      <c r="D174">
+        <v>418</v>
+      </c>
+      <c r="E174" s="2">
+        <f t="shared" si="8"/>
+        <v>187.96650717703349</v>
+      </c>
+      <c r="F174">
+        <v>3</v>
+      </c>
+      <c r="H174" s="6">
+        <f>(O174-L174)/2</f>
+        <v>17.649999999999999</v>
+      </c>
+      <c r="I174">
+        <v>23.5</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="M174" s="6">
+        <v>25.5</v>
+      </c>
+      <c r="O174">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <f t="shared" si="7"/>
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>180</v>
+      </c>
+      <c r="C175">
+        <v>27900</v>
+      </c>
+      <c r="D175">
+        <v>171</v>
+      </c>
+      <c r="E175" s="2">
+        <f t="shared" si="8"/>
+        <v>163.15789473684211</v>
+      </c>
+      <c r="F175">
+        <v>3</v>
+      </c>
+      <c r="H175" s="6">
+        <f>(O175-L175)/2</f>
+        <v>15.375</v>
+      </c>
+      <c r="I175">
+        <v>15.5</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>26.9</v>
+      </c>
+      <c r="M175" s="6">
+        <v>16</v>
+      </c>
+      <c r="O175">
+        <v>57.65</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <f t="shared" si="7"/>
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>181</v>
+      </c>
+      <c r="C176">
+        <v>39700</v>
+      </c>
+      <c r="D176">
+        <v>210</v>
+      </c>
+      <c r="E176" s="2">
+        <f t="shared" si="8"/>
+        <v>189.04761904761904</v>
+      </c>
+      <c r="F176">
+        <v>3</v>
+      </c>
+      <c r="H176" s="6">
+        <f>(O176-L176)/2</f>
+        <v>16.920000000000002</v>
+      </c>
+      <c r="I176">
+        <v>17</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>25.5</v>
+      </c>
+      <c r="M176" s="6">
+        <v>21.9</v>
+      </c>
+      <c r="O176">
+        <v>59.34</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <f t="shared" si="7"/>
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>182</v>
+      </c>
+      <c r="C177">
+        <v>27040</v>
+      </c>
+      <c r="D177">
+        <v>147</v>
+      </c>
+      <c r="E177" s="2">
+        <f t="shared" si="8"/>
+        <v>183.94557823129253</v>
+      </c>
+      <c r="F177">
+        <v>3</v>
+      </c>
+      <c r="H177" s="6">
+        <f>(O177-L177)/2</f>
+        <v>13.95</v>
+      </c>
+      <c r="I177">
+        <v>13.8</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>36.1</v>
+      </c>
+      <c r="M177" s="6">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="O177">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <f t="shared" si="7"/>
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>183</v>
+      </c>
+      <c r="C178">
+        <v>61000</v>
+      </c>
+      <c r="D178">
+        <v>290</v>
+      </c>
+      <c r="E178" s="2">
+        <f t="shared" si="8"/>
+        <v>210.34482758620689</v>
+      </c>
+      <c r="F178">
+        <v>3</v>
+      </c>
+      <c r="H178" s="6">
+        <f>(O178-L178)/2</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I178">
+        <v>20</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>23.2</v>
+      </c>
+      <c r="M178" s="6">
+        <v>26.5</v>
+      </c>
+      <c r="O178">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <f t="shared" si="7"/>
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>184</v>
+      </c>
+      <c r="C179">
+        <v>64900</v>
+      </c>
+      <c r="D179">
+        <v>308</v>
+      </c>
+      <c r="E179" s="2">
+        <f t="shared" si="8"/>
+        <v>210.71428571428572</v>
+      </c>
+      <c r="F179">
+        <v>3</v>
+      </c>
+      <c r="H179" s="6">
+        <f>(O179-L179)/2</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I179">
+        <v>20</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>23.2</v>
+      </c>
+      <c r="M179" s="6">
+        <v>26.5</v>
+      </c>
+      <c r="O179">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <f t="shared" si="7"/>
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>185</v>
+      </c>
+      <c r="C180">
+        <v>43800</v>
+      </c>
+      <c r="D180">
+        <v>214</v>
+      </c>
+      <c r="E180" s="2">
+        <f t="shared" si="8"/>
+        <v>204.67289719626169</v>
+      </c>
+      <c r="F180">
+        <v>3</v>
+      </c>
+      <c r="H180" s="6">
+        <f>(O180-L180)/2</f>
+        <v>16.685000000000002</v>
+      </c>
+      <c r="I180">
+        <v>17.25</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>35</v>
+      </c>
+      <c r="M180" s="6">
+        <v>19.05</v>
+      </c>
+      <c r="O180">
+        <v>68.37</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <f t="shared" si="7"/>
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>186</v>
+      </c>
+      <c r="C181">
+        <v>350</v>
+      </c>
+      <c r="D181">
+        <v>12</v>
+      </c>
+      <c r="E181" s="2">
+        <f t="shared" si="8"/>
+        <v>29.166666666666668</v>
+      </c>
+      <c r="F181">
+        <v>3</v>
+      </c>
+      <c r="H181">
+        <v>1.83</v>
+      </c>
+      <c r="I181">
+        <v>6.3</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181">
+        <v>0</v>
+      </c>
+      <c r="L181">
+        <v>7.19</v>
+      </c>
+      <c r="M181" s="6">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <f t="shared" si="7"/>
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>187</v>
+      </c>
+      <c r="C182" s="5">
+        <v>4130</v>
+      </c>
+      <c r="D182">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="E182" s="2">
+        <f t="shared" si="8"/>
+        <v>104.03022670025189</v>
+      </c>
+      <c r="F182">
+        <v>3</v>
+      </c>
+      <c r="H182">
+        <v>6.27</v>
+      </c>
+      <c r="I182">
+        <v>6.27</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>9.5</v>
+      </c>
+      <c r="M182" s="6">
+        <v>13.98</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <f t="shared" si="7"/>
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>188</v>
+      </c>
+      <c r="C183" s="5">
+        <v>4170</v>
+      </c>
+      <c r="D183">
+        <v>80</v>
+      </c>
+      <c r="E183" s="2">
+        <f t="shared" si="8"/>
+        <v>52.125</v>
+      </c>
+      <c r="F183">
+        <v>3</v>
+      </c>
+      <c r="H183">
+        <v>6.3</v>
+      </c>
+      <c r="I183">
+        <v>12.7</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>12.8</v>
+      </c>
+      <c r="M183" s="6">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <f t="shared" si="7"/>
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>189</v>
+      </c>
+      <c r="C184" s="5">
+        <v>3370</v>
+      </c>
+      <c r="D184">
+        <v>40.4</v>
+      </c>
+      <c r="E184" s="2">
+        <f t="shared" si="8"/>
+        <v>83.415841584158414</v>
+      </c>
+      <c r="F184">
+        <v>3</v>
+      </c>
+      <c r="H184">
+        <v>6.45</v>
+      </c>
+      <c r="I184">
+        <v>6.35</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>0</v>
+      </c>
+      <c r="L184">
+        <v>12.7</v>
+      </c>
+      <c r="M184" s="6">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <f t="shared" si="7"/>
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>190</v>
+      </c>
+      <c r="C185" s="5">
+        <v>6740</v>
+      </c>
+      <c r="D185">
+        <v>80.8</v>
+      </c>
+      <c r="E185" s="2">
+        <f t="shared" si="8"/>
+        <v>83.415841584158414</v>
+      </c>
+      <c r="F185">
+        <v>3</v>
+      </c>
+      <c r="H185">
+        <v>6.45</v>
+      </c>
+      <c r="I185">
+        <v>12.7</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+      <c r="K185">
+        <v>0</v>
+      </c>
+      <c r="L185">
+        <v>12.7</v>
+      </c>
+      <c r="M185" s="6">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <f t="shared" si="7"/>
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>191</v>
+      </c>
+      <c r="C186" s="5">
+        <v>160000</v>
+      </c>
+      <c r="D186">
+        <v>452</v>
+      </c>
+      <c r="E186" s="2">
+        <f t="shared" si="8"/>
+        <v>353.98230088495575</v>
+      </c>
+      <c r="F186">
+        <v>3</v>
+      </c>
+      <c r="H186">
+        <v>28.4</v>
+      </c>
+      <c r="I186">
+        <v>16</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="M186" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <f t="shared" si="7"/>
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>192</v>
+      </c>
+      <c r="C187" s="5">
+        <v>297000</v>
+      </c>
+      <c r="D187">
+        <v>840</v>
+      </c>
+      <c r="E187" s="2">
+        <f t="shared" si="8"/>
+        <v>353.57142857142856</v>
+      </c>
+      <c r="F187">
+        <v>3</v>
+      </c>
+      <c r="H187">
+        <v>28.4</v>
+      </c>
+      <c r="I187">
+        <v>30</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="M187" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <f t="shared" si="7"/>
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>193</v>
+      </c>
+      <c r="C188" s="5">
+        <v>319000</v>
+      </c>
+      <c r="D188">
+        <v>905</v>
+      </c>
+      <c r="E188" s="2">
+        <f t="shared" si="8"/>
+        <v>352.48618784530385</v>
+      </c>
+      <c r="F188">
+        <v>3</v>
+      </c>
+      <c r="H188">
+        <v>28.4</v>
+      </c>
+      <c r="I188">
+        <v>32</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="M188" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <f t="shared" si="7"/>
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>194</v>
+      </c>
+      <c r="C189" s="5">
+        <v>268800</v>
+      </c>
+      <c r="D189">
+        <v>560</v>
+      </c>
+      <c r="E189" s="2">
+        <f t="shared" si="8"/>
+        <v>480</v>
+      </c>
+      <c r="F189">
+        <v>3</v>
+      </c>
+      <c r="H189">
+        <v>28</v>
+      </c>
+      <c r="I189">
+        <v>20</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>70</v>
+      </c>
+      <c r="M189" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <f t="shared" si="7"/>
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>195</v>
+      </c>
+      <c r="C190" s="5">
+        <v>199000</v>
+      </c>
+      <c r="D190">
+        <v>645</v>
+      </c>
+      <c r="E190" s="2">
+        <f t="shared" si="8"/>
+        <v>308.52713178294573</v>
+      </c>
+      <c r="F190">
+        <v>3</v>
+      </c>
+      <c r="H190">
+        <v>25.4</v>
+      </c>
+      <c r="I190">
+        <v>25.4</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>0</v>
+      </c>
+      <c r="L190">
+        <v>50.8</v>
+      </c>
+      <c r="M190" s="6">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <f t="shared" si="7"/>
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>196</v>
+      </c>
+      <c r="C191" s="5">
+        <v>11000</v>
+      </c>
+      <c r="D191">
+        <v>91.1</v>
+      </c>
+      <c r="E191" s="2">
+        <f t="shared" si="8"/>
+        <v>120.74643249176729</v>
+      </c>
+      <c r="F191">
+        <v>3</v>
+      </c>
+      <c r="H191">
+        <f>(O191-L191)/2</f>
+        <v>11.49</v>
+      </c>
+      <c r="I191">
+        <v>11.94</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>0</v>
+      </c>
+      <c r="L191">
+        <v>18.8</v>
+      </c>
+      <c r="M191" s="6">
+        <v>13.4</v>
+      </c>
+      <c r="O191">
+        <v>41.78</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <f t="shared" si="7"/>
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>197</v>
+      </c>
+      <c r="C192" s="5">
+        <v>11800</v>
+      </c>
+      <c r="D192">
+        <v>104</v>
+      </c>
+      <c r="E192" s="2">
+        <f t="shared" si="8"/>
+        <v>113.46153846153847</v>
+      </c>
+      <c r="F192">
+        <v>3</v>
+      </c>
+      <c r="H192">
+        <f>(O192-L192)/2</f>
+        <v>11.49</v>
+      </c>
+      <c r="I192">
+        <v>11.94</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>18.8</v>
+      </c>
+      <c r="M192" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="O192">
+        <v>41.78</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <f t="shared" si="7"/>
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>198</v>
+      </c>
+      <c r="C193" s="5">
+        <v>15196</v>
+      </c>
+      <c r="D193">
+        <v>113.1</v>
+      </c>
+      <c r="E193" s="2">
+        <f t="shared" si="8"/>
+        <v>134.35897435897436</v>
+      </c>
+      <c r="F193">
+        <v>3</v>
+      </c>
+      <c r="H193">
+        <f>(O193-L193)/2</f>
+        <v>11.49</v>
+      </c>
+      <c r="I193">
+        <v>11.94</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>0</v>
+      </c>
+      <c r="L193">
+        <v>18.8</v>
+      </c>
+      <c r="M193" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="O193">
+        <v>41.78</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <f t="shared" si="7"/>
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>199</v>
+      </c>
+      <c r="C194" s="5">
+        <v>17346</v>
+      </c>
+      <c r="D194">
+        <v>112.1</v>
+      </c>
+      <c r="E194" s="2">
+        <f t="shared" si="8"/>
+        <v>154.73684210526318</v>
+      </c>
+      <c r="F194">
+        <v>3</v>
+      </c>
+      <c r="H194">
+        <f>(O194-L194)/2</f>
+        <v>11.49</v>
+      </c>
+      <c r="I194">
+        <v>11.94</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>18.8</v>
+      </c>
+      <c r="M194" s="6">
+        <v>20.8</v>
+      </c>
+      <c r="O194">
+        <v>41.78</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <f t="shared" si="7"/>
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>200</v>
+      </c>
+      <c r="C195" s="5">
+        <v>27900</v>
+      </c>
+      <c r="D195">
+        <v>171</v>
+      </c>
+      <c r="E195" s="2">
+        <f t="shared" si="8"/>
+        <v>163.15789473684211</v>
+      </c>
+      <c r="F195">
+        <v>3</v>
+      </c>
+      <c r="H195">
+        <f>(O195-L195)/2</f>
+        <v>14.924999999999999</v>
+      </c>
+      <c r="I195">
+        <v>15.9</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>27.8</v>
+      </c>
+      <c r="M195" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="O195">
+        <v>57.65</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <f t="shared" si="7"/>
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>201</v>
+      </c>
+      <c r="C196" s="5">
+        <v>39700</v>
+      </c>
+      <c r="D196">
+        <v>210</v>
+      </c>
+      <c r="E196" s="2">
+        <f t="shared" si="8"/>
+        <v>189.04761904761904</v>
+      </c>
+      <c r="F196">
+        <v>3</v>
+      </c>
+      <c r="H196">
+        <f>(O196-L196)/2</f>
+        <v>16.420000000000002</v>
+      </c>
+      <c r="I196">
+        <v>17</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>26.5</v>
+      </c>
+      <c r="M196" s="6">
+        <v>21.5</v>
+      </c>
+      <c r="O196">
+        <v>59.34</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <f t="shared" si="7"/>
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>202</v>
+      </c>
+      <c r="C197" s="5">
+        <v>61000</v>
+      </c>
+      <c r="D197">
+        <v>290</v>
+      </c>
+      <c r="E197" s="2">
+        <f t="shared" si="8"/>
+        <v>210.34482758620689</v>
+      </c>
+      <c r="F197">
+        <v>3</v>
+      </c>
+      <c r="H197">
+        <f>(O197-L197)/2</f>
+        <v>19.95</v>
+      </c>
+      <c r="I197">
+        <v>24</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>0</v>
+      </c>
+      <c r="L197">
+        <v>24.1</v>
+      </c>
+      <c r="M197" s="6">
+        <v>26.5</v>
+      </c>
+      <c r="O197">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/MatlabWorkingDirectory/CoreSizeData.xlsx
+++ b/MatlabWorkingDirectory/CoreSizeData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kelly\School\Colleage\MaxAlton\HV-Power-Supply-Weight-Optimization\MatlabWorkingDirectory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/806421492071dedd/Programming/MATLAB/Scripts/Theses/GPT_Fixes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03F8883-C6AD-4213-857C-94DD1818DD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF3F2724-23D5-4AA4-8A28-B4D901296DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="0" windowWidth="17280" windowHeight="12336" xr2:uid="{3CD1987F-FA11-4D3B-B1FD-40FF621CA499}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{3CD1987F-FA11-4D3B-B1FD-40FF621CA499}"/>
   </bookViews>
   <sheets>
     <sheet name="Ecore" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="152">
   <si>
     <t>No.</t>
   </si>
@@ -492,172 +492,13 @@
   </si>
   <si>
     <t>ER 32/6/25</t>
-  </si>
-  <si>
-    <t>UI 93/104/20</t>
-  </si>
-  <si>
-    <t>UI 93/104/30</t>
-  </si>
-  <si>
-    <t>UI 126/119/20</t>
-  </si>
-  <si>
-    <t>U 141/78/30</t>
-  </si>
-  <si>
-    <t>UI 101/76/30</t>
-  </si>
-  <si>
-    <t>UI 93/152/16</t>
-  </si>
-  <si>
-    <t>U10/8/3</t>
-  </si>
-  <si>
-    <t>U15/11/6</t>
-  </si>
-  <si>
-    <t>U20/16/7</t>
-  </si>
-  <si>
-    <t>U25/16/6</t>
-  </si>
-  <si>
-    <t>U25/20/13</t>
-  </si>
-  <si>
-    <t>U30/25/16</t>
-  </si>
-  <si>
-    <t>U33/22/9</t>
-  </si>
-  <si>
-    <t>U46/40/28</t>
-  </si>
-  <si>
-    <t>U67/27/14</t>
-  </si>
-  <si>
-    <t>U80/65/32</t>
-  </si>
-  <si>
-    <t>U93/52/30</t>
-  </si>
-  <si>
-    <t>U93/76/16</t>
-  </si>
-  <si>
-    <t>U93/76/30</t>
-  </si>
-  <si>
-    <t>U100/57/25</t>
-  </si>
-  <si>
-    <t>U126/91/20</t>
-  </si>
-  <si>
-    <t>UR35/27.5/13</t>
-  </si>
-  <si>
-    <t>UR37/26/18</t>
-  </si>
-  <si>
-    <t>UR39/35/15</t>
-  </si>
-  <si>
-    <t>UR42/21/12</t>
-  </si>
-  <si>
-    <t>UR46/21/11</t>
-  </si>
-  <si>
-    <t>UR48/39/17</t>
-  </si>
-  <si>
-    <t>UR55/38/36</t>
-  </si>
-  <si>
-    <t>UR57/28/16</t>
-  </si>
-  <si>
-    <t>UR59/36/17</t>
-  </si>
-  <si>
-    <t>UR64/29/14</t>
-  </si>
-  <si>
-    <t>UR64/40/20</t>
-  </si>
-  <si>
-    <t>UR64/40/20-D</t>
-  </si>
-  <si>
-    <t>UR70/33/17</t>
-  </si>
-  <si>
-    <t>U 11/4/6</t>
-  </si>
-  <si>
-    <t>U 22/21/6</t>
-  </si>
-  <si>
-    <t>U 25/13/13</t>
-  </si>
-  <si>
-    <t>U 25/16/6</t>
-  </si>
-  <si>
-    <t>U 25/16/12</t>
-  </si>
-  <si>
-    <t>U 93/76/16</t>
-  </si>
-  <si>
-    <t>U 93/76/30</t>
-  </si>
-  <si>
-    <t>U 93/76/32</t>
-  </si>
-  <si>
-    <t>U 126/91/20</t>
-  </si>
-  <si>
-    <t>U 102/57/25</t>
-  </si>
-  <si>
-    <t>UR 41/21/11</t>
-  </si>
-  <si>
-    <t>UR 41/21</t>
-  </si>
-  <si>
-    <t>UR 41/25</t>
-  </si>
-  <si>
-    <t>UR 41/30</t>
-  </si>
-  <si>
-    <t>UR 57</t>
-  </si>
-  <si>
-    <t>UR 59</t>
-  </si>
-  <si>
-    <t>UR 64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IGNORE For calculations </t>
-  </si>
-  <si>
-    <t>U cores have no seondary leg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -665,19 +506,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -689,27 +532,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1042,26 +882,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978730B7-EAA2-46C1-9C1E-8E1268D8BF16}">
-  <dimension ref="A1:O197"/>
+  <dimension ref="A1:O146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I187" sqref="I187"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1"/>
-    <col min="11" max="11" width="26.109375" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1098,14 +939,11 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1139,11 +977,11 @@
       <c r="L2">
         <v>1.2</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1177,11 +1015,11 @@
       <c r="L3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3">
         <v>3.7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1215,11 +1053,11 @@
       <c r="L4">
         <v>1.65</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1253,11 +1091,11 @@
       <c r="L5">
         <v>3.15</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1291,11 +1129,11 @@
       <c r="L6">
         <v>3.15</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1329,11 +1167,11 @@
       <c r="L7">
         <v>2.6</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1367,11 +1205,11 @@
       <c r="L8">
         <v>3.3</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8">
         <v>11.4</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1405,11 +1243,11 @@
       <c r="L9">
         <v>4</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9">
         <v>20.5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1443,11 +1281,11 @@
       <c r="L10">
         <v>4.8</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10">
         <v>11.4</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1481,11 +1319,11 @@
       <c r="L11">
         <v>4.79</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11">
         <v>11.38</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1519,11 +1357,11 @@
       <c r="L12">
         <v>3.8</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12">
         <v>12.6</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1557,11 +1395,11 @@
       <c r="L13">
         <v>4.05</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1595,11 +1433,11 @@
       <c r="L14">
         <v>4.7249999999999996</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14">
         <v>22.3</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1633,11 +1471,11 @@
       <c r="L15">
         <v>6.2249999999999996</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15">
         <v>12.8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1671,11 +1509,11 @@
       <c r="L16">
         <v>5</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1709,11 +1547,11 @@
       <c r="L17">
         <v>5</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1747,11 +1585,11 @@
       <c r="L18">
         <v>6.15</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1785,11 +1623,11 @@
       <c r="L19">
         <v>6.25</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19">
         <v>17.2</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1823,11 +1661,11 @@
       <c r="L20">
         <v>6.6</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20">
         <v>22.4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1861,11 +1699,11 @@
       <c r="L21">
         <v>8.1</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21">
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1899,11 +1737,11 @@
       <c r="L22">
         <v>7.25</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1937,12 +1775,13 @@
       <c r="L23" s="1">
         <v>7.15</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="1">
         <v>31.5</v>
       </c>
       <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1976,12 +1815,13 @@
       <c r="L24" s="1">
         <v>8.0749999999999993</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="1">
         <v>20.8</v>
       </c>
       <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2015,12 +1855,13 @@
       <c r="L25" s="1">
         <v>8.65</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="1">
         <v>29.6</v>
       </c>
       <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2054,12 +1895,13 @@
       <c r="L26" s="1">
         <v>8.65</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="1">
         <v>29.6</v>
       </c>
       <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2093,12 +1935,13 @@
       <c r="L27" s="1">
         <v>8.65</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="1">
         <v>52</v>
       </c>
       <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2132,12 +1975,13 @@
       <c r="L28" s="1">
         <v>8.4</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="1">
         <v>24.2</v>
       </c>
       <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2171,12 +2015,13 @@
       <c r="L29" s="1">
         <v>10.15</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="1">
         <v>37</v>
       </c>
       <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2210,12 +2055,13 @@
       <c r="L30" s="1">
         <v>10.15</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="1">
         <v>37</v>
       </c>
       <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2249,12 +2095,13 @@
       <c r="L31" s="1">
         <v>9.6</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="1">
         <v>29.2</v>
       </c>
       <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2288,12 +2135,13 @@
       <c r="L32" s="1">
         <v>12.1</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="1">
         <v>44.4</v>
       </c>
       <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2327,12 +2175,13 @@
       <c r="L33" s="1">
         <v>13</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="1">
         <v>43.8</v>
       </c>
       <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2366,12 +2215,13 @@
       <c r="L34" s="1">
         <v>19.649999999999999</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="1">
         <v>56.4</v>
       </c>
       <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2405,12 +2255,13 @@
       <c r="L35" s="1">
         <v>22.824999999999999</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="1">
         <v>93.7</v>
       </c>
       <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2444,12 +2295,13 @@
       <c r="L36" s="1">
         <v>6.625</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="1">
         <v>24.6</v>
       </c>
       <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2483,12 +2335,13 @@
       <c r="L37" s="1">
         <v>7.73</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="1">
         <v>27.8</v>
       </c>
       <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2522,12 +2375,13 @@
       <c r="L38" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="1">
         <v>31.8</v>
       </c>
       <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2561,12 +2415,13 @@
       <c r="L39" s="1">
         <v>14.05</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="1">
         <v>45.5</v>
       </c>
       <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2600,12 +2455,13 @@
       <c r="L40" s="1">
         <v>1.55</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M40" s="1">
         <v>7.5</v>
       </c>
       <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2639,12 +2495,13 @@
       <c r="L41" s="1">
         <v>1.8</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M41" s="1">
         <v>9.1</v>
       </c>
       <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2678,12 +2535,13 @@
       <c r="L42" s="1">
         <v>2.85</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="1">
         <v>11</v>
       </c>
       <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2717,12 +2575,13 @@
       <c r="L43" s="1">
         <v>3.25</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M43" s="1">
         <v>15.4</v>
       </c>
       <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2756,12 +2615,13 @@
       <c r="L44" s="1">
         <v>3.65</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M44" s="1">
         <v>18.600000000000001</v>
       </c>
       <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2795,12 +2655,13 @@
       <c r="L45" s="1">
         <v>3.9</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="1">
         <v>22.4</v>
       </c>
       <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2834,12 +2695,13 @@
       <c r="L46" s="1">
         <v>5.9249999999999998</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="1">
         <v>19.5</v>
       </c>
       <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2873,12 +2735,13 @@
       <c r="L47" s="1">
         <v>5.9249999999999998</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M47" s="1">
         <v>25.3</v>
       </c>
       <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2912,12 +2775,13 @@
       <c r="L48" s="1">
         <v>7.4249999999999998</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="1">
         <v>29.5</v>
       </c>
       <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2951,12 +2815,13 @@
       <c r="L49" s="1">
         <v>8.15</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M49" s="1">
         <v>30.9</v>
       </c>
       <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2990,12 +2855,13 @@
       <c r="L50" s="1">
         <v>7.25</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M50" s="1">
         <v>31.2</v>
       </c>
       <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3029,12 +2895,13 @@
       <c r="L51" s="1">
         <v>7.7</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M51" s="1">
         <v>31.2</v>
       </c>
       <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3068,12 +2935,13 @@
       <c r="L52" s="1">
         <v>10</v>
       </c>
-      <c r="M52" s="7">
+      <c r="M52" s="1">
         <v>29.4</v>
       </c>
       <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3107,12 +2975,13 @@
       <c r="L53" s="1">
         <v>9.6</v>
       </c>
-      <c r="M53" s="7">
+      <c r="M53" s="1">
         <v>22.9</v>
       </c>
       <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3146,12 +3015,13 @@
       <c r="L54" s="1">
         <v>11.375</v>
       </c>
-      <c r="M54" s="7">
+      <c r="M54" s="1">
         <v>22.2</v>
       </c>
       <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3185,12 +3055,13 @@
       <c r="L55" s="1">
         <v>6.1</v>
       </c>
-      <c r="M55" s="7">
+      <c r="M55" s="1">
         <v>22</v>
       </c>
       <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3224,12 +3095,13 @@
       <c r="L56" s="1">
         <v>7.25</v>
       </c>
-      <c r="M56" s="7">
+      <c r="M56" s="1">
         <v>23.6</v>
       </c>
       <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3263,12 +3135,13 @@
       <c r="L57" s="1">
         <v>8.25</v>
       </c>
-      <c r="M57" s="7">
+      <c r="M57" s="1">
         <v>28.4</v>
       </c>
       <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3302,12 +3175,13 @@
       <c r="L58" s="1">
         <v>8.65</v>
       </c>
-      <c r="M58" s="7">
+      <c r="M58" s="1">
         <v>32.200000000000003</v>
       </c>
       <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O58" s="1"/>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3341,12 +3215,13 @@
       <c r="L59" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="M59" s="7">
+      <c r="M59" s="1">
         <v>35.4</v>
       </c>
       <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3380,12 +3255,13 @@
       <c r="L60" s="1">
         <v>11.15</v>
       </c>
-      <c r="M60" s="7">
+      <c r="M60" s="1">
         <v>40.4</v>
       </c>
       <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3419,13 +3295,14 @@
       <c r="L61" s="1">
         <v>11.525</v>
       </c>
-      <c r="M61" s="7">
+      <c r="M61" s="1">
         <v>45</v>
       </c>
       <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
@@ -3437,8 +3314,8 @@
       <c r="D62">
         <v>33.1</v>
       </c>
-      <c r="E62" s="2">
-        <f t="shared" ref="E62:E68" si="0">C62/D62</f>
+      <c r="E62" s="3">
+        <f>C62/D62</f>
         <v>43.80664652567976</v>
       </c>
       <c r="F62">
@@ -3455,18 +3332,18 @@
         <v>3.0250000000000004</v>
       </c>
       <c r="K62">
-        <f t="shared" ref="K62:K112" si="1">I62</f>
+        <f t="shared" ref="K62:K112" si="0">I62</f>
         <v>5.75</v>
       </c>
       <c r="L62">
         <f>(15.95-K62)/2</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="M62" s="6">
+      <c r="M62">
         <v>15.95</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3479,8 +3356,8 @@
       <c r="D63">
         <v>40.299999999999997</v>
       </c>
-      <c r="E63" s="2">
-        <f t="shared" si="0"/>
+      <c r="E63" s="3">
+        <f>C63/D63</f>
         <v>51.364764267990076</v>
       </c>
       <c r="F63">
@@ -3500,14 +3377,14 @@
         <v>6.35</v>
       </c>
       <c r="L63">
-        <f t="shared" ref="L63:L111" si="2">(M63-H63)/2</f>
+        <f t="shared" ref="L63:L111" si="1">(M63-H63)/2</f>
         <v>6.1450000000000005</v>
       </c>
-      <c r="M63" s="6">
+      <c r="M63">
         <v>18.64</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3520,8 +3397,8 @@
       <c r="D64">
         <v>83.7</v>
       </c>
-      <c r="E64" s="2">
-        <f t="shared" si="0"/>
+      <c r="E64" s="3">
+        <f>C64/D64</f>
         <v>49.223416965352449</v>
       </c>
       <c r="F64">
@@ -3538,18 +3415,18 @@
         <v>4.6999999999999993</v>
       </c>
       <c r="K64">
+        <f t="shared" si="0"/>
+        <v>10.75</v>
+      </c>
+      <c r="L64">
         <f t="shared" si="1"/>
-        <v>10.75</v>
-      </c>
-      <c r="L64">
-        <f t="shared" si="2"/>
         <v>5.6750000000000007</v>
       </c>
-      <c r="M64" s="6">
+      <c r="M64">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3562,8 +3439,8 @@
       <c r="D65">
         <v>113</v>
       </c>
-      <c r="E65" s="2">
-        <f t="shared" si="0"/>
+      <c r="E65" s="3">
+        <f>C65/D65</f>
         <v>59.469026548672566</v>
       </c>
       <c r="F65">
@@ -3580,18 +3457,18 @@
         <v>5.1999999999999993</v>
       </c>
       <c r="K65">
+        <f t="shared" si="0"/>
+        <v>10.65</v>
+      </c>
+      <c r="L65">
         <f t="shared" si="1"/>
-        <v>10.65</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="2"/>
         <v>4.6000000000000005</v>
       </c>
-      <c r="M65" s="6">
+      <c r="M65">
         <v>19.850000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3604,8 +3481,8 @@
       <c r="D66">
         <v>119</v>
       </c>
-      <c r="E66" s="2">
-        <f t="shared" si="0"/>
+      <c r="E66" s="3">
+        <f>C66/D66</f>
         <v>66.470588235294116</v>
       </c>
       <c r="F66">
@@ -3622,18 +3499,18 @@
         <v>4.6999999999999993</v>
       </c>
       <c r="K66">
+        <f t="shared" si="0"/>
+        <v>12.7</v>
+      </c>
+      <c r="L66">
         <f t="shared" si="1"/>
-        <v>12.7</v>
-      </c>
-      <c r="L66">
-        <f t="shared" si="2"/>
         <v>6.9500000000000011</v>
       </c>
-      <c r="M66" s="6">
+      <c r="M66">
         <v>23.6</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3646,8 +3523,8 @@
       <c r="D67">
         <v>89.3</v>
       </c>
-      <c r="E67" s="2">
-        <f t="shared" si="0"/>
+      <c r="E67" s="3">
+        <f>C67/D67</f>
         <v>70.212765957446805</v>
       </c>
       <c r="F67">
@@ -3664,18 +3541,18 @@
         <v>4.9849999999999994</v>
       </c>
       <c r="K67">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="L67">
         <f t="shared" si="1"/>
-        <v>9.5</v>
-      </c>
-      <c r="L67">
-        <f t="shared" si="2"/>
         <v>7.7649999999999997</v>
       </c>
-      <c r="M67" s="6">
+      <c r="M67">
         <v>24.93</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3688,8 +3565,8 @@
       <c r="D68" s="1">
         <v>143</v>
       </c>
-      <c r="E68" s="3">
-        <f t="shared" si="0"/>
+      <c r="E68" s="4">
+        <f>C68/D68</f>
         <v>77.622377622377627</v>
       </c>
       <c r="F68">
@@ -3706,19 +3583,20 @@
         <v>5.6000000000000014</v>
       </c>
       <c r="K68">
+        <f t="shared" si="0"/>
+        <v>11.85</v>
+      </c>
+      <c r="L68">
         <f t="shared" si="1"/>
-        <v>11.85</v>
-      </c>
-      <c r="L68">
-        <f t="shared" si="2"/>
         <v>8.5749999999999993</v>
       </c>
-      <c r="M68" s="7">
+      <c r="M68" s="1">
         <v>29</v>
       </c>
       <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O68" s="1"/>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3731,8 +3609,8 @@
       <c r="D69">
         <v>14.5</v>
       </c>
-      <c r="E69" s="3">
-        <f t="shared" ref="E69:E111" si="3">C69/D69</f>
+      <c r="E69" s="4">
+        <f t="shared" ref="E69:E111" si="2">C69/D69</f>
         <v>20.689655172413794</v>
       </c>
       <c r="F69">
@@ -3749,18 +3627,19 @@
         <v>1.5</v>
       </c>
       <c r="K69">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L69">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L69">
-        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="M69" s="6">
+      <c r="M69">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N69" s="2"/>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3773,8 +3652,8 @@
       <c r="D70">
         <v>39.5</v>
       </c>
-      <c r="E70" s="3">
-        <f t="shared" si="3"/>
+      <c r="E70" s="4">
+        <f t="shared" si="2"/>
         <v>24.303797468354432</v>
       </c>
       <c r="F70">
@@ -3791,18 +3670,18 @@
         <v>2</v>
       </c>
       <c r="K70">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L70">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L70">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M70" s="6">
+      <c r="M70">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3815,8 +3694,8 @@
       <c r="D71">
         <v>78.5</v>
       </c>
-      <c r="E71" s="3">
-        <f t="shared" si="3"/>
+      <c r="E71" s="4">
+        <f t="shared" si="2"/>
         <v>32.484076433121018</v>
       </c>
       <c r="F71">
@@ -3833,18 +3712,18 @@
         <v>2.5</v>
       </c>
       <c r="K71">
+        <f t="shared" si="0"/>
+        <v>15.8</v>
+      </c>
+      <c r="L71">
         <f t="shared" si="1"/>
-        <v>15.8</v>
-      </c>
-      <c r="L71">
-        <f t="shared" si="2"/>
         <v>5.9</v>
       </c>
-      <c r="M71" s="6">
+      <c r="M71">
         <v>16.8</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3857,8 +3736,8 @@
       <c r="D72">
         <v>129</v>
       </c>
-      <c r="E72" s="3">
-        <f t="shared" si="3"/>
+      <c r="E72" s="4">
+        <f t="shared" si="2"/>
         <v>41.70542635658915</v>
       </c>
       <c r="F72">
@@ -3875,18 +3754,18 @@
         <v>3.4250000000000007</v>
       </c>
       <c r="K72">
+        <f t="shared" si="0"/>
+        <v>20.32</v>
+      </c>
+      <c r="L72">
         <f t="shared" si="1"/>
-        <v>20.32</v>
-      </c>
-      <c r="L72">
-        <f t="shared" si="2"/>
         <v>9.2749999999999986</v>
       </c>
-      <c r="M72" s="6">
+      <c r="M72">
         <v>24.9</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3899,8 +3778,8 @@
       <c r="D73">
         <v>194</v>
       </c>
-      <c r="E73" s="3">
-        <f t="shared" si="3"/>
+      <c r="E73" s="4">
+        <f t="shared" si="2"/>
         <v>52.577319587628864</v>
       </c>
       <c r="F73">
@@ -3917,18 +3796,18 @@
         <v>3.9350000000000005</v>
       </c>
       <c r="K73">
+        <f t="shared" si="0"/>
+        <v>25.4</v>
+      </c>
+      <c r="L73">
         <f t="shared" si="1"/>
-        <v>25.4</v>
-      </c>
-      <c r="L73">
-        <f t="shared" si="2"/>
         <v>11.315000000000001</v>
       </c>
-      <c r="M73" s="6">
+      <c r="M73">
         <v>30.23</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3941,8 +3820,8 @@
       <c r="D74">
         <v>225</v>
       </c>
-      <c r="E74" s="3">
-        <f t="shared" si="3"/>
+      <c r="E74" s="4">
+        <f t="shared" si="2"/>
         <v>61.777777777777779</v>
       </c>
       <c r="F74">
@@ -3959,18 +3838,18 @@
         <v>4.25</v>
       </c>
       <c r="K74">
+        <f t="shared" si="0"/>
+        <v>27.9</v>
+      </c>
+      <c r="L74">
         <f t="shared" si="1"/>
-        <v>27.9</v>
-      </c>
-      <c r="L74">
-        <f t="shared" si="2"/>
         <v>13.3</v>
       </c>
-      <c r="M74" s="6">
+      <c r="M74">
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3983,8 +3862,8 @@
       <c r="D75">
         <v>305</v>
       </c>
-      <c r="E75" s="3">
-        <f t="shared" si="3"/>
+      <c r="E75" s="4">
+        <f t="shared" si="2"/>
         <v>80.655737704918039</v>
       </c>
       <c r="F75">
@@ -4001,18 +3880,18 @@
         <v>4.1999999999999993</v>
       </c>
       <c r="K75">
+        <f t="shared" si="0"/>
+        <v>38.1</v>
+      </c>
+      <c r="L75">
         <f t="shared" si="1"/>
-        <v>38.1</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="2"/>
         <v>20.95</v>
       </c>
-      <c r="M75" s="6">
+      <c r="M75">
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4025,8 +3904,8 @@
       <c r="D76">
         <v>511</v>
       </c>
-      <c r="E76" s="3">
-        <f t="shared" si="3"/>
+      <c r="E76" s="4">
+        <f t="shared" si="2"/>
         <v>79.647749510763205</v>
       </c>
       <c r="F76">
@@ -4043,18 +3922,18 @@
         <v>5.1000000000000014</v>
       </c>
       <c r="K76">
+        <f t="shared" si="0"/>
+        <v>50.8</v>
+      </c>
+      <c r="L76">
         <f t="shared" si="1"/>
-        <v>50.8</v>
-      </c>
-      <c r="L76">
-        <f t="shared" si="2"/>
         <v>21.799999999999997</v>
       </c>
-      <c r="M76" s="6">
+      <c r="M76">
         <v>53.8</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15">
       <c r="A77">
         <f>A76+1</f>
         <v>76</v>
@@ -4068,8 +3947,8 @@
       <c r="D77">
         <v>8.4700000000000006</v>
       </c>
-      <c r="E77" s="3">
-        <f t="shared" si="3"/>
+      <c r="E77" s="4">
+        <f t="shared" si="2"/>
         <v>14.167650531286894</v>
       </c>
       <c r="F77">
@@ -4086,20 +3965,20 @@
         <v>1</v>
       </c>
       <c r="K77">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L77">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M77" s="6">
+      <c r="M77">
         <v>7.5</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15">
       <c r="A78">
-        <f t="shared" ref="A78:A138" si="4">A77+1</f>
+        <f t="shared" ref="A78:A138" si="3">A77+1</f>
         <v>77</v>
       </c>
       <c r="B78" t="s">
@@ -4111,8 +3990,8 @@
       <c r="D78">
         <v>11.9</v>
       </c>
-      <c r="E78" s="3">
-        <f t="shared" si="3"/>
+      <c r="E78" s="4">
+        <f t="shared" si="2"/>
         <v>14.621848739495798</v>
       </c>
       <c r="F78">
@@ -4129,20 +4008,20 @@
         <v>1.1500000000000004</v>
       </c>
       <c r="K78">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L78">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="2"/>
         <v>2.2249999999999996</v>
       </c>
-      <c r="M78" s="6">
+      <c r="M78">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15">
       <c r="A79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="B79" t="s">
@@ -4154,8 +4033,8 @@
       <c r="D79">
         <v>17.600000000000001</v>
       </c>
-      <c r="E79" s="3">
-        <f t="shared" si="3"/>
+      <c r="E79" s="4">
+        <f t="shared" si="2"/>
         <v>18.920454545454543</v>
       </c>
       <c r="F79">
@@ -4172,20 +4051,20 @@
         <v>1.3499999999999996</v>
       </c>
       <c r="K79">
+        <f t="shared" si="0"/>
+        <v>6.8</v>
+      </c>
+      <c r="L79">
         <f t="shared" si="1"/>
-        <v>6.8</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="2"/>
         <v>3.5000000000000004</v>
       </c>
-      <c r="M79" s="6">
+      <c r="M79">
         <v>11.8</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15">
       <c r="A80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="B80" t="s">
@@ -4197,8 +4076,8 @@
       <c r="D80">
         <v>30.2</v>
       </c>
-      <c r="E80" s="3">
-        <f t="shared" si="3"/>
+      <c r="E80" s="4">
+        <f t="shared" si="2"/>
         <v>22.086092715231789</v>
       </c>
       <c r="F80">
@@ -4215,20 +4094,20 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="K80">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="L80">
         <f t="shared" si="1"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="2"/>
         <v>4.6999999999999993</v>
       </c>
-      <c r="M80" s="6">
+      <c r="M80">
         <v>15.6</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13">
       <c r="A81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="B81" t="s">
@@ -4240,8 +4119,8 @@
       <c r="D81">
         <v>50.2</v>
       </c>
-      <c r="E81" s="3">
-        <f t="shared" si="3"/>
+      <c r="E81" s="4">
+        <f t="shared" si="2"/>
         <v>26.693227091633464</v>
       </c>
       <c r="F81">
@@ -4258,20 +4137,20 @@
         <v>-2</v>
       </c>
       <c r="K81">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+      <c r="L81">
         <f t="shared" si="1"/>
-        <v>12.5</v>
-      </c>
-      <c r="L81">
-        <f t="shared" si="2"/>
         <v>6.1</v>
       </c>
-      <c r="M81" s="6">
+      <c r="M81">
         <v>20.2</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13">
       <c r="A82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="B82" t="s">
@@ -4283,8 +4162,8 @@
       <c r="D82">
         <v>141</v>
       </c>
-      <c r="E82" s="3">
-        <f t="shared" si="3"/>
+      <c r="E82" s="4">
+        <f t="shared" si="2"/>
         <v>38.297872340425535</v>
       </c>
       <c r="F82">
@@ -4301,20 +4180,20 @@
         <v>2.4500000000000011</v>
       </c>
       <c r="K82">
+        <f t="shared" si="0"/>
+        <v>25.4</v>
+      </c>
+      <c r="L82">
         <f t="shared" si="1"/>
-        <v>25.4</v>
-      </c>
-      <c r="L82">
-        <f t="shared" si="2"/>
         <v>7.3999999999999995</v>
       </c>
-      <c r="M82" s="6">
+      <c r="M82">
         <v>27.2</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13">
       <c r="A83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="B83" t="s">
@@ -4326,8 +4205,8 @@
       <c r="D83">
         <v>225</v>
       </c>
-      <c r="E83" s="3">
-        <f t="shared" si="3"/>
+      <c r="E83" s="4">
+        <f t="shared" si="2"/>
         <v>57.333333333333336</v>
       </c>
       <c r="F83">
@@ -4344,20 +4223,20 @@
         <v>3.3000000000000007</v>
       </c>
       <c r="K83">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="L83">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="L83">
-        <f t="shared" si="2"/>
         <v>9.02</v>
       </c>
-      <c r="M83" s="6">
+      <c r="M83">
         <v>34.04</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13">
       <c r="A84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="B84" t="s">
@@ -4369,8 +4248,8 @@
       <c r="D84">
         <v>351</v>
       </c>
-      <c r="E84" s="3">
-        <f t="shared" si="3"/>
+      <c r="E84" s="4">
+        <f t="shared" si="2"/>
         <v>73.504273504273499</v>
       </c>
       <c r="F84">
@@ -4387,20 +4266,20 @@
         <v>4.6000000000000014</v>
       </c>
       <c r="K84">
+        <f t="shared" si="0"/>
+        <v>38.1</v>
+      </c>
+      <c r="L84">
         <f t="shared" si="1"/>
-        <v>38.1</v>
-      </c>
-      <c r="L84">
-        <f t="shared" si="2"/>
         <v>10.899999999999999</v>
       </c>
-      <c r="M84" s="6">
+      <c r="M84">
         <v>41.8</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13">
       <c r="A85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="B85" t="s">
@@ -4412,8 +4291,8 @@
       <c r="D85">
         <v>566</v>
       </c>
-      <c r="E85" s="3">
-        <f t="shared" si="3"/>
+      <c r="E85" s="4">
+        <f t="shared" si="2"/>
         <v>92.932862190812727</v>
       </c>
       <c r="F85">
@@ -4430,20 +4309,20 @@
         <v>5.25</v>
       </c>
       <c r="K85">
+        <f t="shared" si="0"/>
+        <v>50.8</v>
+      </c>
+      <c r="L85">
         <f t="shared" si="1"/>
-        <v>50.8</v>
-      </c>
-      <c r="L85">
-        <f t="shared" si="2"/>
         <v>14.05</v>
       </c>
-      <c r="M85" s="6">
+      <c r="M85">
         <v>53.5</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13">
       <c r="A86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="B86" t="s">
@@ -4455,8 +4334,8 @@
       <c r="D86">
         <v>22.5</v>
       </c>
-      <c r="E86" s="3">
-        <f t="shared" si="3"/>
+      <c r="E86" s="4">
+        <f t="shared" si="2"/>
         <v>39.6</v>
       </c>
       <c r="F86">
@@ -4473,20 +4352,20 @@
         <v>2.3499999999999996</v>
       </c>
       <c r="K86">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L86">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L86">
-        <f t="shared" si="2"/>
         <v>4.75</v>
       </c>
-      <c r="M86" s="6">
+      <c r="M86">
         <v>14.3</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13">
       <c r="A87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="B87" t="s">
@@ -4498,8 +4377,8 @@
       <c r="D87">
         <v>32.1</v>
       </c>
-      <c r="E87" s="3">
-        <f t="shared" si="3"/>
+      <c r="E87" s="4">
+        <f t="shared" si="2"/>
         <v>46.417445482866043</v>
       </c>
       <c r="F87">
@@ -4516,20 +4395,20 @@
         <v>3.1499999999999995</v>
       </c>
       <c r="K87">
+        <f t="shared" si="0"/>
+        <v>10.1</v>
+      </c>
+      <c r="L87">
         <f t="shared" si="1"/>
-        <v>10.1</v>
-      </c>
-      <c r="L87">
-        <f t="shared" si="2"/>
         <v>4.0999999999999996</v>
       </c>
-      <c r="M87" s="6">
+      <c r="M87">
         <v>14.1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13">
       <c r="A88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="B88" t="s">
@@ -4541,8 +4420,8 @@
       <c r="D88">
         <v>21.6</v>
       </c>
-      <c r="E88" s="3">
-        <f t="shared" si="3"/>
+      <c r="E88" s="4">
+        <f t="shared" si="2"/>
         <v>43.379629629629626</v>
       </c>
       <c r="F88">
@@ -4559,20 +4438,20 @@
         <v>2.5500000000000007</v>
       </c>
       <c r="K88">
+        <f t="shared" si="0"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L88">
         <f t="shared" si="1"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L88">
-        <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
-      <c r="M88" s="6">
+      <c r="M88">
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13">
       <c r="A89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="B89" t="s">
@@ -4584,8 +4463,8 @@
       <c r="D89">
         <v>52.5</v>
       </c>
-      <c r="E89" s="3">
-        <f t="shared" si="3"/>
+      <c r="E89" s="4">
+        <f t="shared" si="2"/>
         <v>57.523809523809526</v>
       </c>
       <c r="F89">
@@ -4602,20 +4481,20 @@
         <v>3.75</v>
       </c>
       <c r="K89">
+        <f t="shared" si="0"/>
+        <v>12.8</v>
+      </c>
+      <c r="L89">
         <f t="shared" si="1"/>
-        <v>12.8</v>
-      </c>
-      <c r="L89">
-        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="M89" s="6">
+      <c r="M89">
         <v>17.5</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13">
       <c r="A90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="B90" t="s">
@@ -4627,8 +4506,8 @@
       <c r="D90">
         <v>38.799999999999997</v>
       </c>
-      <c r="E90" s="3">
-        <f t="shared" si="3"/>
+      <c r="E90" s="4">
+        <f t="shared" si="2"/>
         <v>49.226804123711347</v>
       </c>
       <c r="F90">
@@ -4645,20 +4524,20 @@
         <v>3.2999999999999989</v>
       </c>
       <c r="K90">
+        <f t="shared" si="0"/>
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="L90">
         <f t="shared" si="1"/>
-        <v>9.7799999999999994</v>
-      </c>
-      <c r="L90">
-        <f t="shared" si="2"/>
         <v>6.15</v>
       </c>
-      <c r="M90" s="6">
+      <c r="M90">
         <v>18.8</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13">
       <c r="A91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="B91" t="s">
@@ -4670,8 +4549,8 @@
       <c r="D91">
         <v>60</v>
       </c>
-      <c r="E91" s="3">
-        <f t="shared" si="3"/>
+      <c r="E91" s="4">
+        <f t="shared" si="2"/>
         <v>66.666666666666671</v>
       </c>
       <c r="F91">
@@ -4688,20 +4567,20 @@
         <v>5.25</v>
       </c>
       <c r="K91">
+        <f t="shared" si="0"/>
+        <v>15.2</v>
+      </c>
+      <c r="L91">
         <f t="shared" si="1"/>
-        <v>15.2</v>
-      </c>
-      <c r="L91">
-        <f t="shared" si="2"/>
         <v>6.15</v>
       </c>
-      <c r="M91" s="6">
+      <c r="M91">
         <v>19.5</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13">
       <c r="A92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="B92" t="s">
@@ -4713,8 +4592,8 @@
       <c r="D92">
         <v>83</v>
       </c>
-      <c r="E92" s="3">
-        <f t="shared" si="3"/>
+      <c r="E92" s="4">
+        <f t="shared" si="2"/>
         <v>73.975903614457835</v>
       </c>
       <c r="F92">
@@ -4731,20 +4610,20 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="K92">
+        <f t="shared" si="0"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L92">
         <f t="shared" si="1"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="L92">
-        <f t="shared" si="2"/>
         <v>6.6</v>
       </c>
-      <c r="M92" s="6">
+      <c r="M92">
         <v>22.7</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13">
       <c r="A93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="B93" t="s">
@@ -4756,8 +4635,8 @@
       <c r="D93">
         <v>96</v>
       </c>
-      <c r="E93" s="3">
-        <f t="shared" si="3"/>
+      <c r="E93" s="4">
+        <f t="shared" si="2"/>
         <v>74.864583333333329</v>
       </c>
       <c r="F93">
@@ -4773,20 +4652,20 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="K93">
+        <f t="shared" si="0"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L93">
         <f t="shared" si="1"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="L93">
-        <f t="shared" si="2"/>
         <v>6.6</v>
       </c>
-      <c r="M93" s="6">
+      <c r="M93">
         <v>22.7</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13">
       <c r="A94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="B94" t="s">
@@ -4798,8 +4677,8 @@
       <c r="D94">
         <v>84.8</v>
       </c>
-      <c r="E94" s="3">
-        <f t="shared" si="3"/>
+      <c r="E94" s="4">
+        <f t="shared" si="2"/>
         <v>69.575471698113205</v>
       </c>
       <c r="F94">
@@ -4816,20 +4695,20 @@
         <v>4.75</v>
       </c>
       <c r="K94">
+        <f t="shared" si="0"/>
+        <v>14.65</v>
+      </c>
+      <c r="L94">
         <f t="shared" si="1"/>
-        <v>14.65</v>
-      </c>
-      <c r="L94">
-        <f t="shared" si="2"/>
         <v>7.7250000000000005</v>
       </c>
-      <c r="M94" s="6">
+      <c r="M94">
         <v>25.1</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13">
       <c r="A95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="B95" t="s">
@@ -4841,8 +4720,8 @@
       <c r="D95">
         <v>120</v>
       </c>
-      <c r="E95" s="3">
-        <f t="shared" si="3"/>
+      <c r="E95" s="4">
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
       <c r="F95">
@@ -4859,20 +4738,20 @@
         <v>5.75</v>
       </c>
       <c r="K95">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="L95">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="L95">
-        <f t="shared" si="2"/>
         <v>7.15</v>
       </c>
-      <c r="M95" s="6">
+      <c r="M95">
         <v>24.5</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13">
       <c r="A96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="B96" t="s">
@@ -4884,8 +4763,8 @@
       <c r="D96">
         <v>149</v>
       </c>
-      <c r="E96" s="3">
-        <f t="shared" si="3"/>
+      <c r="E96" s="4">
+        <f t="shared" si="2"/>
         <v>77.181208053691279</v>
       </c>
       <c r="F96">
@@ -4902,20 +4781,20 @@
         <v>6</v>
       </c>
       <c r="K96">
+        <f t="shared" si="0"/>
+        <v>16.5</v>
+      </c>
+      <c r="L96">
         <f t="shared" si="1"/>
-        <v>16.5</v>
-      </c>
-      <c r="L96">
-        <f t="shared" si="2"/>
         <v>8.0500000000000007</v>
       </c>
-      <c r="M96" s="6">
+      <c r="M96">
         <v>28.6</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13">
       <c r="A97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="B97" t="s">
@@ -4927,8 +4806,8 @@
       <c r="D97">
         <v>178</v>
       </c>
-      <c r="E97" s="3">
-        <f t="shared" si="3"/>
+      <c r="E97" s="4">
+        <f t="shared" si="2"/>
         <v>97.19101123595506</v>
       </c>
       <c r="F97">
@@ -4945,20 +4824,20 @@
         <v>6.25</v>
       </c>
       <c r="K97">
+        <f t="shared" si="0"/>
+        <v>21.2</v>
+      </c>
+      <c r="L97">
         <f t="shared" si="1"/>
-        <v>21.2</v>
-      </c>
-      <c r="L97">
-        <f t="shared" si="2"/>
         <v>8.65</v>
       </c>
-      <c r="M97" s="6">
+      <c r="M97">
         <v>29.5</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13">
       <c r="A98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="B98" t="s">
@@ -4970,8 +4849,8 @@
       <c r="D98">
         <v>234</v>
       </c>
-      <c r="E98" s="3">
-        <f t="shared" si="3"/>
+      <c r="E98" s="4">
+        <f t="shared" si="2"/>
         <v>97.008547008547012</v>
       </c>
       <c r="F98">
@@ -4987,20 +4866,20 @@
         <v>6.25</v>
       </c>
       <c r="K98">
+        <f t="shared" si="0"/>
+        <v>21.2</v>
+      </c>
+      <c r="L98">
         <f t="shared" si="1"/>
-        <v>21.2</v>
-      </c>
-      <c r="L98">
-        <f t="shared" si="2"/>
         <v>8.65</v>
       </c>
-      <c r="M98" s="6">
+      <c r="M98">
         <v>29.5</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13">
       <c r="A99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="B99" t="s">
@@ -5012,8 +4891,8 @@
       <c r="D99">
         <v>233</v>
       </c>
-      <c r="E99" s="3">
-        <f t="shared" si="3"/>
+      <c r="E99" s="4">
+        <f t="shared" si="2"/>
         <v>88.841201716738198</v>
       </c>
       <c r="F99">
@@ -5030,20 +4909,20 @@
         <v>7.5499999999999989</v>
       </c>
       <c r="K99">
+        <f t="shared" si="0"/>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="L99">
         <f t="shared" si="1"/>
-        <v>19.600000000000001</v>
-      </c>
-      <c r="L99">
-        <f t="shared" si="2"/>
         <v>8.1000000000000014</v>
       </c>
-      <c r="M99" s="6">
+      <c r="M99">
         <v>31.8</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13">
       <c r="A100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="B100" t="s">
@@ -5055,8 +4934,8 @@
       <c r="D100">
         <v>354</v>
       </c>
-      <c r="E100" s="3">
-        <f t="shared" si="3"/>
+      <c r="E100" s="4">
+        <f t="shared" si="2"/>
         <v>124.01129943502825</v>
       </c>
       <c r="F100">
@@ -5073,20 +4952,20 @@
         <v>8.75</v>
       </c>
       <c r="K100">
+        <f t="shared" si="0"/>
+        <v>27.8</v>
+      </c>
+      <c r="L100">
         <f t="shared" si="1"/>
-        <v>27.8</v>
-      </c>
-      <c r="L100">
-        <f t="shared" si="2"/>
         <v>10.15</v>
       </c>
-      <c r="M100" s="6">
+      <c r="M100">
         <v>37.5</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13">
       <c r="A101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="B101" t="s">
@@ -5098,8 +4977,8 @@
       <c r="D101">
         <v>420</v>
       </c>
-      <c r="E101" s="3">
-        <f t="shared" si="3"/>
+      <c r="E101" s="4">
+        <f t="shared" si="2"/>
         <v>124.04761904761905</v>
       </c>
       <c r="F101">
@@ -5115,20 +4994,20 @@
         <v>8.75</v>
       </c>
       <c r="K101">
+        <f t="shared" si="0"/>
+        <v>27.8</v>
+      </c>
+      <c r="L101">
         <f t="shared" si="1"/>
-        <v>27.8</v>
-      </c>
-      <c r="L101">
-        <f t="shared" si="2"/>
         <v>10.15</v>
       </c>
-      <c r="M101" s="6">
+      <c r="M101">
         <v>37.5</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13">
       <c r="A102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="B102" t="s">
@@ -5140,8 +5019,8 @@
       <c r="D102">
         <v>340</v>
       </c>
-      <c r="E102" s="3">
-        <f t="shared" si="3"/>
+      <c r="E102" s="4">
+        <f t="shared" si="2"/>
         <v>107.05882352941177</v>
       </c>
       <c r="F102">
@@ -5158,20 +5037,20 @@
         <v>9</v>
       </c>
       <c r="K102">
+        <f t="shared" si="0"/>
+        <v>23.6</v>
+      </c>
+      <c r="L102">
         <f t="shared" si="1"/>
-        <v>23.6</v>
-      </c>
-      <c r="L102">
-        <f t="shared" si="2"/>
         <v>9.65</v>
       </c>
-      <c r="M102" s="6">
+      <c r="M102">
         <v>38.1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13">
       <c r="A103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="B103" t="s">
@@ -5183,8 +5062,8 @@
       <c r="D103">
         <v>535</v>
       </c>
-      <c r="E103" s="3">
-        <f t="shared" si="3"/>
+      <c r="E103" s="4">
+        <f t="shared" si="2"/>
         <v>147.00934579439252</v>
       </c>
       <c r="F103">
@@ -5201,20 +5080,20 @@
         <v>10.399999999999999</v>
       </c>
       <c r="K103">
+        <f t="shared" si="0"/>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="L103">
         <f t="shared" si="1"/>
-        <v>32.799999999999997</v>
-      </c>
-      <c r="L103">
-        <f t="shared" si="2"/>
         <v>12.100000000000001</v>
       </c>
-      <c r="M103" s="6">
+      <c r="M103">
         <v>44.2</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13">
       <c r="A104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="B104" t="s">
@@ -5226,8 +5105,8 @@
       <c r="D104">
         <v>683</v>
       </c>
-      <c r="E104" s="3">
-        <f t="shared" si="3"/>
+      <c r="E104" s="4">
+        <f t="shared" si="2"/>
         <v>149.34114202049781</v>
       </c>
       <c r="F104">
@@ -5244,20 +5123,20 @@
         <v>11.25</v>
       </c>
       <c r="K104">
+        <f t="shared" si="0"/>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="L104">
         <f t="shared" si="1"/>
-        <v>33.200000000000003</v>
-      </c>
-      <c r="L104">
-        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="M104" s="6">
+      <c r="M104">
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13">
       <c r="A105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="B105" t="s">
@@ -5269,8 +5148,8 @@
       <c r="D105">
         <v>390</v>
       </c>
-      <c r="E105" s="3">
-        <f t="shared" si="3"/>
+      <c r="E105" s="4">
+        <f t="shared" si="2"/>
         <v>184.10256410256412</v>
       </c>
       <c r="F105">
@@ -5287,20 +5166,20 @@
         <v>10.55</v>
       </c>
       <c r="K105">
+        <f t="shared" si="0"/>
+        <v>38.5</v>
+      </c>
+      <c r="L105">
         <f t="shared" si="1"/>
-        <v>38.5</v>
-      </c>
-      <c r="L105">
-        <f t="shared" si="2"/>
         <v>19.350000000000001</v>
       </c>
-      <c r="M105" s="6">
+      <c r="M105">
         <v>58.9</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13">
       <c r="A106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="B106" t="s">
@@ -5312,8 +5191,8 @@
       <c r="D106">
         <v>85.4</v>
       </c>
-      <c r="E106" s="3">
-        <f t="shared" si="3"/>
+      <c r="E106" s="4">
+        <f t="shared" si="2"/>
         <v>74.941451990632316</v>
       </c>
       <c r="F106">
@@ -5330,20 +5209,20 @@
         <v>3.4000000000000004</v>
       </c>
       <c r="K106">
+        <f t="shared" si="0"/>
+        <v>11.4</v>
+      </c>
+      <c r="L106">
         <f t="shared" si="1"/>
-        <v>11.4</v>
-      </c>
-      <c r="L106">
-        <f t="shared" si="2"/>
         <v>5.9249999999999998</v>
       </c>
-      <c r="M106" s="6">
+      <c r="M106">
         <v>21.75</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13">
       <c r="A107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="B107" t="s">
@@ -5355,8 +5234,8 @@
       <c r="D107">
         <v>111</v>
       </c>
-      <c r="E107" s="3">
-        <f t="shared" si="3"/>
+      <c r="E107" s="4">
+        <f t="shared" si="2"/>
         <v>89.63963963963964</v>
       </c>
       <c r="F107">
@@ -5373,20 +5252,20 @@
         <v>4.6999999999999993</v>
       </c>
       <c r="K107">
+        <f t="shared" si="0"/>
+        <v>11.3</v>
+      </c>
+      <c r="L107">
         <f t="shared" si="1"/>
-        <v>11.3</v>
-      </c>
-      <c r="L107">
-        <f t="shared" si="2"/>
         <v>7.15</v>
       </c>
-      <c r="M107" s="6">
+      <c r="M107">
         <v>25.6</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13">
       <c r="A108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="B108" t="s">
@@ -5398,8 +5277,8 @@
       <c r="D108">
         <v>170</v>
       </c>
-      <c r="E108" s="3">
-        <f t="shared" si="3"/>
+      <c r="E108" s="4">
+        <f t="shared" si="2"/>
         <v>98.82352941176471</v>
       </c>
       <c r="F108">
@@ -5416,20 +5295,20 @@
         <v>5.8000000000000007</v>
       </c>
       <c r="K108">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L108">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="L108">
-        <f t="shared" si="2"/>
         <v>7.6999999999999993</v>
       </c>
-      <c r="M108" s="6">
+      <c r="M108">
         <v>30.4</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13">
       <c r="A109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="B109" t="s">
@@ -5441,8 +5320,8 @@
       <c r="D109">
         <v>233</v>
       </c>
-      <c r="E109" s="3">
-        <f t="shared" si="3"/>
+      <c r="E109" s="4">
+        <f t="shared" si="2"/>
         <v>78.969957081545061</v>
       </c>
       <c r="F109">
@@ -5459,20 +5338,20 @@
         <v>6.5</v>
       </c>
       <c r="K109">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="L109">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="L109">
-        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="M109" s="6">
+      <c r="M109">
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13">
       <c r="A110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="B110" t="s">
@@ -5484,8 +5363,8 @@
       <c r="D110">
         <v>243</v>
       </c>
-      <c r="E110" s="3">
-        <f t="shared" si="3"/>
+      <c r="E110" s="4">
+        <f t="shared" si="2"/>
         <v>118.10699588477367</v>
       </c>
       <c r="F110">
@@ -5502,20 +5381,20 @@
         <v>5.8500000000000014</v>
       </c>
       <c r="K110">
+        <f t="shared" si="0"/>
+        <v>17.2</v>
+      </c>
+      <c r="L110">
         <f t="shared" si="1"/>
-        <v>17.2</v>
-      </c>
-      <c r="L110">
-        <f t="shared" si="2"/>
         <v>10.049999999999999</v>
       </c>
-      <c r="M110" s="6">
+      <c r="M110">
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13">
       <c r="A111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="B111" t="s">
@@ -5527,8 +5406,8 @@
       <c r="D111">
         <v>256</v>
       </c>
-      <c r="E111" s="3">
-        <f t="shared" si="3"/>
+      <c r="E111" s="4">
+        <f t="shared" si="2"/>
         <v>89.84375</v>
       </c>
       <c r="F111">
@@ -5545,32 +5424,32 @@
         <v>6.8500000000000014</v>
       </c>
       <c r="K111">
+        <f t="shared" si="0"/>
+        <v>18.3</v>
+      </c>
+      <c r="L111">
         <f t="shared" si="1"/>
-        <v>18.3</v>
-      </c>
-      <c r="L111">
-        <f t="shared" si="2"/>
         <v>10.749999999999998</v>
       </c>
-      <c r="M111" s="6">
+      <c r="M111">
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13">
       <c r="A112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>123</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="5">
         <v>9780</v>
       </c>
       <c r="D112">
         <v>127</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="4">
         <v>76.7</v>
       </c>
       <c r="F112">
@@ -5586,31 +5465,31 @@
         <v>5.99</v>
       </c>
       <c r="K112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.69</v>
       </c>
       <c r="L112">
         <v>8.86</v>
       </c>
-      <c r="M112" s="6">
+      <c r="M112">
         <v>27.6</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13">
       <c r="A113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>124</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="5">
         <v>10500</v>
       </c>
       <c r="D113">
         <v>107</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="4">
         <v>98.4</v>
       </c>
       <c r="F113">
@@ -5626,31 +5505,31 @@
         <v>5.94</v>
       </c>
       <c r="K113">
-        <f t="shared" ref="K113:K146" si="5">I113</f>
+        <f t="shared" ref="K113:K146" si="4">I113</f>
         <v>9</v>
       </c>
       <c r="L113">
         <v>8.9</v>
       </c>
-      <c r="M113" s="6">
+      <c r="M113">
         <v>29.5</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13">
       <c r="A114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>125</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="5">
         <v>17300</v>
       </c>
       <c r="D114">
         <v>178</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="4">
         <v>97</v>
       </c>
       <c r="F114">
@@ -5666,31 +5545,31 @@
         <v>6.75</v>
       </c>
       <c r="K114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15.2</v>
       </c>
       <c r="L114">
         <v>8.65</v>
       </c>
-      <c r="M114" s="6">
+      <c r="M114">
         <v>29.5</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13">
       <c r="A115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>126</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="5">
         <v>22700</v>
       </c>
       <c r="D115">
         <v>233</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="4">
         <v>97</v>
       </c>
       <c r="F115">
@@ -5706,31 +5585,31 @@
         <v>6.75</v>
       </c>
       <c r="K115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="L115">
         <v>8.65</v>
       </c>
-      <c r="M115" s="6">
+      <c r="M115">
         <v>29.5</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13">
       <c r="A116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>127</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="5">
         <v>34200</v>
       </c>
       <c r="D116">
         <v>236</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="4">
         <v>145</v>
       </c>
       <c r="F116">
@@ -5746,31 +5625,31 @@
         <v>5.98</v>
       </c>
       <c r="K116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="L116">
         <v>9.1300000000000008</v>
       </c>
-      <c r="M116" s="6">
+      <c r="M116">
         <v>29.5</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13">
       <c r="A117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>128</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="5">
         <v>11500</v>
       </c>
       <c r="D117">
         <v>149</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="4">
         <v>77</v>
       </c>
       <c r="F117">
@@ -5786,31 +5665,31 @@
         <v>6.33</v>
       </c>
       <c r="K117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12.4</v>
       </c>
       <c r="L117">
         <v>7.95</v>
       </c>
-      <c r="M117" s="6">
+      <c r="M117">
         <v>28.6</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13">
       <c r="A118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>110</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="5">
         <v>20800</v>
       </c>
       <c r="D118">
         <v>234</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="4">
         <v>88.9</v>
       </c>
       <c r="F118">
@@ -5826,31 +5705,31 @@
         <v>7.54</v>
       </c>
       <c r="K118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15.6</v>
       </c>
       <c r="L118">
         <v>7.87</v>
       </c>
-      <c r="M118" s="6">
+      <c r="M118">
         <v>32.4</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13">
       <c r="A119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>129</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="5">
         <v>44000</v>
       </c>
       <c r="D119">
         <v>353</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="4">
         <v>124</v>
       </c>
       <c r="F119">
@@ -5866,31 +5745,31 @@
         <v>9.35</v>
       </c>
       <c r="K119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="L119">
         <v>10.15</v>
       </c>
-      <c r="M119" s="6">
+      <c r="M119">
         <v>37.5</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13">
       <c r="A120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>130</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="5">
         <v>52000</v>
       </c>
       <c r="D120">
         <v>420</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="4">
         <v>123</v>
       </c>
       <c r="F120">
@@ -5906,31 +5785,31 @@
         <v>9.35</v>
       </c>
       <c r="K120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24.61</v>
       </c>
       <c r="L120">
         <v>10.15</v>
       </c>
-      <c r="M120" s="6">
+      <c r="M120">
         <v>37.5</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13">
       <c r="A121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>113</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="5">
         <v>36000</v>
       </c>
       <c r="D121">
         <v>337</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121" s="4">
         <v>107</v>
       </c>
       <c r="F121">
@@ -5946,31 +5825,31 @@
         <v>9.5</v>
       </c>
       <c r="K121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18.8</v>
       </c>
       <c r="L121">
         <v>9.0299999999999994</v>
       </c>
-      <c r="M121" s="6">
+      <c r="M121">
         <v>38.1</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13">
       <c r="A122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>131</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="5">
         <v>27200</v>
       </c>
       <c r="D122">
         <v>248</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E122" s="4">
         <v>110</v>
       </c>
       <c r="F122">
@@ -5986,31 +5865,31 @@
         <v>7.7</v>
       </c>
       <c r="K122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15.62</v>
       </c>
       <c r="L122">
         <v>14.49</v>
       </c>
-      <c r="M122" s="6">
+      <c r="M122">
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13">
       <c r="A123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>132</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="5">
         <v>55900</v>
       </c>
       <c r="D123">
         <v>402</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E123" s="4">
         <v>139</v>
       </c>
       <c r="F123">
@@ -6026,31 +5905,31 @@
         <v>9</v>
       </c>
       <c r="K123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22.3</v>
       </c>
       <c r="L123">
         <v>12.1</v>
       </c>
-      <c r="M123" s="6">
+      <c r="M123">
         <v>42.3</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13">
       <c r="A124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>114</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="5">
         <v>79000</v>
       </c>
       <c r="D124">
         <v>540</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E124" s="4">
         <v>147</v>
       </c>
       <c r="F124">
@@ -6066,31 +5945,31 @@
         <v>9.9499999999999993</v>
       </c>
       <c r="K124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27.4</v>
       </c>
       <c r="L124">
         <v>12.72</v>
       </c>
-      <c r="M124" s="6">
+      <c r="M124">
         <v>44.2</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13">
       <c r="A125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>115</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="5">
         <v>102000</v>
       </c>
       <c r="D125">
         <v>683</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="4">
         <v>149</v>
       </c>
       <c r="F125">
@@ -6106,31 +5985,31 @@
         <v>11.25</v>
       </c>
       <c r="K125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="L125">
         <v>13</v>
       </c>
-      <c r="M125" s="6">
+      <c r="M125">
         <v>48</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13">
       <c r="A126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>133</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="5">
         <v>50300</v>
       </c>
       <c r="D126">
         <v>368</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126" s="4">
         <v>137</v>
       </c>
       <c r="F126">
@@ -6146,31 +6025,31 @@
         <v>9.5299999999999994</v>
       </c>
       <c r="K126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="L126">
         <v>16.899999999999999</v>
       </c>
-      <c r="M126" s="6">
+      <c r="M126">
         <v>52.6</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13">
       <c r="A127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>116</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="5">
         <v>72300</v>
       </c>
       <c r="D127">
         <v>392</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127" s="4">
         <v>184</v>
       </c>
       <c r="F127">
@@ -6186,25 +6065,25 @@
         <v>11.25</v>
       </c>
       <c r="K127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19.8</v>
       </c>
       <c r="L127">
         <v>19.45</v>
       </c>
-      <c r="M127" s="6">
+      <c r="M127">
         <v>59.1</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13">
       <c r="A128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>134</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="5">
         <v>202000</v>
       </c>
       <c r="D128">
@@ -6226,25 +6105,25 @@
         <v>13.75</v>
       </c>
       <c r="K128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27.5</v>
       </c>
       <c r="L128">
         <v>22.65</v>
       </c>
-      <c r="M128" s="6">
+      <c r="M128">
         <v>72</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13">
       <c r="A129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>135</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="5">
         <v>11100</v>
       </c>
       <c r="D129">
@@ -6266,25 +6145,25 @@
         <v>3.81</v>
       </c>
       <c r="K129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.5299999999999994</v>
       </c>
       <c r="L129">
         <v>11.43</v>
       </c>
-      <c r="M129" s="6">
+      <c r="M129">
         <v>30.23</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13">
       <c r="A130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>136</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="5">
         <v>13100</v>
       </c>
       <c r="D130">
@@ -6306,25 +6185,25 @@
         <v>4.2</v>
       </c>
       <c r="K130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.51</v>
       </c>
       <c r="L130">
         <v>13.46</v>
       </c>
-      <c r="M130" s="6">
+      <c r="M130">
         <v>34.4</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13">
       <c r="A131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>137</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="5">
         <v>13900</v>
       </c>
       <c r="D131">
@@ -6346,25 +6225,25 @@
         <v>4.7</v>
       </c>
       <c r="K131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.5</v>
       </c>
       <c r="L131">
         <v>13.2</v>
       </c>
-      <c r="M131" s="6">
+      <c r="M131">
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13">
       <c r="A132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>138</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="5">
         <v>24600</v>
       </c>
       <c r="D132">
@@ -6386,25 +6265,25 @@
         <v>3.7</v>
       </c>
       <c r="K132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10.54</v>
       </c>
       <c r="L132">
         <v>21.4</v>
       </c>
-      <c r="M132" s="6">
+      <c r="M132">
         <v>50</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13">
       <c r="A133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>139</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="5">
         <v>41400</v>
       </c>
       <c r="D133">
@@ -6426,25 +6305,25 @@
         <v>5.08</v>
       </c>
       <c r="K133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10.199999999999999</v>
       </c>
       <c r="L133">
         <v>21.8</v>
       </c>
-      <c r="M133" s="6">
+      <c r="M133">
         <v>53.16</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13">
       <c r="A134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>140</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="5">
         <v>79800</v>
       </c>
       <c r="D134">
@@ -6466,25 +6345,25 @@
         <v>8</v>
       </c>
       <c r="K134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20.3</v>
       </c>
       <c r="L134">
         <v>36</v>
       </c>
-      <c r="M134" s="6">
+      <c r="M134">
         <v>86</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13">
       <c r="A135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>141</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="5">
         <v>120</v>
       </c>
       <c r="D135">
@@ -6507,26 +6386,26 @@
         <v>1</v>
       </c>
       <c r="K135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="L135">
-        <f t="shared" ref="L135:L146" si="6">(M135-H135)/2</f>
+        <f t="shared" ref="L135:L146" si="5">(M135-H135)/2</f>
         <v>2</v>
       </c>
-      <c r="M135" s="6">
+      <c r="M135">
         <v>7.5</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13">
       <c r="A136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>142</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="5">
         <v>174</v>
       </c>
       <c r="D136">
@@ -6549,26 +6428,26 @@
         <v>1.1500000000000004</v>
       </c>
       <c r="K136">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="L136">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="L136">
-        <f t="shared" si="6"/>
         <v>2.2249999999999996</v>
       </c>
-      <c r="M136" s="6">
+      <c r="M136">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13">
       <c r="A137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>143</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="5">
         <v>348</v>
       </c>
       <c r="D137">
@@ -6591,26 +6470,26 @@
         <v>0.80000000000000071</v>
       </c>
       <c r="K137">
+        <f t="shared" si="4"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L137">
         <f t="shared" si="5"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L137">
-        <f t="shared" si="6"/>
         <v>3.0999999999999996</v>
       </c>
-      <c r="M137" s="6">
+      <c r="M137">
         <v>11.2</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13">
       <c r="A138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>144</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="5">
         <v>333</v>
       </c>
       <c r="D138">
@@ -6633,26 +6512,26 @@
         <v>1.5499999999999998</v>
       </c>
       <c r="K138">
+        <f t="shared" si="4"/>
+        <v>6.8</v>
+      </c>
+      <c r="L138">
         <f t="shared" si="5"/>
-        <v>6.8</v>
-      </c>
-      <c r="L138">
-        <f t="shared" si="6"/>
         <v>3.4</v>
       </c>
-      <c r="M138" s="6">
+      <c r="M138">
         <v>11.6</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13">
       <c r="A139">
-        <f t="shared" ref="A139:A197" si="7">A138+1</f>
+        <f t="shared" ref="A139:A146" si="6">A138+1</f>
         <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>145</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="5">
         <v>667</v>
       </c>
       <c r="D139">
@@ -6675,26 +6554,26 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="K139">
+        <f t="shared" si="4"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="L139">
         <f t="shared" si="5"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="L139">
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="M139">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140">
         <f t="shared" si="6"/>
-        <v>4.6999999999999993</v>
-      </c>
-      <c r="M139" s="6">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <f t="shared" si="7"/>
         <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>146</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="5">
         <v>1960</v>
       </c>
       <c r="D140">
@@ -6717,26 +6596,26 @@
         <v>1</v>
       </c>
       <c r="K140">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="L140">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="L140">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M140">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
+      <c r="A141">
         <f t="shared" si="6"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M140" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <f t="shared" si="7"/>
         <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>146</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="5">
         <v>1960</v>
       </c>
       <c r="D141">
@@ -6759,26 +6638,26 @@
         <v>1</v>
       </c>
       <c r="K141">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="L141">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="L141">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M141">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142">
         <f t="shared" si="6"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M141" s="6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <f t="shared" si="7"/>
         <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>147</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="5">
         <v>1340</v>
       </c>
       <c r="D142">
@@ -6801,26 +6680,26 @@
         <v>1.5</v>
       </c>
       <c r="K142">
+        <f t="shared" si="4"/>
+        <v>12.5</v>
+      </c>
+      <c r="L142">
         <f t="shared" si="5"/>
-        <v>12.5</v>
-      </c>
-      <c r="L142">
+        <v>6.1</v>
+      </c>
+      <c r="M142">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143">
         <f t="shared" si="6"/>
-        <v>6.1</v>
-      </c>
-      <c r="M142" s="6">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <f t="shared" si="7"/>
         <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>148</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="5">
         <v>3100</v>
       </c>
       <c r="D143">
@@ -6843,26 +6722,26 @@
         <v>1.5</v>
       </c>
       <c r="K143">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="L143">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="L143">
+        <v>5.5</v>
+      </c>
+      <c r="M143">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144">
         <f t="shared" si="6"/>
-        <v>5.5</v>
-      </c>
-      <c r="M143" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <f t="shared" si="7"/>
         <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>149</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="5">
         <v>4145</v>
       </c>
       <c r="D144">
@@ -6885,26 +6764,26 @@
         <v>1.5</v>
       </c>
       <c r="K144">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="L144">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="L144">
+        <v>5.5</v>
+      </c>
+      <c r="M144">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145">
         <f t="shared" si="6"/>
-        <v>5.5</v>
-      </c>
-      <c r="M144" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <f t="shared" si="7"/>
         <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>150</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="5">
         <v>4970</v>
       </c>
       <c r="D145">
@@ -6927,26 +6806,26 @@
         <v>2</v>
       </c>
       <c r="K145">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="L145">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="L145">
+        <v>7.5</v>
+      </c>
+      <c r="M145">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146">
         <f t="shared" si="6"/>
-        <v>7.5</v>
-      </c>
-      <c r="M145" s="6">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <f t="shared" si="7"/>
         <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>151</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="5">
         <v>5400</v>
       </c>
       <c r="D146">
@@ -6969,2153 +6848,15 @@
         <v>2.4500000000000011</v>
       </c>
       <c r="K146">
+        <f t="shared" si="4"/>
+        <v>25.4</v>
+      </c>
+      <c r="L146">
         <f t="shared" si="5"/>
-        <v>25.4</v>
-      </c>
-      <c r="L146">
-        <f t="shared" si="6"/>
         <v>7.3999999999999995</v>
       </c>
-      <c r="M146" s="6">
+      <c r="M146">
         <v>27.2</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <f t="shared" si="7"/>
-        <v>146</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C147">
-        <v>159000</v>
-      </c>
-      <c r="D147">
-        <v>448</v>
-      </c>
-      <c r="E147" s="2">
-        <f>C147/D147</f>
-        <v>354.91071428571428</v>
-      </c>
-      <c r="F147">
-        <v>3</v>
-      </c>
-      <c r="H147">
-        <v>28</v>
-      </c>
-      <c r="I147">
-        <v>16</v>
-      </c>
-      <c r="J147">
-        <v>0</v>
-      </c>
-      <c r="K147">
-        <v>0</v>
-      </c>
-      <c r="L147">
-        <v>34.6</v>
-      </c>
-      <c r="M147" s="6">
-        <v>48</v>
-      </c>
-      <c r="N147" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <f t="shared" si="7"/>
-        <v>147</v>
-      </c>
-      <c r="B148" t="s">
-        <v>152</v>
-      </c>
-      <c r="C148">
-        <v>144000</v>
-      </c>
-      <c r="D148">
-        <v>560</v>
-      </c>
-      <c r="E148" s="2">
-        <f>C148/D148</f>
-        <v>257.14285714285717</v>
-      </c>
-      <c r="F148">
-        <v>3</v>
-      </c>
-      <c r="H148">
-        <v>28</v>
-      </c>
-      <c r="I148">
-        <v>20</v>
-      </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-      <c r="K148">
-        <v>0</v>
-      </c>
-      <c r="L148">
-        <v>34.6</v>
-      </c>
-      <c r="M148" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <f t="shared" si="7"/>
-        <v>148</v>
-      </c>
-      <c r="B149" t="s">
-        <v>153</v>
-      </c>
-      <c r="C149">
-        <v>217000</v>
-      </c>
-      <c r="D149">
-        <v>840</v>
-      </c>
-      <c r="E149" s="2">
-        <f>C149/D149</f>
-        <v>258.33333333333331</v>
-      </c>
-      <c r="F149">
-        <v>3</v>
-      </c>
-      <c r="H149">
-        <v>28</v>
-      </c>
-      <c r="I149">
-        <v>30</v>
-      </c>
-      <c r="J149">
-        <v>0</v>
-      </c>
-      <c r="K149">
-        <v>0</v>
-      </c>
-      <c r="L149">
-        <v>34.6</v>
-      </c>
-      <c r="M149" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <f t="shared" si="7"/>
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>156</v>
-      </c>
-      <c r="C150">
-        <v>310800</v>
-      </c>
-      <c r="D150">
-        <v>840</v>
-      </c>
-      <c r="E150" s="2">
-        <f t="shared" ref="E150:E197" si="8">C150/D150</f>
-        <v>370</v>
-      </c>
-      <c r="F150">
-        <v>3</v>
-      </c>
-      <c r="H150">
-        <v>28</v>
-      </c>
-      <c r="I150">
-        <v>30</v>
-      </c>
-      <c r="J150">
-        <v>0</v>
-      </c>
-      <c r="K150">
-        <v>0</v>
-      </c>
-      <c r="L150">
-        <v>44</v>
-      </c>
-      <c r="M150" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <f t="shared" si="7"/>
-        <v>150</v>
-      </c>
-      <c r="B151" t="s">
-        <v>154</v>
-      </c>
-      <c r="C151">
-        <v>198000</v>
-      </c>
-      <c r="D151">
-        <v>560</v>
-      </c>
-      <c r="E151" s="2">
-        <f t="shared" si="8"/>
-        <v>353.57142857142856</v>
-      </c>
-      <c r="F151">
-        <v>3</v>
-      </c>
-      <c r="H151">
-        <v>28</v>
-      </c>
-      <c r="I151">
-        <v>20</v>
-      </c>
-      <c r="J151">
-        <v>0</v>
-      </c>
-      <c r="K151">
-        <v>0</v>
-      </c>
-      <c r="L151">
-        <v>70</v>
-      </c>
-      <c r="M151" s="6">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <f t="shared" si="7"/>
-        <v>151</v>
-      </c>
-      <c r="B152" t="s">
-        <v>155</v>
-      </c>
-      <c r="C152">
-        <v>508950</v>
-      </c>
-      <c r="D152">
-        <v>1350</v>
-      </c>
-      <c r="E152" s="2">
-        <f t="shared" si="8"/>
-        <v>377</v>
-      </c>
-      <c r="F152">
-        <v>3</v>
-      </c>
-      <c r="H152">
-        <v>45.5</v>
-      </c>
-      <c r="I152">
-        <v>30</v>
-      </c>
-      <c r="J152">
-        <v>0</v>
-      </c>
-      <c r="K152">
-        <v>0</v>
-      </c>
-      <c r="L152">
-        <v>50</v>
-      </c>
-      <c r="M152" s="6">
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <f t="shared" si="7"/>
-        <v>152</v>
-      </c>
-      <c r="B153" t="s">
-        <v>158</v>
-      </c>
-      <c r="C153">
-        <v>309</v>
-      </c>
-      <c r="D153">
-        <v>8.07</v>
-      </c>
-      <c r="E153" s="2">
-        <f t="shared" si="8"/>
-        <v>38.289962825278806</v>
-      </c>
-      <c r="F153">
-        <v>3</v>
-      </c>
-      <c r="H153">
-        <f>(9.9-L153)/2</f>
-        <v>2.7750000000000004</v>
-      </c>
-      <c r="I153">
-        <v>2.85</v>
-      </c>
-      <c r="J153">
-        <v>0</v>
-      </c>
-      <c r="K153">
-        <v>0</v>
-      </c>
-      <c r="L153">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="M153" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <f t="shared" si="7"/>
-        <v>153</v>
-      </c>
-      <c r="B154" t="s">
-        <v>159</v>
-      </c>
-      <c r="C154">
-        <v>1680</v>
-      </c>
-      <c r="D154">
-        <v>32.299999999999997</v>
-      </c>
-      <c r="E154" s="2">
-        <f t="shared" si="8"/>
-        <v>52.012383900928796</v>
-      </c>
-      <c r="F154">
-        <v>3</v>
-      </c>
-      <c r="H154">
-        <f>(15.4-L154)/2</f>
-        <v>5</v>
-      </c>
-      <c r="I154">
-        <v>6.25</v>
-      </c>
-      <c r="J154">
-        <v>0</v>
-      </c>
-      <c r="K154">
-        <v>0</v>
-      </c>
-      <c r="L154">
-        <v>5.4</v>
-      </c>
-      <c r="M154" s="6">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <f t="shared" si="7"/>
-        <v>154</v>
-      </c>
-      <c r="B155" t="s">
-        <v>160</v>
-      </c>
-      <c r="C155">
-        <v>3800</v>
-      </c>
-      <c r="D155">
-        <v>56</v>
-      </c>
-      <c r="E155" s="2">
-        <f t="shared" si="8"/>
-        <v>67.857142857142861</v>
-      </c>
-      <c r="F155">
-        <v>3</v>
-      </c>
-      <c r="H155">
-        <f>(20.8-L155)/2</f>
-        <v>7.2</v>
-      </c>
-      <c r="I155">
-        <v>7.5</v>
-      </c>
-      <c r="J155">
-        <v>0</v>
-      </c>
-      <c r="K155">
-        <v>0</v>
-      </c>
-      <c r="L155">
-        <v>6.4</v>
-      </c>
-      <c r="M155" s="6">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <f t="shared" si="7"/>
-        <v>155</v>
-      </c>
-      <c r="B156" t="s">
-        <v>161</v>
-      </c>
-      <c r="C156">
-        <v>3380</v>
-      </c>
-      <c r="D156">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="E156" s="2">
-        <f t="shared" si="8"/>
-        <v>83.870967741935488</v>
-      </c>
-      <c r="F156">
-        <v>3</v>
-      </c>
-      <c r="H156">
-        <f>(25.4-L156)/2</f>
-        <v>6.35</v>
-      </c>
-      <c r="I156">
-        <v>6.4</v>
-      </c>
-      <c r="J156">
-        <v>0</v>
-      </c>
-      <c r="K156">
-        <v>0</v>
-      </c>
-      <c r="L156">
-        <v>12.7</v>
-      </c>
-      <c r="M156" s="6">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <f t="shared" si="7"/>
-        <v>156</v>
-      </c>
-      <c r="B157" t="s">
-        <v>162</v>
-      </c>
-      <c r="C157">
-        <v>9180</v>
-      </c>
-      <c r="D157">
-        <v>104</v>
-      </c>
-      <c r="E157" s="2">
-        <f t="shared" si="8"/>
-        <v>88.269230769230774</v>
-      </c>
-      <c r="F157">
-        <v>3</v>
-      </c>
-      <c r="H157">
-        <f>(24.8-L157)/2</f>
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I157">
-        <v>12.7</v>
-      </c>
-      <c r="J157">
-        <v>0</v>
-      </c>
-      <c r="K157">
-        <v>0</v>
-      </c>
-      <c r="L157">
-        <v>8.4</v>
-      </c>
-      <c r="M157" s="6">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <f t="shared" si="7"/>
-        <v>157</v>
-      </c>
-      <c r="B158" t="s">
-        <v>163</v>
-      </c>
-      <c r="C158">
-        <v>17900</v>
-      </c>
-      <c r="D158">
-        <v>161</v>
-      </c>
-      <c r="E158" s="2">
-        <f t="shared" si="8"/>
-        <v>111.18012422360249</v>
-      </c>
-      <c r="F158">
-        <v>3</v>
-      </c>
-      <c r="H158">
-        <f>(31.3-L158)/2</f>
-        <v>10.4</v>
-      </c>
-      <c r="I158">
-        <v>16</v>
-      </c>
-      <c r="J158">
-        <v>0</v>
-      </c>
-      <c r="K158">
-        <v>0</v>
-      </c>
-      <c r="L158">
-        <v>10.5</v>
-      </c>
-      <c r="M158" s="6">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <f t="shared" si="7"/>
-        <v>158</v>
-      </c>
-      <c r="B159" t="s">
-        <v>164</v>
-      </c>
-      <c r="C159">
-        <v>9490</v>
-      </c>
-      <c r="D159">
-        <v>86.5</v>
-      </c>
-      <c r="E159" s="2">
-        <f t="shared" si="8"/>
-        <v>109.71098265895954</v>
-      </c>
-      <c r="F159">
-        <v>3</v>
-      </c>
-      <c r="H159">
-        <f>(33.3-L159)/2</f>
-        <v>9.4999999999999982</v>
-      </c>
-      <c r="I159">
-        <v>9.4</v>
-      </c>
-      <c r="J159">
-        <v>0</v>
-      </c>
-      <c r="K159">
-        <v>0</v>
-      </c>
-      <c r="L159">
-        <v>14.3</v>
-      </c>
-      <c r="M159" s="6">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <f t="shared" si="7"/>
-        <v>159</v>
-      </c>
-      <c r="B160" t="s">
-        <v>165</v>
-      </c>
-      <c r="C160">
-        <v>71300</v>
-      </c>
-      <c r="D160">
-        <v>392</v>
-      </c>
-      <c r="E160" s="2">
-        <f t="shared" si="8"/>
-        <v>181.88775510204081</v>
-      </c>
-      <c r="F160">
-        <v>3</v>
-      </c>
-      <c r="H160">
-        <f>(46-L160)/2</f>
-        <v>14</v>
-      </c>
-      <c r="I160">
-        <v>28</v>
-      </c>
-      <c r="J160">
-        <v>0</v>
-      </c>
-      <c r="K160">
-        <v>0</v>
-      </c>
-      <c r="L160">
-        <v>18</v>
-      </c>
-      <c r="M160" s="6">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A161">
-        <f t="shared" si="7"/>
-        <v>160</v>
-      </c>
-      <c r="B161" t="s">
-        <v>166</v>
-      </c>
-      <c r="C161">
-        <v>35200</v>
-      </c>
-      <c r="D161">
-        <v>204</v>
-      </c>
-      <c r="E161" s="2">
-        <f t="shared" si="8"/>
-        <v>172.54901960784315</v>
-      </c>
-      <c r="F161">
-        <v>3</v>
-      </c>
-      <c r="H161">
-        <f>(67.3-L161)/2</f>
-        <v>14.25</v>
-      </c>
-      <c r="I161">
-        <v>14.3</v>
-      </c>
-      <c r="J161">
-        <v>0</v>
-      </c>
-      <c r="K161">
-        <v>0</v>
-      </c>
-      <c r="L161">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="M161" s="6">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A162">
-        <f t="shared" si="7"/>
-        <v>161</v>
-      </c>
-      <c r="B162" t="s">
-        <v>167</v>
-      </c>
-      <c r="C162">
-        <v>219000</v>
-      </c>
-      <c r="D162">
-        <v>706</v>
-      </c>
-      <c r="E162" s="2">
-        <f t="shared" si="8"/>
-        <v>310.19830028328613</v>
-      </c>
-      <c r="F162">
-        <v>3</v>
-      </c>
-      <c r="H162">
-        <f>(79.8-L162)/2</f>
-        <v>22.299999999999997</v>
-      </c>
-      <c r="I162">
-        <v>31.7</v>
-      </c>
-      <c r="J162">
-        <v>0</v>
-      </c>
-      <c r="K162">
-        <v>0</v>
-      </c>
-      <c r="L162">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="M162" s="6">
-        <v>42.4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A163">
-        <f t="shared" si="7"/>
-        <v>162</v>
-      </c>
-      <c r="B163" t="s">
-        <v>168</v>
-      </c>
-      <c r="C163">
-        <v>217000</v>
-      </c>
-      <c r="D163">
-        <v>840</v>
-      </c>
-      <c r="E163" s="2">
-        <f t="shared" si="8"/>
-        <v>258.33333333333331</v>
-      </c>
-      <c r="F163">
-        <v>3</v>
-      </c>
-      <c r="H163">
-        <f>(92-L163)/2</f>
-        <v>27.9</v>
-      </c>
-      <c r="I163">
-        <v>30</v>
-      </c>
-      <c r="J163">
-        <v>0</v>
-      </c>
-      <c r="K163">
-        <v>0</v>
-      </c>
-      <c r="L163">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="M163" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A164">
-        <f t="shared" si="7"/>
-        <v>163</v>
-      </c>
-      <c r="B164" t="s">
-        <v>169</v>
-      </c>
-      <c r="C164">
-        <v>159000</v>
-      </c>
-      <c r="D164">
-        <v>448</v>
-      </c>
-      <c r="E164" s="2">
-        <f t="shared" si="8"/>
-        <v>354.91071428571428</v>
-      </c>
-      <c r="F164">
-        <v>3</v>
-      </c>
-      <c r="H164">
-        <f>(93-L164)/2</f>
-        <v>28.4</v>
-      </c>
-      <c r="I164">
-        <v>16</v>
-      </c>
-      <c r="J164">
-        <v>0</v>
-      </c>
-      <c r="K164">
-        <v>0</v>
-      </c>
-      <c r="L164">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="M164" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <f t="shared" si="7"/>
-        <v>164</v>
-      </c>
-      <c r="B165" t="s">
-        <v>170</v>
-      </c>
-      <c r="C165">
-        <v>297000</v>
-      </c>
-      <c r="D165">
-        <v>840</v>
-      </c>
-      <c r="E165" s="2">
-        <f t="shared" si="8"/>
-        <v>353.57142857142856</v>
-      </c>
-      <c r="F165">
-        <v>3</v>
-      </c>
-      <c r="H165">
-        <f>(93-L165)/2</f>
-        <v>28.4</v>
-      </c>
-      <c r="I165">
-        <v>30</v>
-      </c>
-      <c r="J165">
-        <v>0</v>
-      </c>
-      <c r="K165">
-        <v>0</v>
-      </c>
-      <c r="L165">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="M165" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <f t="shared" si="7"/>
-        <v>165</v>
-      </c>
-      <c r="B166" t="s">
-        <v>171</v>
-      </c>
-      <c r="C166">
-        <v>199000</v>
-      </c>
-      <c r="D166">
-        <v>645</v>
-      </c>
-      <c r="E166" s="2">
-        <f t="shared" si="8"/>
-        <v>308.52713178294573</v>
-      </c>
-      <c r="F166">
-        <v>3</v>
-      </c>
-      <c r="H166">
-        <f>(101.6-L166)/2</f>
-        <v>25.4</v>
-      </c>
-      <c r="I166">
-        <v>25.4</v>
-      </c>
-      <c r="J166">
-        <v>0</v>
-      </c>
-      <c r="K166">
-        <v>0</v>
-      </c>
-      <c r="L166">
-        <v>50.8</v>
-      </c>
-      <c r="M166" s="6">
-        <v>31.7</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A167">
-        <f t="shared" si="7"/>
-        <v>166</v>
-      </c>
-      <c r="B167" t="s">
-        <v>172</v>
-      </c>
-      <c r="C167">
-        <v>268800</v>
-      </c>
-      <c r="D167">
-        <v>560</v>
-      </c>
-      <c r="E167" s="2">
-        <f t="shared" si="8"/>
-        <v>480</v>
-      </c>
-      <c r="F167">
-        <v>3</v>
-      </c>
-      <c r="H167">
-        <f>(126-70)/2</f>
-        <v>28</v>
-      </c>
-      <c r="I167">
-        <v>20</v>
-      </c>
-      <c r="J167">
-        <v>0</v>
-      </c>
-      <c r="K167">
-        <v>0</v>
-      </c>
-      <c r="L167">
-        <v>70</v>
-      </c>
-      <c r="M167" s="6">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="168" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="6">
-        <f t="shared" si="7"/>
-        <v>167</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C168" s="6">
-        <v>16640</v>
-      </c>
-      <c r="D168" s="6">
-        <v>129</v>
-      </c>
-      <c r="E168" s="8">
-        <f t="shared" si="8"/>
-        <v>128.99224806201551</v>
-      </c>
-      <c r="F168" s="6">
-        <v>3</v>
-      </c>
-      <c r="H168" s="6">
-        <f>(O168-L168)/2</f>
-        <v>11.7</v>
-      </c>
-      <c r="I168" s="6">
-        <v>13</v>
-      </c>
-      <c r="J168">
-        <v>0</v>
-      </c>
-      <c r="K168">
-        <v>0</v>
-      </c>
-      <c r="L168" s="6">
-        <v>12</v>
-      </c>
-      <c r="M168" s="6">
-        <v>17.5</v>
-      </c>
-      <c r="O168" s="6">
-        <v>35.4</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A169">
-        <f t="shared" si="7"/>
-        <v>168</v>
-      </c>
-      <c r="B169" t="s">
-        <v>174</v>
-      </c>
-      <c r="C169">
-        <v>18900</v>
-      </c>
-      <c r="D169">
-        <v>148</v>
-      </c>
-      <c r="E169" s="2">
-        <f t="shared" si="8"/>
-        <v>127.70270270270271</v>
-      </c>
-      <c r="F169">
-        <v>3</v>
-      </c>
-      <c r="H169" s="6">
-        <f>(O169-L169)/2</f>
-        <v>11.5</v>
-      </c>
-      <c r="I169">
-        <v>14.7</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169">
-        <v>0</v>
-      </c>
-      <c r="L169">
-        <v>13.9</v>
-      </c>
-      <c r="M169" s="6">
-        <v>16.8</v>
-      </c>
-      <c r="O169">
-        <v>36.9</v>
-      </c>
-    </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A170">
-        <f t="shared" si="7"/>
-        <v>169</v>
-      </c>
-      <c r="B170" t="s">
-        <v>175</v>
-      </c>
-      <c r="C170">
-        <v>24300</v>
-      </c>
-      <c r="D170">
-        <v>149</v>
-      </c>
-      <c r="E170" s="2">
-        <f t="shared" si="8"/>
-        <v>163.08724832214764</v>
-      </c>
-      <c r="F170">
-        <v>3</v>
-      </c>
-      <c r="H170" s="6">
-        <f>(O170-L170)/2</f>
-        <v>11.850000000000001</v>
-      </c>
-      <c r="I170">
-        <v>14.9</v>
-      </c>
-      <c r="J170">
-        <v>0</v>
-      </c>
-      <c r="K170">
-        <v>0</v>
-      </c>
-      <c r="L170">
-        <v>15</v>
-      </c>
-      <c r="M170" s="6">
-        <v>24.8</v>
-      </c>
-      <c r="O170">
-        <v>38.700000000000003</v>
-      </c>
-    </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A171">
-        <f t="shared" si="7"/>
-        <v>170</v>
-      </c>
-      <c r="B171" t="s">
-        <v>176</v>
-      </c>
-      <c r="C171">
-        <v>11800</v>
-      </c>
-      <c r="D171">
-        <v>104</v>
-      </c>
-      <c r="E171" s="2">
-        <f t="shared" si="8"/>
-        <v>113.46153846153847</v>
-      </c>
-      <c r="F171">
-        <v>3</v>
-      </c>
-      <c r="H171" s="6">
-        <f>(O171-L171)/2</f>
-        <v>11.799999999999999</v>
-      </c>
-      <c r="I171">
-        <v>11.9</v>
-      </c>
-      <c r="J171">
-        <v>0</v>
-      </c>
-      <c r="K171">
-        <v>0</v>
-      </c>
-      <c r="L171">
-        <v>18.2</v>
-      </c>
-      <c r="M171" s="6">
-        <v>11.1</v>
-      </c>
-      <c r="O171">
-        <v>41.8</v>
-      </c>
-    </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A172">
-        <f t="shared" si="7"/>
-        <v>171</v>
-      </c>
-      <c r="B172" t="s">
-        <v>177</v>
-      </c>
-      <c r="C172">
-        <v>11600</v>
-      </c>
-      <c r="D172">
-        <v>88</v>
-      </c>
-      <c r="E172" s="2">
-        <f t="shared" si="8"/>
-        <v>131.81818181818181</v>
-      </c>
-      <c r="F172">
-        <v>3</v>
-      </c>
-      <c r="H172" s="6">
-        <f>(O172-L172)/2</f>
-        <v>10.900000000000002</v>
-      </c>
-      <c r="I172">
-        <v>11.15</v>
-      </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
-      <c r="K172">
-        <v>0</v>
-      </c>
-      <c r="L172">
-        <v>24.4</v>
-      </c>
-      <c r="M172" s="6">
-        <v>11.85</v>
-      </c>
-      <c r="O172">
-        <v>46.2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <f t="shared" si="7"/>
-        <v>172</v>
-      </c>
-      <c r="B173" t="s">
-        <v>178</v>
-      </c>
-      <c r="C173">
-        <v>39990</v>
-      </c>
-      <c r="D173">
-        <v>215</v>
-      </c>
-      <c r="E173" s="2">
-        <f t="shared" si="8"/>
-        <v>186</v>
-      </c>
-      <c r="F173">
-        <v>3</v>
-      </c>
-      <c r="H173" s="6">
-        <f>(O173-L173)/2</f>
-        <v>15.3</v>
-      </c>
-      <c r="I173">
-        <v>17</v>
-      </c>
-      <c r="J173">
-        <v>0</v>
-      </c>
-      <c r="K173">
-        <v>0</v>
-      </c>
-      <c r="L173">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="M173" s="6">
-        <v>26.9</v>
-      </c>
-      <c r="O173">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A174">
-        <f t="shared" si="7"/>
-        <v>173</v>
-      </c>
-      <c r="B174" t="s">
-        <v>179</v>
-      </c>
-      <c r="C174">
-        <v>78570</v>
-      </c>
-      <c r="D174">
-        <v>418</v>
-      </c>
-      <c r="E174" s="2">
-        <f t="shared" si="8"/>
-        <v>187.96650717703349</v>
-      </c>
-      <c r="F174">
-        <v>3</v>
-      </c>
-      <c r="H174" s="6">
-        <f>(O174-L174)/2</f>
-        <v>17.649999999999999</v>
-      </c>
-      <c r="I174">
-        <v>23.5</v>
-      </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-      <c r="K174">
-        <v>0</v>
-      </c>
-      <c r="L174">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="M174" s="6">
-        <v>25.5</v>
-      </c>
-      <c r="O174">
-        <v>54.9</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <f t="shared" si="7"/>
-        <v>174</v>
-      </c>
-      <c r="B175" t="s">
-        <v>180</v>
-      </c>
-      <c r="C175">
-        <v>27900</v>
-      </c>
-      <c r="D175">
-        <v>171</v>
-      </c>
-      <c r="E175" s="2">
-        <f t="shared" si="8"/>
-        <v>163.15789473684211</v>
-      </c>
-      <c r="F175">
-        <v>3</v>
-      </c>
-      <c r="H175" s="6">
-        <f>(O175-L175)/2</f>
-        <v>15.375</v>
-      </c>
-      <c r="I175">
-        <v>15.5</v>
-      </c>
-      <c r="J175">
-        <v>0</v>
-      </c>
-      <c r="K175">
-        <v>0</v>
-      </c>
-      <c r="L175">
-        <v>26.9</v>
-      </c>
-      <c r="M175" s="6">
-        <v>16</v>
-      </c>
-      <c r="O175">
-        <v>57.65</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <f t="shared" si="7"/>
-        <v>175</v>
-      </c>
-      <c r="B176" t="s">
-        <v>181</v>
-      </c>
-      <c r="C176">
-        <v>39700</v>
-      </c>
-      <c r="D176">
-        <v>210</v>
-      </c>
-      <c r="E176" s="2">
-        <f t="shared" si="8"/>
-        <v>189.04761904761904</v>
-      </c>
-      <c r="F176">
-        <v>3</v>
-      </c>
-      <c r="H176" s="6">
-        <f>(O176-L176)/2</f>
-        <v>16.920000000000002</v>
-      </c>
-      <c r="I176">
-        <v>17</v>
-      </c>
-      <c r="J176">
-        <v>0</v>
-      </c>
-      <c r="K176">
-        <v>0</v>
-      </c>
-      <c r="L176">
-        <v>25.5</v>
-      </c>
-      <c r="M176" s="6">
-        <v>21.9</v>
-      </c>
-      <c r="O176">
-        <v>59.34</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <f t="shared" si="7"/>
-        <v>176</v>
-      </c>
-      <c r="B177" t="s">
-        <v>182</v>
-      </c>
-      <c r="C177">
-        <v>27040</v>
-      </c>
-      <c r="D177">
-        <v>147</v>
-      </c>
-      <c r="E177" s="2">
-        <f t="shared" si="8"/>
-        <v>183.94557823129253</v>
-      </c>
-      <c r="F177">
-        <v>3</v>
-      </c>
-      <c r="H177" s="6">
-        <f>(O177-L177)/2</f>
-        <v>13.95</v>
-      </c>
-      <c r="I177">
-        <v>13.8</v>
-      </c>
-      <c r="J177">
-        <v>0</v>
-      </c>
-      <c r="K177">
-        <v>0</v>
-      </c>
-      <c r="L177">
-        <v>36.1</v>
-      </c>
-      <c r="M177" s="6">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="O177">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A178">
-        <f t="shared" si="7"/>
-        <v>177</v>
-      </c>
-      <c r="B178" t="s">
-        <v>183</v>
-      </c>
-      <c r="C178">
-        <v>61000</v>
-      </c>
-      <c r="D178">
-        <v>290</v>
-      </c>
-      <c r="E178" s="2">
-        <f t="shared" si="8"/>
-        <v>210.34482758620689</v>
-      </c>
-      <c r="F178">
-        <v>3</v>
-      </c>
-      <c r="H178" s="6">
-        <f>(O178-L178)/2</f>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="I178">
-        <v>20</v>
-      </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-      <c r="K178">
-        <v>0</v>
-      </c>
-      <c r="L178">
-        <v>23.2</v>
-      </c>
-      <c r="M178" s="6">
-        <v>26.5</v>
-      </c>
-      <c r="O178">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A179">
-        <f t="shared" si="7"/>
-        <v>178</v>
-      </c>
-      <c r="B179" t="s">
-        <v>184</v>
-      </c>
-      <c r="C179">
-        <v>64900</v>
-      </c>
-      <c r="D179">
-        <v>308</v>
-      </c>
-      <c r="E179" s="2">
-        <f t="shared" si="8"/>
-        <v>210.71428571428572</v>
-      </c>
-      <c r="F179">
-        <v>3</v>
-      </c>
-      <c r="H179" s="6">
-        <f>(O179-L179)/2</f>
-        <v>20.399999999999999</v>
-      </c>
-      <c r="I179">
-        <v>20</v>
-      </c>
-      <c r="J179">
-        <v>0</v>
-      </c>
-      <c r="K179">
-        <v>0</v>
-      </c>
-      <c r="L179">
-        <v>23.2</v>
-      </c>
-      <c r="M179" s="6">
-        <v>26.5</v>
-      </c>
-      <c r="O179">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A180">
-        <f t="shared" si="7"/>
-        <v>179</v>
-      </c>
-      <c r="B180" t="s">
-        <v>185</v>
-      </c>
-      <c r="C180">
-        <v>43800</v>
-      </c>
-      <c r="D180">
-        <v>214</v>
-      </c>
-      <c r="E180" s="2">
-        <f t="shared" si="8"/>
-        <v>204.67289719626169</v>
-      </c>
-      <c r="F180">
-        <v>3</v>
-      </c>
-      <c r="H180" s="6">
-        <f>(O180-L180)/2</f>
-        <v>16.685000000000002</v>
-      </c>
-      <c r="I180">
-        <v>17.25</v>
-      </c>
-      <c r="J180">
-        <v>0</v>
-      </c>
-      <c r="K180">
-        <v>0</v>
-      </c>
-      <c r="L180">
-        <v>35</v>
-      </c>
-      <c r="M180" s="6">
-        <v>19.05</v>
-      </c>
-      <c r="O180">
-        <v>68.37</v>
-      </c>
-    </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A181">
-        <f t="shared" si="7"/>
-        <v>180</v>
-      </c>
-      <c r="B181" t="s">
-        <v>186</v>
-      </c>
-      <c r="C181">
-        <v>350</v>
-      </c>
-      <c r="D181">
-        <v>12</v>
-      </c>
-      <c r="E181" s="2">
-        <f t="shared" si="8"/>
-        <v>29.166666666666668</v>
-      </c>
-      <c r="F181">
-        <v>3</v>
-      </c>
-      <c r="H181">
-        <v>1.83</v>
-      </c>
-      <c r="I181">
-        <v>6.3</v>
-      </c>
-      <c r="J181">
-        <v>0</v>
-      </c>
-      <c r="K181">
-        <v>0</v>
-      </c>
-      <c r="L181">
-        <v>7.19</v>
-      </c>
-      <c r="M181" s="6">
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A182">
-        <f t="shared" si="7"/>
-        <v>181</v>
-      </c>
-      <c r="B182" t="s">
-        <v>187</v>
-      </c>
-      <c r="C182" s="5">
-        <v>4130</v>
-      </c>
-      <c r="D182">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="E182" s="2">
-        <f t="shared" si="8"/>
-        <v>104.03022670025189</v>
-      </c>
-      <c r="F182">
-        <v>3</v>
-      </c>
-      <c r="H182">
-        <v>6.27</v>
-      </c>
-      <c r="I182">
-        <v>6.27</v>
-      </c>
-      <c r="J182">
-        <v>0</v>
-      </c>
-      <c r="K182">
-        <v>0</v>
-      </c>
-      <c r="L182">
-        <v>9.5</v>
-      </c>
-      <c r="M182" s="6">
-        <v>13.98</v>
-      </c>
-    </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A183">
-        <f t="shared" si="7"/>
-        <v>182</v>
-      </c>
-      <c r="B183" t="s">
-        <v>188</v>
-      </c>
-      <c r="C183" s="5">
-        <v>4170</v>
-      </c>
-      <c r="D183">
-        <v>80</v>
-      </c>
-      <c r="E183" s="2">
-        <f t="shared" si="8"/>
-        <v>52.125</v>
-      </c>
-      <c r="F183">
-        <v>3</v>
-      </c>
-      <c r="H183">
-        <v>6.3</v>
-      </c>
-      <c r="I183">
-        <v>12.7</v>
-      </c>
-      <c r="J183">
-        <v>0</v>
-      </c>
-      <c r="K183">
-        <v>0</v>
-      </c>
-      <c r="L183">
-        <v>12.8</v>
-      </c>
-      <c r="M183" s="6">
-        <v>6.35</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A184">
-        <f t="shared" si="7"/>
-        <v>183</v>
-      </c>
-      <c r="B184" t="s">
-        <v>189</v>
-      </c>
-      <c r="C184" s="5">
-        <v>3370</v>
-      </c>
-      <c r="D184">
-        <v>40.4</v>
-      </c>
-      <c r="E184" s="2">
-        <f t="shared" si="8"/>
-        <v>83.415841584158414</v>
-      </c>
-      <c r="F184">
-        <v>3</v>
-      </c>
-      <c r="H184">
-        <v>6.45</v>
-      </c>
-      <c r="I184">
-        <v>6.35</v>
-      </c>
-      <c r="J184">
-        <v>0</v>
-      </c>
-      <c r="K184">
-        <v>0</v>
-      </c>
-      <c r="L184">
-        <v>12.7</v>
-      </c>
-      <c r="M184" s="6">
-        <v>9.27</v>
-      </c>
-    </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A185">
-        <f t="shared" si="7"/>
-        <v>184</v>
-      </c>
-      <c r="B185" t="s">
-        <v>190</v>
-      </c>
-      <c r="C185" s="5">
-        <v>6740</v>
-      </c>
-      <c r="D185">
-        <v>80.8</v>
-      </c>
-      <c r="E185" s="2">
-        <f t="shared" si="8"/>
-        <v>83.415841584158414</v>
-      </c>
-      <c r="F185">
-        <v>3</v>
-      </c>
-      <c r="H185">
-        <v>6.45</v>
-      </c>
-      <c r="I185">
-        <v>12.7</v>
-      </c>
-      <c r="J185">
-        <v>0</v>
-      </c>
-      <c r="K185">
-        <v>0</v>
-      </c>
-      <c r="L185">
-        <v>12.7</v>
-      </c>
-      <c r="M185" s="6">
-        <v>9.27</v>
-      </c>
-    </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A186">
-        <f t="shared" si="7"/>
-        <v>185</v>
-      </c>
-      <c r="B186" t="s">
-        <v>191</v>
-      </c>
-      <c r="C186" s="5">
-        <v>160000</v>
-      </c>
-      <c r="D186">
-        <v>452</v>
-      </c>
-      <c r="E186" s="2">
-        <f t="shared" si="8"/>
-        <v>353.98230088495575</v>
-      </c>
-      <c r="F186">
-        <v>3</v>
-      </c>
-      <c r="H186">
-        <v>28.4</v>
-      </c>
-      <c r="I186">
-        <v>16</v>
-      </c>
-      <c r="J186">
-        <v>0</v>
-      </c>
-      <c r="K186">
-        <v>0</v>
-      </c>
-      <c r="L186">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="M186" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A187">
-        <f t="shared" si="7"/>
-        <v>186</v>
-      </c>
-      <c r="B187" t="s">
-        <v>192</v>
-      </c>
-      <c r="C187" s="5">
-        <v>297000</v>
-      </c>
-      <c r="D187">
-        <v>840</v>
-      </c>
-      <c r="E187" s="2">
-        <f t="shared" si="8"/>
-        <v>353.57142857142856</v>
-      </c>
-      <c r="F187">
-        <v>3</v>
-      </c>
-      <c r="H187">
-        <v>28.4</v>
-      </c>
-      <c r="I187">
-        <v>30</v>
-      </c>
-      <c r="J187">
-        <v>0</v>
-      </c>
-      <c r="K187">
-        <v>0</v>
-      </c>
-      <c r="L187">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="M187" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A188">
-        <f t="shared" si="7"/>
-        <v>187</v>
-      </c>
-      <c r="B188" t="s">
-        <v>193</v>
-      </c>
-      <c r="C188" s="5">
-        <v>319000</v>
-      </c>
-      <c r="D188">
-        <v>905</v>
-      </c>
-      <c r="E188" s="2">
-        <f t="shared" si="8"/>
-        <v>352.48618784530385</v>
-      </c>
-      <c r="F188">
-        <v>3</v>
-      </c>
-      <c r="H188">
-        <v>28.4</v>
-      </c>
-      <c r="I188">
-        <v>32</v>
-      </c>
-      <c r="J188">
-        <v>0</v>
-      </c>
-      <c r="K188">
-        <v>0</v>
-      </c>
-      <c r="L188">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="M188" s="6">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A189">
-        <f t="shared" si="7"/>
-        <v>188</v>
-      </c>
-      <c r="B189" t="s">
-        <v>194</v>
-      </c>
-      <c r="C189" s="5">
-        <v>268800</v>
-      </c>
-      <c r="D189">
-        <v>560</v>
-      </c>
-      <c r="E189" s="2">
-        <f t="shared" si="8"/>
-        <v>480</v>
-      </c>
-      <c r="F189">
-        <v>3</v>
-      </c>
-      <c r="H189">
-        <v>28</v>
-      </c>
-      <c r="I189">
-        <v>20</v>
-      </c>
-      <c r="J189">
-        <v>0</v>
-      </c>
-      <c r="K189">
-        <v>0</v>
-      </c>
-      <c r="L189">
-        <v>70</v>
-      </c>
-      <c r="M189" s="6">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A190">
-        <f t="shared" si="7"/>
-        <v>189</v>
-      </c>
-      <c r="B190" t="s">
-        <v>195</v>
-      </c>
-      <c r="C190" s="5">
-        <v>199000</v>
-      </c>
-      <c r="D190">
-        <v>645</v>
-      </c>
-      <c r="E190" s="2">
-        <f t="shared" si="8"/>
-        <v>308.52713178294573</v>
-      </c>
-      <c r="F190">
-        <v>3</v>
-      </c>
-      <c r="H190">
-        <v>25.4</v>
-      </c>
-      <c r="I190">
-        <v>25.4</v>
-      </c>
-      <c r="J190">
-        <v>0</v>
-      </c>
-      <c r="K190">
-        <v>0</v>
-      </c>
-      <c r="L190">
-        <v>50.8</v>
-      </c>
-      <c r="M190" s="6">
-        <v>31.7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A191">
-        <f t="shared" si="7"/>
-        <v>190</v>
-      </c>
-      <c r="B191" t="s">
-        <v>196</v>
-      </c>
-      <c r="C191" s="5">
-        <v>11000</v>
-      </c>
-      <c r="D191">
-        <v>91.1</v>
-      </c>
-      <c r="E191" s="2">
-        <f t="shared" si="8"/>
-        <v>120.74643249176729</v>
-      </c>
-      <c r="F191">
-        <v>3</v>
-      </c>
-      <c r="H191">
-        <f>(O191-L191)/2</f>
-        <v>11.49</v>
-      </c>
-      <c r="I191">
-        <v>11.94</v>
-      </c>
-      <c r="J191">
-        <v>0</v>
-      </c>
-      <c r="K191">
-        <v>0</v>
-      </c>
-      <c r="L191">
-        <v>18.8</v>
-      </c>
-      <c r="M191" s="6">
-        <v>13.4</v>
-      </c>
-      <c r="O191">
-        <v>41.78</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A192">
-        <f t="shared" si="7"/>
-        <v>191</v>
-      </c>
-      <c r="B192" t="s">
-        <v>197</v>
-      </c>
-      <c r="C192" s="5">
-        <v>11800</v>
-      </c>
-      <c r="D192">
-        <v>104</v>
-      </c>
-      <c r="E192" s="2">
-        <f t="shared" si="8"/>
-        <v>113.46153846153847</v>
-      </c>
-      <c r="F192">
-        <v>3</v>
-      </c>
-      <c r="H192">
-        <f>(O192-L192)/2</f>
-        <v>11.49</v>
-      </c>
-      <c r="I192">
-        <v>11.94</v>
-      </c>
-      <c r="J192">
-        <v>0</v>
-      </c>
-      <c r="K192">
-        <v>0</v>
-      </c>
-      <c r="L192">
-        <v>18.8</v>
-      </c>
-      <c r="M192" s="6">
-        <v>11.1</v>
-      </c>
-      <c r="O192">
-        <v>41.78</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A193">
-        <f t="shared" si="7"/>
-        <v>192</v>
-      </c>
-      <c r="B193" t="s">
-        <v>198</v>
-      </c>
-      <c r="C193" s="5">
-        <v>15196</v>
-      </c>
-      <c r="D193">
-        <v>113.1</v>
-      </c>
-      <c r="E193" s="2">
-        <f t="shared" si="8"/>
-        <v>134.35897435897436</v>
-      </c>
-      <c r="F193">
-        <v>3</v>
-      </c>
-      <c r="H193">
-        <f>(O193-L193)/2</f>
-        <v>11.49</v>
-      </c>
-      <c r="I193">
-        <v>11.94</v>
-      </c>
-      <c r="J193">
-        <v>0</v>
-      </c>
-      <c r="K193">
-        <v>0</v>
-      </c>
-      <c r="L193">
-        <v>18.8</v>
-      </c>
-      <c r="M193" s="6">
-        <v>15.9</v>
-      </c>
-      <c r="O193">
-        <v>41.78</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A194">
-        <f t="shared" si="7"/>
-        <v>193</v>
-      </c>
-      <c r="B194" t="s">
-        <v>199</v>
-      </c>
-      <c r="C194" s="5">
-        <v>17346</v>
-      </c>
-      <c r="D194">
-        <v>112.1</v>
-      </c>
-      <c r="E194" s="2">
-        <f t="shared" si="8"/>
-        <v>154.73684210526318</v>
-      </c>
-      <c r="F194">
-        <v>3</v>
-      </c>
-      <c r="H194">
-        <f>(O194-L194)/2</f>
-        <v>11.49</v>
-      </c>
-      <c r="I194">
-        <v>11.94</v>
-      </c>
-      <c r="J194">
-        <v>0</v>
-      </c>
-      <c r="K194">
-        <v>0</v>
-      </c>
-      <c r="L194">
-        <v>18.8</v>
-      </c>
-      <c r="M194" s="6">
-        <v>20.8</v>
-      </c>
-      <c r="O194">
-        <v>41.78</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A195">
-        <f t="shared" si="7"/>
-        <v>194</v>
-      </c>
-      <c r="B195" t="s">
-        <v>200</v>
-      </c>
-      <c r="C195" s="5">
-        <v>27900</v>
-      </c>
-      <c r="D195">
-        <v>171</v>
-      </c>
-      <c r="E195" s="2">
-        <f t="shared" si="8"/>
-        <v>163.15789473684211</v>
-      </c>
-      <c r="F195">
-        <v>3</v>
-      </c>
-      <c r="H195">
-        <f>(O195-L195)/2</f>
-        <v>14.924999999999999</v>
-      </c>
-      <c r="I195">
-        <v>15.9</v>
-      </c>
-      <c r="J195">
-        <v>0</v>
-      </c>
-      <c r="K195">
-        <v>0</v>
-      </c>
-      <c r="L195">
-        <v>27.8</v>
-      </c>
-      <c r="M195" s="6">
-        <v>15.5</v>
-      </c>
-      <c r="O195">
-        <v>57.65</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A196">
-        <f t="shared" si="7"/>
-        <v>195</v>
-      </c>
-      <c r="B196" t="s">
-        <v>201</v>
-      </c>
-      <c r="C196" s="5">
-        <v>39700</v>
-      </c>
-      <c r="D196">
-        <v>210</v>
-      </c>
-      <c r="E196" s="2">
-        <f t="shared" si="8"/>
-        <v>189.04761904761904</v>
-      </c>
-      <c r="F196">
-        <v>3</v>
-      </c>
-      <c r="H196">
-        <f>(O196-L196)/2</f>
-        <v>16.420000000000002</v>
-      </c>
-      <c r="I196">
-        <v>17</v>
-      </c>
-      <c r="J196">
-        <v>0</v>
-      </c>
-      <c r="K196">
-        <v>0</v>
-      </c>
-      <c r="L196">
-        <v>26.5</v>
-      </c>
-      <c r="M196" s="6">
-        <v>21.5</v>
-      </c>
-      <c r="O196">
-        <v>59.34</v>
-      </c>
-    </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A197">
-        <f t="shared" si="7"/>
-        <v>196</v>
-      </c>
-      <c r="B197" t="s">
-        <v>202</v>
-      </c>
-      <c r="C197" s="5">
-        <v>61000</v>
-      </c>
-      <c r="D197">
-        <v>290</v>
-      </c>
-      <c r="E197" s="2">
-        <f t="shared" si="8"/>
-        <v>210.34482758620689</v>
-      </c>
-      <c r="F197">
-        <v>3</v>
-      </c>
-      <c r="H197">
-        <f>(O197-L197)/2</f>
-        <v>19.95</v>
-      </c>
-      <c r="I197">
-        <v>24</v>
-      </c>
-      <c r="J197">
-        <v>0</v>
-      </c>
-      <c r="K197">
-        <v>0</v>
-      </c>
-      <c r="L197">
-        <v>24.1</v>
-      </c>
-      <c r="M197" s="6">
-        <v>26.5</v>
-      </c>
-      <c r="O197">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/MatlabWorkingDirectory/CoreSizeData.xlsx
+++ b/MatlabWorkingDirectory/CoreSizeData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/806421492071dedd/Programming/MATLAB/Scripts/Theses/GPT_Fixes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/806421492071dedd/Programming/MATLAB/Projects/MyWork/SEAL/Theses/WorkingDirectory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF3F2724-23D5-4AA4-8A28-B4D901296DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="8_{CF3F2724-23D5-4AA4-8A28-B4D901296DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09A1D6D1-33B7-5145-8E75-655AF76134D4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{3CD1987F-FA11-4D3B-B1FD-40FF621CA499}"/>
+    <workbookView xWindow="49500" yWindow="660" windowWidth="18980" windowHeight="20780" activeTab="1" xr2:uid="{3CD1987F-FA11-4D3B-B1FD-40FF621CA499}"/>
   </bookViews>
   <sheets>
     <sheet name="Ecore" sheetId="1" r:id="rId1"/>
+    <sheet name="ReviewedCores" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="136">
   <si>
     <t>No.</t>
   </si>
@@ -329,84 +330,33 @@
     <t>ER64/13/51</t>
   </si>
   <si>
-    <t>E 19/8/5</t>
-  </si>
-  <si>
-    <t>E 20/10/6</t>
-  </si>
-  <si>
     <t>E 21/9/5</t>
   </si>
   <si>
-    <t>E 25/13/7</t>
-  </si>
-  <si>
     <t>E 25.4/10/7</t>
   </si>
   <si>
-    <t>E 30/15/7</t>
-  </si>
-  <si>
-    <t>E 32/16/9</t>
-  </si>
-  <si>
     <t>E 32/16/11</t>
   </si>
   <si>
-    <t>E 34/14/9</t>
-  </si>
-  <si>
     <t>E 36/18/11</t>
   </si>
   <si>
     <t>E 40/16/12</t>
   </si>
   <si>
-    <t>E 42/21/15</t>
-  </si>
-  <si>
-    <t>E 42/21/20</t>
-  </si>
-  <si>
-    <t>E 47/20/16</t>
-  </si>
-  <si>
-    <t>E 55/28/21</t>
-  </si>
-  <si>
-    <t>E 55/28/25</t>
-  </si>
-  <si>
-    <t>E 56/24/19</t>
-  </si>
-  <si>
-    <t>E 65/32/27</t>
-  </si>
-  <si>
     <t>E 70/33/32</t>
   </si>
   <si>
-    <t>E 80/38/20</t>
-  </si>
-  <si>
-    <t>ER 28/17/11</t>
-  </si>
-  <si>
     <t>ER 35/20/11</t>
   </si>
   <si>
-    <t>ER 42/22/15</t>
-  </si>
-  <si>
     <t>ER 46/17/18</t>
   </si>
   <si>
     <t>ER 49/27/17</t>
   </si>
   <si>
-    <t>ER 54/18/18</t>
-  </si>
-  <si>
     <t>E 40/17/11</t>
   </si>
   <si>
@@ -419,18 +369,9 @@
     <t>E 43/21/20</t>
   </si>
   <si>
-    <t>E 42/33/20</t>
-  </si>
-  <si>
-    <t>E 41/17/12</t>
-  </si>
-  <si>
     <t>E 56/28/21</t>
   </si>
   <si>
-    <t>E 56/28/25</t>
-  </si>
-  <si>
     <t>E 60/22/16</t>
   </si>
   <si>
@@ -443,24 +384,6 @@
     <t>E 100/59/27</t>
   </si>
   <si>
-    <t>E 38</t>
-  </si>
-  <si>
-    <t>E 43/8/28</t>
-  </si>
-  <si>
-    <t>E 43</t>
-  </si>
-  <si>
-    <t>E 58</t>
-  </si>
-  <si>
-    <t>E 64</t>
-  </si>
-  <si>
-    <t>E 102</t>
-  </si>
-  <si>
     <t>ER 9/5</t>
   </si>
   <si>
@@ -492,13 +415,43 @@
   </si>
   <si>
     <t>ER 32/6/25</t>
+  </si>
+  <si>
+    <t>EE 140/86/35-LP10</t>
+  </si>
+  <si>
+    <t>E120/71/40</t>
+  </si>
+  <si>
+    <t>E130/64/40</t>
+  </si>
+  <si>
+    <t>E140/68/40</t>
+  </si>
+  <si>
+    <t>E160/80/40</t>
+  </si>
+  <si>
+    <t>E 43/10/28</t>
+  </si>
+  <si>
+    <t>E 38/8/25</t>
+  </si>
+  <si>
+    <t>E 58/11/38</t>
+  </si>
+  <si>
+    <t>E 64/10/50</t>
+  </si>
+  <si>
+    <t>E 102/20/38</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -536,7 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -546,7 +499,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -563,6 +515,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -882,27 +838,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978730B7-EAA2-46C1-9C1E-8E1268D8BF16}">
-  <dimension ref="A1:O146"/>
+  <dimension ref="A1:O126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:XFD126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -943,7 +899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -981,7 +937,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1019,7 +975,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1057,7 +1013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1095,7 +1051,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1133,7 +1089,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1171,7 +1127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1209,7 +1165,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1247,7 +1203,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1285,7 +1241,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1323,7 +1279,7 @@
         <v>11.38</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1361,7 +1317,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1399,7 +1355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1437,7 +1393,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1475,7 +1431,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1513,7 +1469,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1551,7 +1507,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1589,7 +1545,7 @@
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1627,7 +1583,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1665,7 +1621,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1703,7 +1659,7 @@
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1741,7 +1697,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1781,7 +1737,7 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1821,7 +1777,7 @@
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1861,7 +1817,7 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1901,7 +1857,7 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1941,7 +1897,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1981,7 +1937,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2021,7 +1977,7 @@
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2061,7 +2017,7 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2101,7 +2057,7 @@
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2141,7 +2097,7 @@
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2181,7 +2137,7 @@
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2221,7 +2177,7 @@
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2261,7 +2217,7 @@
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2301,7 +2257,7 @@
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2341,7 +2297,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2381,7 +2337,7 @@
       <c r="N38" s="1"/>
       <c r="O38" s="1"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2421,7 +2377,7 @@
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2461,7 +2417,7 @@
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2501,7 +2457,7 @@
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2541,7 +2497,7 @@
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2581,7 +2537,7 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2621,7 +2577,7 @@
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2661,7 +2617,7 @@
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2701,7 +2657,7 @@
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2741,7 +2697,7 @@
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2781,7 +2737,7 @@
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2821,7 +2777,7 @@
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2861,7 +2817,7 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2901,7 +2857,7 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2941,7 +2897,7 @@
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2981,7 +2937,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3021,7 +2977,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3061,7 +3017,7 @@
       <c r="N55" s="1"/>
       <c r="O55" s="1"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3101,7 +3057,7 @@
       <c r="N56" s="1"/>
       <c r="O56" s="1"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3141,7 +3097,7 @@
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3181,7 +3137,7 @@
       <c r="N58" s="1"/>
       <c r="O58" s="1"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3221,7 +3177,7 @@
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3261,7 +3217,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3301,7 +3257,7 @@
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3315,7 +3271,7 @@
         <v>33.1</v>
       </c>
       <c r="E62" s="3">
-        <f>C62/D62</f>
+        <f t="shared" ref="E62:E68" si="0">C62/D62</f>
         <v>43.80664652567976</v>
       </c>
       <c r="F62">
@@ -3332,7 +3288,7 @@
         <v>3.0250000000000004</v>
       </c>
       <c r="K62">
-        <f t="shared" ref="K62:K112" si="0">I62</f>
+        <f t="shared" ref="K62:K88" si="1">I62</f>
         <v>5.75</v>
       </c>
       <c r="L62">
@@ -3343,7 +3299,7 @@
         <v>15.95</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3357,7 +3313,7 @@
         <v>40.299999999999997</v>
       </c>
       <c r="E63" s="3">
-        <f>C63/D63</f>
+        <f t="shared" si="0"/>
         <v>51.364764267990076</v>
       </c>
       <c r="F63">
@@ -3377,14 +3333,14 @@
         <v>6.35</v>
       </c>
       <c r="L63">
-        <f t="shared" ref="L63:L111" si="1">(M63-H63)/2</f>
+        <f t="shared" ref="L63:L88" si="2">(M63-H63)/2</f>
         <v>6.1450000000000005</v>
       </c>
       <c r="M63">
         <v>18.64</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3398,7 +3354,7 @@
         <v>83.7</v>
       </c>
       <c r="E64" s="3">
-        <f>C64/D64</f>
+        <f t="shared" si="0"/>
         <v>49.223416965352449</v>
       </c>
       <c r="F64">
@@ -3415,18 +3371,18 @@
         <v>4.6999999999999993</v>
       </c>
       <c r="K64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.75</v>
       </c>
       <c r="L64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6750000000000007</v>
       </c>
       <c r="M64">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3440,7 +3396,7 @@
         <v>113</v>
       </c>
       <c r="E65" s="3">
-        <f>C65/D65</f>
+        <f t="shared" si="0"/>
         <v>59.469026548672566</v>
       </c>
       <c r="F65">
@@ -3457,18 +3413,18 @@
         <v>5.1999999999999993</v>
       </c>
       <c r="K65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.65</v>
       </c>
       <c r="L65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6000000000000005</v>
       </c>
       <c r="M65">
         <v>19.850000000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3482,7 +3438,7 @@
         <v>119</v>
       </c>
       <c r="E66" s="3">
-        <f>C66/D66</f>
+        <f t="shared" si="0"/>
         <v>66.470588235294116</v>
       </c>
       <c r="F66">
@@ -3499,18 +3455,18 @@
         <v>4.6999999999999993</v>
       </c>
       <c r="K66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.7</v>
       </c>
       <c r="L66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.9500000000000011</v>
       </c>
       <c r="M66">
         <v>23.6</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3524,7 +3480,7 @@
         <v>89.3</v>
       </c>
       <c r="E67" s="3">
-        <f>C67/D67</f>
+        <f t="shared" si="0"/>
         <v>70.212765957446805</v>
       </c>
       <c r="F67">
@@ -3541,18 +3497,18 @@
         <v>4.9849999999999994</v>
       </c>
       <c r="K67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
       <c r="L67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.7649999999999997</v>
       </c>
       <c r="M67">
         <v>24.93</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3566,7 +3522,7 @@
         <v>143</v>
       </c>
       <c r="E68" s="4">
-        <f>C68/D68</f>
+        <f t="shared" si="0"/>
         <v>77.622377622377627</v>
       </c>
       <c r="F68">
@@ -3583,11 +3539,11 @@
         <v>5.6000000000000014</v>
       </c>
       <c r="K68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.85</v>
       </c>
       <c r="L68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5749999999999993</v>
       </c>
       <c r="M68" s="1">
@@ -3596,7 +3552,7 @@
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3610,7 +3566,7 @@
         <v>14.5</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" ref="E69:E111" si="2">C69/D69</f>
+        <f t="shared" ref="E69:E88" si="3">C69/D69</f>
         <v>20.689655172413794</v>
       </c>
       <c r="F69">
@@ -3627,11 +3583,11 @@
         <v>1.5</v>
       </c>
       <c r="K69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="M69">
@@ -3639,7 +3595,7 @@
       </c>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3653,7 +3609,7 @@
         <v>39.5</v>
       </c>
       <c r="E70" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.303797468354432</v>
       </c>
       <c r="F70">
@@ -3670,18 +3626,18 @@
         <v>2</v>
       </c>
       <c r="K70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="L70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M70">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3695,7 +3651,7 @@
         <v>78.5</v>
       </c>
       <c r="E71" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>32.484076433121018</v>
       </c>
       <c r="F71">
@@ -3712,18 +3668,18 @@
         <v>2.5</v>
       </c>
       <c r="K71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.8</v>
       </c>
       <c r="L71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9</v>
       </c>
       <c r="M71">
         <v>16.8</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3737,7 +3693,7 @@
         <v>129</v>
       </c>
       <c r="E72" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41.70542635658915</v>
       </c>
       <c r="F72">
@@ -3754,18 +3710,18 @@
         <v>3.4250000000000007</v>
       </c>
       <c r="K72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20.32</v>
       </c>
       <c r="L72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.2749999999999986</v>
       </c>
       <c r="M72">
         <v>24.9</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3779,7 +3735,7 @@
         <v>194</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52.577319587628864</v>
       </c>
       <c r="F73">
@@ -3796,18 +3752,18 @@
         <v>3.9350000000000005</v>
       </c>
       <c r="K73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25.4</v>
       </c>
       <c r="L73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.315000000000001</v>
       </c>
       <c r="M73">
         <v>30.23</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3821,7 +3777,7 @@
         <v>225</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>61.777777777777779</v>
       </c>
       <c r="F74">
@@ -3838,18 +3794,18 @@
         <v>4.25</v>
       </c>
       <c r="K74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27.9</v>
       </c>
       <c r="L74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.3</v>
       </c>
       <c r="M74">
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3863,7 +3819,7 @@
         <v>305</v>
       </c>
       <c r="E75" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80.655737704918039</v>
       </c>
       <c r="F75">
@@ -3880,18 +3836,18 @@
         <v>4.1999999999999993</v>
       </c>
       <c r="K75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38.1</v>
       </c>
       <c r="L75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20.95</v>
       </c>
       <c r="M75">
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3905,7 +3861,7 @@
         <v>511</v>
       </c>
       <c r="E76" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>79.647749510763205</v>
       </c>
       <c r="F76">
@@ -3922,18 +3878,18 @@
         <v>5.1000000000000014</v>
       </c>
       <c r="K76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50.8</v>
       </c>
       <c r="L76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.799999999999997</v>
       </c>
       <c r="M76">
         <v>53.8</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77">
         <f>A76+1</f>
         <v>76</v>
@@ -3948,7 +3904,7 @@
         <v>8.4700000000000006</v>
       </c>
       <c r="E77" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.167650531286894</v>
       </c>
       <c r="F77">
@@ -3965,20 +3921,20 @@
         <v>1</v>
       </c>
       <c r="K77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="L77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="M77">
         <v>7.5</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78">
-        <f t="shared" ref="A78:A138" si="3">A77+1</f>
+        <f t="shared" ref="A78:A121" si="4">A77+1</f>
         <v>77</v>
       </c>
       <c r="B78" t="s">
@@ -3991,7 +3947,7 @@
         <v>11.9</v>
       </c>
       <c r="E78" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.621848739495798</v>
       </c>
       <c r="F78">
@@ -4008,20 +3964,20 @@
         <v>1.1500000000000004</v>
       </c>
       <c r="K78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="L78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2249999999999996</v>
       </c>
       <c r="M78">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="B79" t="s">
@@ -4034,7 +3990,7 @@
         <v>17.600000000000001</v>
       </c>
       <c r="E79" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.920454545454543</v>
       </c>
       <c r="F79">
@@ -4051,20 +4007,20 @@
         <v>1.3499999999999996</v>
       </c>
       <c r="K79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8</v>
       </c>
       <c r="L79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5000000000000004</v>
       </c>
       <c r="M79">
         <v>11.8</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="B80" t="s">
@@ -4077,7 +4033,7 @@
         <v>30.2</v>
       </c>
       <c r="E80" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.086092715231789</v>
       </c>
       <c r="F80">
@@ -4094,20 +4050,20 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="K80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.6999999999999993</v>
       </c>
       <c r="L80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6999999999999993</v>
       </c>
       <c r="M80">
         <v>15.6</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="B81" t="s">
@@ -4120,7 +4076,7 @@
         <v>50.2</v>
       </c>
       <c r="E81" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.693227091633464</v>
       </c>
       <c r="F81">
@@ -4137,20 +4093,20 @@
         <v>-2</v>
       </c>
       <c r="K81">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="L81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.1</v>
       </c>
       <c r="M81">
         <v>20.2</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="B82" t="s">
@@ -4163,7 +4119,7 @@
         <v>141</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38.297872340425535</v>
       </c>
       <c r="F82">
@@ -4180,20 +4136,20 @@
         <v>2.4500000000000011</v>
       </c>
       <c r="K82">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25.4</v>
       </c>
       <c r="L82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.3999999999999995</v>
       </c>
       <c r="M82">
         <v>27.2</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="B83" t="s">
@@ -4206,7 +4162,7 @@
         <v>225</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>57.333333333333336</v>
       </c>
       <c r="F83">
@@ -4223,20 +4179,20 @@
         <v>3.3000000000000007</v>
       </c>
       <c r="K83">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="L83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.02</v>
       </c>
       <c r="M83">
         <v>34.04</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="B84" t="s">
@@ -4249,7 +4205,7 @@
         <v>351</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>73.504273504273499</v>
       </c>
       <c r="F84">
@@ -4266,20 +4222,20 @@
         <v>4.6000000000000014</v>
       </c>
       <c r="K84">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>38.1</v>
       </c>
       <c r="L84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.899999999999999</v>
       </c>
       <c r="M84">
         <v>41.8</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="B85" t="s">
@@ -4292,7 +4248,7 @@
         <v>566</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92.932862190812727</v>
       </c>
       <c r="F85">
@@ -4309,492 +4265,486 @@
         <v>5.25</v>
       </c>
       <c r="K85">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>50.8</v>
       </c>
       <c r="L85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.05</v>
       </c>
       <c r="M85">
         <v>53.5</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>97</v>
       </c>
       <c r="C86">
-        <v>891</v>
+        <v>937</v>
       </c>
       <c r="D86">
-        <v>22.5</v>
+        <v>21.6</v>
       </c>
       <c r="E86" s="4">
+        <f t="shared" si="3"/>
+        <v>43.379629629629626</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>5</v>
+      </c>
+      <c r="I86">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J86">
+        <f>(21.1-M86)/2</f>
+        <v>2.5500000000000007</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="1"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L86">
         <f t="shared" si="2"/>
-        <v>39.6</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>4.8</v>
-      </c>
-      <c r="I86">
-        <v>8</v>
-      </c>
-      <c r="J86">
-        <f>(19-M86)/2</f>
-        <v>2.3499999999999996</v>
-      </c>
-      <c r="K86">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="L86">
-        <f t="shared" si="1"/>
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M86">
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>98</v>
       </c>
       <c r="C87">
-        <v>1490</v>
+        <v>1910</v>
       </c>
       <c r="D87">
-        <v>32.1</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="E87" s="4">
+        <f t="shared" si="3"/>
+        <v>49.226804123711347</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>6.5</v>
+      </c>
+      <c r="I87">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="J87">
+        <f>(25.4-M87)/2</f>
+        <v>3.2999999999999989</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="1"/>
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="L87">
         <f t="shared" si="2"/>
-        <v>46.417445482866043</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="H87">
-        <v>5.9</v>
-      </c>
-      <c r="I87">
-        <v>10.1</v>
-      </c>
-      <c r="J87">
-        <f>(20.4-M87)/2</f>
-        <v>3.1499999999999995</v>
-      </c>
-      <c r="K87">
-        <f t="shared" si="0"/>
-        <v>10.1</v>
-      </c>
-      <c r="L87">
-        <f t="shared" si="1"/>
-        <v>4.0999999999999996</v>
+        <v>6.15</v>
       </c>
       <c r="M87">
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>99</v>
       </c>
       <c r="C88">
-        <v>937</v>
+        <v>7187</v>
       </c>
       <c r="D88">
-        <v>21.6</v>
+        <v>96</v>
       </c>
       <c r="E88" s="4">
+        <f t="shared" si="3"/>
+        <v>74.864583333333329</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>9.5</v>
+      </c>
+      <c r="I88">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="J88">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="1"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="L88">
         <f t="shared" si="2"/>
-        <v>43.379629629629626</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>5</v>
-      </c>
-      <c r="I88">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="J88">
-        <f>(21.1-M88)/2</f>
-        <v>2.5500000000000007</v>
-      </c>
-      <c r="K88">
-        <f t="shared" si="0"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L88">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="M88">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>100</v>
       </c>
       <c r="C89">
-        <v>3020</v>
+        <v>9720</v>
       </c>
       <c r="D89">
-        <v>52.5</v>
+        <v>120</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" si="2"/>
-        <v>57.523809523809526</v>
+        <f t="shared" ref="E89:E94" si="5">C89/D89</f>
+        <v>81</v>
       </c>
       <c r="F89">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>7.5</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I89">
-        <v>12.8</v>
+        <v>18</v>
       </c>
       <c r="J89">
-        <f>(25-M89)/2</f>
-        <v>3.75</v>
+        <f>(36-M89)/2</f>
+        <v>5.75</v>
       </c>
       <c r="K89">
-        <f t="shared" si="0"/>
-        <v>12.8</v>
+        <f t="shared" ref="K89:K120" si="6">I89</f>
+        <v>18</v>
       </c>
       <c r="L89">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" ref="L89:L94" si="7">(M89-H89)/2</f>
+        <v>7.15</v>
       </c>
       <c r="M89">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>101</v>
       </c>
       <c r="C90">
-        <v>1910</v>
+        <v>11500</v>
       </c>
       <c r="D90">
-        <v>38.799999999999997</v>
+        <v>149</v>
       </c>
       <c r="E90" s="4">
-        <f t="shared" si="2"/>
-        <v>49.226804123711347</v>
+        <f t="shared" si="5"/>
+        <v>77.181208053691279</v>
       </c>
       <c r="F90">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
       <c r="I90">
-        <v>9.7799999999999994</v>
+        <v>16.5</v>
       </c>
       <c r="J90">
-        <f>(25.4-M90)/2</f>
-        <v>3.2999999999999989</v>
+        <f>(40.6-M90)/2</f>
+        <v>6</v>
       </c>
       <c r="K90">
-        <f t="shared" si="0"/>
-        <v>9.7799999999999994</v>
+        <f t="shared" si="6"/>
+        <v>16.5</v>
       </c>
       <c r="L90">
-        <f t="shared" si="1"/>
-        <v>6.15</v>
+        <f t="shared" si="7"/>
+        <v>8.0500000000000007</v>
       </c>
       <c r="M90">
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>102</v>
       </c>
       <c r="C91">
-        <v>4000</v>
+        <v>102000</v>
       </c>
       <c r="D91">
-        <v>60</v>
+        <v>683</v>
       </c>
       <c r="E91" s="4">
-        <f t="shared" si="2"/>
-        <v>66.666666666666671</v>
+        <f t="shared" si="5"/>
+        <v>149.34114202049781</v>
       </c>
       <c r="F91">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>7.2</v>
+        <v>22</v>
       </c>
       <c r="I91">
-        <v>15.2</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="J91">
-        <f>(30-M91)/2</f>
-        <v>5.25</v>
+        <f>(70.5-M91)/2</f>
+        <v>11.25</v>
       </c>
       <c r="K91">
-        <f t="shared" si="0"/>
-        <v>15.2</v>
+        <f t="shared" si="6"/>
+        <v>33.200000000000003</v>
       </c>
       <c r="L91">
-        <f t="shared" si="1"/>
-        <v>6.15</v>
+        <f t="shared" si="7"/>
+        <v>13</v>
       </c>
       <c r="M91">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>103</v>
       </c>
       <c r="C92">
-        <v>6140</v>
+        <v>9950</v>
       </c>
       <c r="D92">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="E92" s="4">
-        <f t="shared" si="2"/>
-        <v>73.975903614457835</v>
+        <f t="shared" si="5"/>
+        <v>89.63963963963964</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H92">
-        <v>9.5</v>
+        <v>11.3</v>
       </c>
       <c r="I92">
-        <v>16.399999999999999</v>
+        <v>11.3</v>
       </c>
       <c r="J92">
-        <f>(32-M92)/2</f>
-        <v>4.6500000000000004</v>
+        <f>(35-M92)/2</f>
+        <v>4.6999999999999993</v>
       </c>
       <c r="K92">
-        <f t="shared" si="0"/>
-        <v>16.399999999999999</v>
+        <f t="shared" si="6"/>
+        <v>11.3</v>
       </c>
       <c r="L92">
-        <f t="shared" si="1"/>
-        <v>6.6</v>
+        <f t="shared" si="7"/>
+        <v>7.15</v>
       </c>
       <c r="M92">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>104</v>
       </c>
       <c r="C93">
-        <v>7187</v>
+        <v>18400</v>
       </c>
       <c r="D93">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="E93" s="4">
-        <f t="shared" si="2"/>
-        <v>74.864583333333329</v>
+        <f t="shared" si="5"/>
+        <v>78.969957081545061</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H93">
-        <v>9.5</v>
+        <v>18</v>
       </c>
       <c r="I93">
-        <v>16.399999999999999</v>
+        <v>18</v>
       </c>
       <c r="J93">
-        <v>4.6500000000000004</v>
+        <f>(46-M93)/2</f>
+        <v>6.5</v>
       </c>
       <c r="K93">
-        <f t="shared" si="0"/>
-        <v>16.399999999999999</v>
+        <f t="shared" si="6"/>
+        <v>18</v>
       </c>
       <c r="L93">
-        <f t="shared" si="1"/>
-        <v>6.6</v>
+        <f t="shared" si="7"/>
+        <v>7.5</v>
       </c>
       <c r="M93">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>105</v>
       </c>
       <c r="C94">
-        <v>5900</v>
+        <v>28700</v>
       </c>
       <c r="D94">
-        <v>84.8</v>
+        <v>243</v>
       </c>
       <c r="E94" s="4">
-        <f t="shared" si="2"/>
-        <v>69.575471698113205</v>
+        <f t="shared" si="5"/>
+        <v>118.10699588477367</v>
       </c>
       <c r="F94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94">
-        <v>9.65</v>
+        <v>17.2</v>
       </c>
       <c r="I94">
-        <v>14.65</v>
+        <v>17.2</v>
       </c>
       <c r="J94">
-        <f>(34.6-M94)/2</f>
-        <v>4.75</v>
+        <f>(49-M94)/2</f>
+        <v>5.8500000000000014</v>
       </c>
       <c r="K94">
-        <f t="shared" si="0"/>
-        <v>14.65</v>
+        <f t="shared" si="6"/>
+        <v>17.2</v>
       </c>
       <c r="L94">
-        <f t="shared" si="1"/>
-        <v>7.7250000000000005</v>
+        <f t="shared" si="7"/>
+        <v>10.049999999999999</v>
       </c>
       <c r="M94">
-        <v>25.1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>106</v>
       </c>
       <c r="C95">
-        <v>9720</v>
+        <v>9780</v>
       </c>
       <c r="D95">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E95" s="4">
-        <f t="shared" si="2"/>
-        <v>81</v>
+        <v>76.7</v>
       </c>
       <c r="F95">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>10.199999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="I95">
-        <v>18</v>
+        <v>10.69</v>
       </c>
       <c r="J95">
-        <f>(36-M95)/2</f>
-        <v>5.75</v>
+        <v>5.99</v>
       </c>
       <c r="K95">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>10.69</v>
       </c>
       <c r="L95">
-        <f t="shared" si="1"/>
-        <v>7.15</v>
+        <v>8.86</v>
       </c>
       <c r="M95">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>107</v>
       </c>
       <c r="C96">
-        <v>11500</v>
+        <v>10500</v>
       </c>
       <c r="D96">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="2"/>
-        <v>77.181208053691279</v>
+        <v>98.4</v>
       </c>
       <c r="F96">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>12.5</v>
+        <v>11.95</v>
       </c>
       <c r="I96">
-        <v>16.5</v>
+        <v>9</v>
       </c>
       <c r="J96">
-        <f>(40.6-M96)/2</f>
-        <v>6</v>
+        <v>5.94</v>
       </c>
       <c r="K96">
-        <f t="shared" si="0"/>
-        <v>16.5</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="L96">
-        <f t="shared" si="1"/>
-        <v>8.0500000000000007</v>
+        <v>8.9</v>
       </c>
       <c r="M96">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>96</v>
       </c>
       <c r="B97" t="s">
@@ -4807,8 +4757,7 @@
         <v>178</v>
       </c>
       <c r="E97" s="4">
-        <f t="shared" si="2"/>
-        <v>97.19101123595506</v>
+        <v>97</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -4817,27 +4766,25 @@
         <v>12.2</v>
       </c>
       <c r="I97">
-        <v>21.2</v>
+        <v>15.2</v>
       </c>
       <c r="J97">
-        <f>(42-M97)/2</f>
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="K97">
-        <f t="shared" si="0"/>
-        <v>21.2</v>
+        <f t="shared" si="6"/>
+        <v>15.2</v>
       </c>
       <c r="L97">
-        <f t="shared" si="1"/>
         <v>8.65</v>
       </c>
       <c r="M97">
         <v>29.5</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>97</v>
       </c>
       <c r="B98" t="s">
@@ -4847,11 +4794,10 @@
         <v>22700</v>
       </c>
       <c r="D98">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E98" s="4">
-        <f t="shared" si="2"/>
-        <v>97.008547008547012</v>
+        <v>97</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -4860,2003 +4806,1874 @@
         <v>12.2</v>
       </c>
       <c r="I98">
-        <v>21.2</v>
+        <v>20</v>
       </c>
       <c r="J98">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="K98">
-        <f t="shared" si="0"/>
-        <v>21.2</v>
+        <f t="shared" si="6"/>
+        <v>20</v>
       </c>
       <c r="L98">
-        <f t="shared" si="1"/>
         <v>8.65</v>
       </c>
       <c r="M98">
         <v>29.5</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>110</v>
       </c>
       <c r="C99">
-        <v>20700</v>
+        <v>44000</v>
       </c>
       <c r="D99">
-        <v>233</v>
+        <v>353</v>
       </c>
       <c r="E99" s="4">
-        <f t="shared" si="2"/>
-        <v>88.841201716738198</v>
+        <v>124</v>
       </c>
       <c r="F99">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>15.6</v>
+        <v>17.2</v>
       </c>
       <c r="I99">
-        <v>19.600000000000001</v>
+        <v>21</v>
       </c>
       <c r="J99">
-        <f>(46.9-M99)/2</f>
-        <v>7.5499999999999989</v>
+        <v>9.35</v>
       </c>
       <c r="K99">
-        <f t="shared" si="0"/>
-        <v>19.600000000000001</v>
+        <f t="shared" si="6"/>
+        <v>21</v>
       </c>
       <c r="L99">
-        <f t="shared" si="1"/>
-        <v>8.1000000000000014</v>
+        <v>10.15</v>
       </c>
       <c r="M99">
-        <v>31.8</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>111</v>
       </c>
       <c r="C100">
-        <v>43900</v>
+        <v>27200</v>
       </c>
       <c r="D100">
-        <v>354</v>
+        <v>248</v>
       </c>
       <c r="E100" s="4">
-        <f t="shared" si="2"/>
-        <v>124.01129943502825</v>
+        <v>110</v>
       </c>
       <c r="F100">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>17.2</v>
+        <v>15.62</v>
       </c>
       <c r="I100">
-        <v>27.8</v>
+        <v>15.62</v>
       </c>
       <c r="J100">
-        <f>(55-M100)/2</f>
-        <v>8.75</v>
+        <v>7.7</v>
       </c>
       <c r="K100">
-        <f t="shared" si="0"/>
-        <v>27.8</v>
+        <f t="shared" si="6"/>
+        <v>15.62</v>
       </c>
       <c r="L100">
-        <f t="shared" si="1"/>
-        <v>10.15</v>
+        <v>14.49</v>
       </c>
       <c r="M100">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>112</v>
       </c>
       <c r="C101">
-        <v>52100</v>
+        <v>55900</v>
       </c>
       <c r="D101">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="E101" s="4">
-        <f t="shared" si="2"/>
-        <v>124.04761904761905</v>
+        <v>139</v>
       </c>
       <c r="F101">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>17.2</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="I101">
-        <v>27.8</v>
+        <v>22.3</v>
       </c>
       <c r="J101">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="K101">
-        <f t="shared" si="0"/>
-        <v>27.8</v>
+        <f t="shared" si="6"/>
+        <v>22.3</v>
       </c>
       <c r="L101">
-        <f t="shared" si="1"/>
-        <v>10.15</v>
+        <v>12.1</v>
       </c>
       <c r="M101">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>113</v>
       </c>
       <c r="C102">
-        <v>36400</v>
+        <v>50300</v>
       </c>
       <c r="D102">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="E102" s="4">
-        <f t="shared" si="2"/>
-        <v>107.05882352941177</v>
+        <v>137</v>
       </c>
       <c r="F102">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="I102">
-        <v>23.6</v>
+        <v>19</v>
       </c>
       <c r="J102">
-        <f>(56.1-M102)/2</f>
-        <v>9</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="K102">
-        <f t="shared" si="0"/>
-        <v>23.6</v>
+        <f t="shared" si="6"/>
+        <v>19</v>
       </c>
       <c r="L102">
-        <f t="shared" si="1"/>
-        <v>9.65</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="M102">
-        <v>38.1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>114</v>
       </c>
       <c r="C103">
-        <v>78650</v>
+        <v>202000</v>
       </c>
       <c r="D103">
-        <v>535</v>
-      </c>
-      <c r="E103" s="4">
-        <f t="shared" si="2"/>
-        <v>147.00934579439252</v>
+        <v>738</v>
+      </c>
+      <c r="E103">
+        <v>274</v>
       </c>
       <c r="F103">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>20</v>
+        <v>27.5</v>
       </c>
       <c r="I103">
-        <v>32.799999999999997</v>
+        <v>27.5</v>
       </c>
       <c r="J103">
-        <f>(65-M103)/2</f>
-        <v>10.399999999999999</v>
+        <v>13.75</v>
       </c>
       <c r="K103">
-        <f t="shared" si="0"/>
-        <v>32.799999999999997</v>
+        <f t="shared" si="6"/>
+        <v>27.5</v>
       </c>
       <c r="L103">
-        <f t="shared" si="1"/>
-        <v>12.100000000000001</v>
+        <v>22.65</v>
       </c>
       <c r="M103">
-        <v>44.2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>132</v>
+      </c>
+      <c r="C104">
+        <v>10200</v>
+      </c>
+      <c r="D104">
+        <v>194</v>
+      </c>
+      <c r="E104">
+        <v>52.4</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>7.6</v>
+      </c>
+      <c r="I104">
+        <v>25.4</v>
+      </c>
+      <c r="J104">
+        <v>3.9</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="6"/>
+        <v>25.4</v>
+      </c>
+      <c r="L104">
+        <v>11.43</v>
+      </c>
+      <c r="M104">
+        <v>30.23</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>131</v>
+      </c>
+      <c r="C105">
+        <v>13900</v>
+      </c>
+      <c r="D105">
+        <v>229</v>
+      </c>
+      <c r="E105">
+        <v>61.1</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>8.1</v>
+      </c>
+      <c r="I105">
+        <v>27.9</v>
+      </c>
+      <c r="J105">
+        <v>4.25</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="6"/>
+        <v>27.9</v>
+      </c>
+      <c r="L105">
+        <v>13.46</v>
+      </c>
+      <c r="M105">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106">
+        <v>24600</v>
+      </c>
+      <c r="D106">
+        <v>308</v>
+      </c>
+      <c r="E106">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>8.1</v>
+      </c>
+      <c r="I106">
+        <v>38.1</v>
+      </c>
+      <c r="J106">
+        <v>4.2</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="6"/>
+        <v>38.1</v>
+      </c>
+      <c r="L106">
+        <v>21.4</v>
+      </c>
+      <c r="M106">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>134</v>
+      </c>
+      <c r="C107">
+        <v>40700</v>
+      </c>
+      <c r="D107">
+        <v>519</v>
+      </c>
+      <c r="E107">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I107">
+        <v>50.8</v>
+      </c>
+      <c r="J107">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="6"/>
+        <v>50.8</v>
+      </c>
+      <c r="L107">
+        <v>21.8</v>
+      </c>
+      <c r="M107">
+        <v>53.16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>135</v>
+      </c>
+      <c r="C108">
+        <v>79410</v>
+      </c>
+      <c r="D108">
+        <v>538</v>
+      </c>
+      <c r="E108">
+        <v>147.6</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>14</v>
+      </c>
+      <c r="I108">
+        <v>37.5</v>
+      </c>
+      <c r="J108">
+        <v>8</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="6"/>
+        <v>37.5</v>
+      </c>
+      <c r="L108">
+        <v>36</v>
+      </c>
+      <c r="M108">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
         <v>115</v>
       </c>
-      <c r="C104">
-        <v>102000</v>
-      </c>
-      <c r="D104">
-        <v>683</v>
-      </c>
-      <c r="E104" s="4">
-        <f t="shared" si="2"/>
-        <v>149.34114202049781</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-      <c r="H104">
-        <v>22</v>
-      </c>
-      <c r="I104">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="J104">
-        <f>(70.5-M104)/2</f>
-        <v>11.25</v>
-      </c>
-      <c r="K104">
-        <f t="shared" si="0"/>
-        <v>33.200000000000003</v>
-      </c>
-      <c r="L104">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="M104">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105">
-        <f t="shared" si="3"/>
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>116</v>
-      </c>
-      <c r="C105">
-        <v>71800</v>
-      </c>
-      <c r="D105">
-        <v>390</v>
-      </c>
-      <c r="E105" s="4">
-        <f t="shared" si="2"/>
-        <v>184.10256410256412</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="H105">
-        <v>20.2</v>
-      </c>
-      <c r="I105">
-        <v>38.5</v>
-      </c>
-      <c r="J105">
-        <f>(80-M105)/2</f>
-        <v>10.55</v>
-      </c>
-      <c r="K105">
-        <f t="shared" si="0"/>
-        <v>38.5</v>
-      </c>
-      <c r="L105">
-        <f t="shared" si="1"/>
-        <v>19.350000000000001</v>
-      </c>
-      <c r="M105">
-        <v>58.9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
-      <c r="A106">
-        <f t="shared" si="3"/>
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>117</v>
-      </c>
-      <c r="C106">
-        <v>6400</v>
-      </c>
-      <c r="D106">
-        <v>85.4</v>
-      </c>
-      <c r="E106" s="4">
-        <f t="shared" si="2"/>
-        <v>74.941451990632316</v>
-      </c>
-      <c r="F106">
-        <v>2</v>
-      </c>
-      <c r="H106">
-        <v>9.9</v>
-      </c>
-      <c r="I106">
-        <v>11.4</v>
-      </c>
-      <c r="J106">
-        <f>(28.55-M106)/2</f>
-        <v>3.4000000000000004</v>
-      </c>
-      <c r="K106">
-        <f t="shared" si="0"/>
-        <v>11.4</v>
-      </c>
-      <c r="L106">
-        <f t="shared" si="1"/>
-        <v>5.9249999999999998</v>
-      </c>
-      <c r="M106">
-        <v>21.75</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="A107">
-        <f t="shared" si="3"/>
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>118</v>
-      </c>
-      <c r="C107">
-        <v>9950</v>
-      </c>
-      <c r="D107">
-        <v>111</v>
-      </c>
-      <c r="E107" s="4">
-        <f t="shared" si="2"/>
-        <v>89.63963963963964</v>
-      </c>
-      <c r="F107">
-        <v>2</v>
-      </c>
-      <c r="H107">
-        <v>11.3</v>
-      </c>
-      <c r="I107">
-        <v>11.3</v>
-      </c>
-      <c r="J107">
-        <f>(35-M107)/2</f>
-        <v>4.6999999999999993</v>
-      </c>
-      <c r="K107">
-        <f t="shared" si="0"/>
-        <v>11.3</v>
-      </c>
-      <c r="L107">
-        <f t="shared" si="1"/>
-        <v>7.15</v>
-      </c>
-      <c r="M107">
-        <v>25.6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="A108">
-        <f t="shared" si="3"/>
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>119</v>
-      </c>
-      <c r="C108">
-        <v>16800</v>
-      </c>
-      <c r="D108">
-        <v>170</v>
-      </c>
-      <c r="E108" s="4">
-        <f t="shared" si="2"/>
-        <v>98.82352941176471</v>
-      </c>
-      <c r="F108">
-        <v>2</v>
-      </c>
-      <c r="H108">
-        <v>15</v>
-      </c>
-      <c r="I108">
-        <v>15</v>
-      </c>
-      <c r="J108">
-        <f>(42-M108)/2</f>
-        <v>5.8000000000000007</v>
-      </c>
-      <c r="K108">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="L108">
-        <f t="shared" si="1"/>
-        <v>7.6999999999999993</v>
-      </c>
-      <c r="M108">
-        <v>30.4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
-      <c r="A109">
-        <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="C109">
         <v>120</v>
       </c>
-      <c r="C109">
-        <v>18400</v>
-      </c>
       <c r="D109">
-        <v>233</v>
-      </c>
-      <c r="E109" s="4">
-        <f t="shared" si="2"/>
-        <v>78.969957081545061</v>
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="E109">
+        <v>14.2</v>
       </c>
       <c r="F109">
         <v>2</v>
       </c>
       <c r="H109">
-        <v>18</v>
+        <v>3.5</v>
       </c>
       <c r="I109">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J109">
-        <f>(46-M109)/2</f>
-        <v>6.5</v>
+        <f>(9.5-M109)/2</f>
+        <v>1</v>
       </c>
       <c r="K109">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="L109">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="L109:L120" si="8">(M109-H109)/2</f>
+        <v>2</v>
+      </c>
+      <c r="M109">
         <v>7.5</v>
       </c>
-      <c r="M109">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C110">
-        <v>28700</v>
+        <v>174</v>
       </c>
       <c r="D110">
-        <v>243</v>
-      </c>
-      <c r="E110" s="4">
-        <f t="shared" si="2"/>
-        <v>118.10699588477367</v>
+        <v>11.9</v>
+      </c>
+      <c r="E110">
+        <v>14.7</v>
       </c>
       <c r="F110">
         <v>2</v>
       </c>
       <c r="H110">
-        <v>17.2</v>
+        <v>4.25</v>
       </c>
       <c r="I110">
-        <v>17.2</v>
+        <v>6</v>
       </c>
       <c r="J110">
-        <f>(49-M110)/2</f>
-        <v>5.8500000000000014</v>
+        <f>(11-M110)/2</f>
+        <v>1.1500000000000004</v>
       </c>
       <c r="K110">
-        <f t="shared" si="0"/>
-        <v>17.2</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="L110">
-        <f t="shared" si="1"/>
-        <v>10.049999999999999</v>
+        <f t="shared" si="8"/>
+        <v>2.2249999999999996</v>
       </c>
       <c r="M110">
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C111">
-        <v>23000</v>
+        <v>348</v>
       </c>
       <c r="D111">
-        <v>256</v>
-      </c>
-      <c r="E111" s="4">
-        <f t="shared" si="2"/>
-        <v>89.84375</v>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E111">
+        <v>17.5</v>
       </c>
       <c r="F111">
         <v>2</v>
       </c>
       <c r="H111">
-        <v>18.3</v>
+        <v>5</v>
       </c>
       <c r="I111">
-        <v>18.3</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="J111">
-        <f>(53.5-M111)/2</f>
-        <v>6.8500000000000014</v>
+        <f>(12.8-M111)/2</f>
+        <v>0.80000000000000071</v>
       </c>
       <c r="K111">
-        <f t="shared" si="0"/>
-        <v>18.3</v>
+        <f t="shared" si="6"/>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L111">
-        <f t="shared" si="1"/>
-        <v>10.749999999999998</v>
+        <f t="shared" si="8"/>
+        <v>3.0999999999999996</v>
       </c>
       <c r="M111">
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>111</v>
       </c>
       <c r="B112" t="s">
+        <v>118</v>
+      </c>
+      <c r="C112">
+        <v>333</v>
+      </c>
+      <c r="D112">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E112">
+        <v>19</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="H112">
+        <v>4.8</v>
+      </c>
+      <c r="I112">
+        <v>6.8</v>
+      </c>
+      <c r="J112">
+        <f>(14.7-M112)/2</f>
+        <v>1.5499999999999998</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="6"/>
+        <v>6.8</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="8"/>
+        <v>3.4</v>
+      </c>
+      <c r="M112">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <f t="shared" si="4"/>
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113">
+        <v>667</v>
+      </c>
+      <c r="D113">
+        <v>30.2</v>
+      </c>
+      <c r="E113">
+        <v>22.1</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="H113">
+        <v>6.2</v>
+      </c>
+      <c r="I113">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J113">
+        <f>(18-M113)/2</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="6"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="8"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="M113">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>120</v>
+      </c>
+      <c r="C114">
+        <v>1960</v>
+      </c>
+      <c r="D114">
+        <v>59</v>
+      </c>
+      <c r="E114">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="H114">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I114">
+        <v>14</v>
+      </c>
+      <c r="J114">
+        <f>(20-M114)/2</f>
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="8"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M114">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115">
+        <v>1960</v>
+      </c>
+      <c r="D115">
+        <v>59</v>
+      </c>
+      <c r="E115">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="H115">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I115">
+        <v>14</v>
+      </c>
+      <c r="J115">
+        <f>(20-M115)/2</f>
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="8"/>
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M115">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116">
+        <v>1340</v>
+      </c>
+      <c r="D116">
+        <v>50.2</v>
+      </c>
+      <c r="E116">
+        <v>26.6</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="H116">
+        <v>8</v>
+      </c>
+      <c r="I116">
+        <v>12.5</v>
+      </c>
+      <c r="J116">
+        <f>(23.2-M116)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="6"/>
+        <v>12.5</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="8"/>
+        <v>6.1</v>
+      </c>
+      <c r="M116">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <f t="shared" si="4"/>
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>122</v>
+      </c>
+      <c r="C117">
+        <v>3100</v>
+      </c>
+      <c r="D117">
+        <v>91.8</v>
+      </c>
+      <c r="E117">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="H117">
+        <v>11</v>
+      </c>
+      <c r="I117">
+        <v>18</v>
+      </c>
+      <c r="J117">
+        <f>(25-M117)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="8"/>
+        <v>5.5</v>
+      </c>
+      <c r="M117">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
         <v>123</v>
       </c>
-      <c r="C112" s="5">
-        <v>9780</v>
-      </c>
-      <c r="D112">
+      <c r="C118">
+        <v>4145</v>
+      </c>
+      <c r="D118">
+        <v>100</v>
+      </c>
+      <c r="E118">
+        <v>41.4</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="H118">
+        <v>11</v>
+      </c>
+      <c r="I118">
+        <v>18</v>
+      </c>
+      <c r="J118">
+        <f>(25-M118)/2</f>
+        <v>1.5</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="8"/>
+        <v>5.5</v>
+      </c>
+      <c r="M118">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>124</v>
+      </c>
+      <c r="C119">
+        <v>4970</v>
+      </c>
+      <c r="D119">
+        <v>108</v>
+      </c>
+      <c r="E119">
+        <v>46</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="H119">
+        <v>11</v>
+      </c>
+      <c r="I119">
+        <v>20</v>
+      </c>
+      <c r="J119">
+        <f>(30-M119)/2</f>
+        <v>2</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="8"/>
+        <v>7.5</v>
+      </c>
+      <c r="M119">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>125</v>
+      </c>
+      <c r="C120">
+        <v>5400</v>
+      </c>
+      <c r="D120">
+        <v>141</v>
+      </c>
+      <c r="E120">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="H120">
+        <v>12.4</v>
+      </c>
+      <c r="I120">
+        <v>25.4</v>
+      </c>
+      <c r="J120">
+        <f>(32.1-M120)/2</f>
+        <v>2.4500000000000011</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="6"/>
+        <v>25.4</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="8"/>
+        <v>7.3999999999999995</v>
+      </c>
+      <c r="M120">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>126</v>
+      </c>
+      <c r="C121">
+        <v>491200</v>
+      </c>
+      <c r="D121">
+        <v>1225</v>
+      </c>
+      <c r="E121">
+        <v>401</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>35</v>
+      </c>
+      <c r="I121">
+        <v>35</v>
+      </c>
+      <c r="J121">
+        <v>26.75</v>
+      </c>
+      <c r="K121">
+        <v>35</v>
+      </c>
+      <c r="L121">
+        <v>35</v>
+      </c>
+      <c r="M121">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>46</v>
+      </c>
+      <c r="C122">
+        <v>201390</v>
+      </c>
+      <c r="D122">
+        <v>735</v>
+      </c>
+      <c r="E122">
+        <v>274</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>27.5</v>
+      </c>
+      <c r="I122">
+        <v>27.5</v>
+      </c>
+      <c r="J122">
+        <v>13.6</v>
+      </c>
+      <c r="K122">
+        <v>27.5</v>
+      </c>
+      <c r="L122">
+        <v>22.8</v>
+      </c>
+      <c r="M122">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123" t="s">
         <v>127</v>
       </c>
-      <c r="E112" s="4">
-        <v>76.7</v>
-      </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="H112">
-        <v>10.7</v>
-      </c>
-      <c r="I112">
-        <v>10.69</v>
-      </c>
-      <c r="J112">
-        <v>5.99</v>
-      </c>
-      <c r="K112">
-        <f t="shared" si="0"/>
-        <v>10.69</v>
-      </c>
-      <c r="L112">
-        <v>8.86</v>
-      </c>
-      <c r="M112">
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
-      <c r="A113">
-        <f t="shared" si="3"/>
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="C123">
+        <v>525690</v>
+      </c>
+      <c r="D123">
+        <v>1782</v>
+      </c>
+      <c r="E123">
+        <v>295</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>45</v>
+      </c>
+      <c r="I123">
+        <v>40</v>
+      </c>
+      <c r="J123">
+        <v>22.5</v>
+      </c>
+      <c r="K123">
+        <v>40</v>
+      </c>
+      <c r="L123">
+        <v>15</v>
+      </c>
+      <c r="M123">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A124">
         <v>124</v>
       </c>
-      <c r="C113" s="5">
-        <v>10500</v>
-      </c>
-      <c r="D113">
-        <v>107</v>
-      </c>
-      <c r="E113" s="4">
-        <v>98.4</v>
-      </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="H113">
-        <v>11.95</v>
-      </c>
-      <c r="I113">
+      <c r="B124" t="s">
+        <v>128</v>
+      </c>
+      <c r="C124">
+        <v>458200</v>
+      </c>
+      <c r="D124">
+        <v>1580</v>
+      </c>
+      <c r="E124">
+        <v>290</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>40</v>
+      </c>
+      <c r="I124">
+        <v>40</v>
+      </c>
+      <c r="J124">
+        <v>20</v>
+      </c>
+      <c r="K124">
+        <v>40</v>
+      </c>
+      <c r="L124">
+        <v>25</v>
+      </c>
+      <c r="M124">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125" t="s">
+        <v>129</v>
+      </c>
+      <c r="C125">
+        <v>500045</v>
+      </c>
+      <c r="D125">
+        <v>1585</v>
+      </c>
+      <c r="E125">
+        <v>315</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>40</v>
+      </c>
+      <c r="I125">
+        <v>40</v>
+      </c>
+      <c r="J125">
+        <v>20</v>
+      </c>
+      <c r="K125">
+        <v>40</v>
+      </c>
+      <c r="L125">
+        <v>30</v>
+      </c>
+      <c r="M125">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126">
+        <v>623930</v>
+      </c>
+      <c r="D126">
+        <v>1640</v>
+      </c>
+      <c r="E126">
+        <v>381</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>40</v>
+      </c>
+      <c r="I126">
+        <v>40</v>
+      </c>
+      <c r="J126">
+        <v>22</v>
+      </c>
+      <c r="K126">
+        <v>40</v>
+      </c>
+      <c r="L126">
+        <v>38</v>
+      </c>
+      <c r="M126">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6682347-F0B5-2F43-A7C3-FD4069F7DA6E}">
+  <dimension ref="A1:Q18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J113">
-        <v>5.94</v>
-      </c>
-      <c r="K113">
-        <f t="shared" ref="K113:K146" si="4">I113</f>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>559</v>
+      </c>
+      <c r="D2">
+        <v>20.2</v>
+      </c>
+      <c r="E2">
+        <v>27.7</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>3.2</v>
+      </c>
+      <c r="I2">
+        <v>6.4</v>
+      </c>
+      <c r="J2">
+        <v>1.6</v>
+      </c>
+      <c r="K2">
+        <v>6.4</v>
+      </c>
+      <c r="L2">
+        <v>3.15</v>
+      </c>
+      <c r="M2">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>750</v>
+      </c>
+      <c r="D3">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E3">
+        <v>37.6</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>4.7</v>
+      </c>
+      <c r="I3">
+        <v>4.7</v>
+      </c>
+      <c r="J3">
+        <v>2.35</v>
+      </c>
+      <c r="K3">
+        <v>4.7</v>
+      </c>
+      <c r="L3">
+        <v>3.3</v>
+      </c>
+      <c r="M3">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>4500</v>
+      </c>
+      <c r="D4">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="E4">
+        <v>57.4</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>7.5</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>3.75</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f t="shared" ref="A5" si="0">A4+1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5">
+        <v>9950</v>
+      </c>
+      <c r="D5">
+        <v>111</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5" si="1">C5/D5</f>
+        <v>89.63963963963964</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>11.3</v>
+      </c>
+      <c r="I5">
+        <v>11.3</v>
+      </c>
+      <c r="J5">
+        <f>(35-M5)/2</f>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5" si="2">I5</f>
+        <v>11.3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5" si="3">(M5-H5)/2</f>
+        <v>7.15</v>
+      </c>
+      <c r="M5">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>6140</v>
+      </c>
+      <c r="D6">
+        <v>83</v>
+      </c>
+      <c r="E6">
+        <v>74</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>9.5</v>
+      </c>
+      <c r="I6">
+        <v>9.5</v>
+      </c>
+      <c r="J6">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="K6">
+        <v>9.5</v>
+      </c>
+      <c r="L6">
+        <v>6.6</v>
+      </c>
+      <c r="M6">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="1">
+        <v>11500</v>
+      </c>
+      <c r="D7" s="1">
+        <v>125</v>
+      </c>
+      <c r="E7" s="1">
+        <v>92</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="K7" s="1">
+        <v>13</v>
+      </c>
+      <c r="L7" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="M7" s="1">
+        <v>28.4</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" ref="A8" si="4">A7+1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8">
+        <v>17300</v>
+      </c>
+      <c r="D8">
+        <v>178</v>
+      </c>
+      <c r="E8" s="4">
+        <v>97</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>12.2</v>
+      </c>
+      <c r="I8">
+        <v>15.2</v>
+      </c>
+      <c r="J8">
+        <v>6.75</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8" si="5">I8</f>
+        <v>15.2</v>
+      </c>
+      <c r="L8">
+        <v>8.65</v>
+      </c>
+      <c r="M8">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1">
+        <v>34200</v>
+      </c>
+      <c r="D9" s="1">
+        <v>236</v>
+      </c>
+      <c r="E9" s="1">
+        <v>144.91999999999999</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="I9" s="1">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="K9" s="1">
+        <v>20</v>
+      </c>
+      <c r="L9" s="1">
+        <v>8.65</v>
+      </c>
+      <c r="M9" s="1">
+        <v>52</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="L113">
-        <v>8.9</v>
-      </c>
-      <c r="M113">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
-      <c r="A114">
-        <f t="shared" si="3"/>
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>125</v>
-      </c>
-      <c r="C114" s="5">
-        <v>17300</v>
-      </c>
-      <c r="D114">
-        <v>178</v>
-      </c>
-      <c r="E114" s="4">
-        <v>97</v>
-      </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="H114">
-        <v>12.2</v>
-      </c>
-      <c r="I114">
-        <v>15.2</v>
-      </c>
-      <c r="J114">
-        <v>6.75</v>
-      </c>
-      <c r="K114">
-        <f t="shared" si="4"/>
-        <v>15.2</v>
-      </c>
-      <c r="L114">
-        <v>8.65</v>
-      </c>
-      <c r="M114">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
-      <c r="A115">
-        <f t="shared" si="3"/>
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>126</v>
-      </c>
-      <c r="C115" s="5">
-        <v>22700</v>
-      </c>
-      <c r="D115">
-        <v>233</v>
-      </c>
-      <c r="E115" s="4">
-        <v>97</v>
-      </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-      <c r="H115">
-        <v>12.2</v>
-      </c>
-      <c r="I115">
+      <c r="B10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="1">
+        <v>24100</v>
+      </c>
+      <c r="D10" s="1">
+        <v>211</v>
+      </c>
+      <c r="E10" s="1">
+        <v>113.74</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="I10" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="J10" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="K10" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="L10" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="M10" s="1">
+        <v>35.4</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="1">
+        <v>52100</v>
+      </c>
+      <c r="D11" s="1">
+        <v>420</v>
+      </c>
+      <c r="E11" s="1">
+        <v>123.81</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>25</v>
+      </c>
+      <c r="J11" s="1">
+        <v>8.75</v>
+      </c>
+      <c r="K11" s="1">
+        <v>25</v>
+      </c>
+      <c r="L11" s="1">
+        <v>10.15</v>
+      </c>
+      <c r="M11" s="1">
+        <v>37</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1">
+        <v>78650</v>
+      </c>
+      <c r="D12" s="1">
+        <v>535</v>
+      </c>
+      <c r="E12" s="1">
+        <v>147</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
         <v>20</v>
       </c>
-      <c r="J115">
-        <v>6.75</v>
-      </c>
-      <c r="K115">
-        <f t="shared" si="4"/>
+      <c r="I12" s="1">
+        <v>27.4</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>27.4</v>
+      </c>
+      <c r="L12" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>44.4</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1">
+        <v>71800</v>
+      </c>
+      <c r="D13" s="1">
+        <v>390</v>
+      </c>
+      <c r="E13" s="1">
+        <v>184</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>20.2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>20.2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>10.45</v>
+      </c>
+      <c r="K13" s="1">
+        <v>20.2</v>
+      </c>
+      <c r="L13" s="1">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="M13" s="1">
+        <v>56.4</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>201390</v>
+      </c>
+      <c r="D14">
+        <v>735</v>
+      </c>
+      <c r="E14">
+        <v>274</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>27.5</v>
+      </c>
+      <c r="I14">
+        <v>27.5</v>
+      </c>
+      <c r="J14">
+        <v>13.6</v>
+      </c>
+      <c r="K14">
+        <v>27.5</v>
+      </c>
+      <c r="L14">
+        <v>22.8</v>
+      </c>
+      <c r="M14">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15">
+        <v>525690</v>
+      </c>
+      <c r="D15">
+        <v>1782</v>
+      </c>
+      <c r="E15">
+        <v>295</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>45</v>
+      </c>
+      <c r="I15">
+        <v>40</v>
+      </c>
+      <c r="J15">
+        <v>22.5</v>
+      </c>
+      <c r="K15">
+        <v>40</v>
+      </c>
+      <c r="L15">
+        <v>15</v>
+      </c>
+      <c r="M15">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16">
+        <v>458200</v>
+      </c>
+      <c r="D16">
+        <v>1580</v>
+      </c>
+      <c r="E16">
+        <v>290</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>40</v>
+      </c>
+      <c r="I16">
+        <v>40</v>
+      </c>
+      <c r="J16">
         <v>20</v>
       </c>
-      <c r="L115">
-        <v>8.65</v>
-      </c>
-      <c r="M115">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
-      <c r="A116">
-        <f t="shared" si="3"/>
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>127</v>
-      </c>
-      <c r="C116" s="5">
-        <v>34200</v>
-      </c>
-      <c r="D116">
-        <v>236</v>
-      </c>
-      <c r="E116" s="4">
-        <v>145</v>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="H116">
-        <v>12.2</v>
-      </c>
-      <c r="I116">
+      <c r="K16">
+        <v>40</v>
+      </c>
+      <c r="L16">
+        <v>25</v>
+      </c>
+      <c r="M16">
         <v>20</v>
       </c>
-      <c r="J116">
-        <v>5.98</v>
-      </c>
-      <c r="K116">
-        <f t="shared" si="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17">
+        <v>500045</v>
+      </c>
+      <c r="D17">
+        <v>1585</v>
+      </c>
+      <c r="E17">
+        <v>315</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>40</v>
+      </c>
+      <c r="I17">
+        <v>40</v>
+      </c>
+      <c r="J17">
         <v>20</v>
       </c>
-      <c r="L116">
-        <v>9.1300000000000008</v>
-      </c>
-      <c r="M116">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
-      <c r="A117">
-        <f t="shared" si="3"/>
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>128</v>
-      </c>
-      <c r="C117" s="5">
-        <v>11500</v>
-      </c>
-      <c r="D117">
-        <v>149</v>
-      </c>
-      <c r="E117" s="4">
-        <v>77</v>
-      </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
-      <c r="H117">
-        <v>12.45</v>
-      </c>
-      <c r="I117">
-        <v>12.4</v>
-      </c>
-      <c r="J117">
-        <v>6.33</v>
-      </c>
-      <c r="K117">
-        <f t="shared" si="4"/>
-        <v>12.4</v>
-      </c>
-      <c r="L117">
-        <v>7.95</v>
-      </c>
-      <c r="M117">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
-      <c r="A118">
-        <f t="shared" si="3"/>
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>110</v>
-      </c>
-      <c r="C118" s="5">
-        <v>20800</v>
-      </c>
-      <c r="D118">
-        <v>234</v>
-      </c>
-      <c r="E118" s="4">
-        <v>88.9</v>
-      </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="H118">
-        <v>15.6</v>
-      </c>
-      <c r="I118">
-        <v>15.6</v>
-      </c>
-      <c r="J118">
-        <v>7.54</v>
-      </c>
-      <c r="K118">
-        <f t="shared" si="4"/>
-        <v>15.6</v>
-      </c>
-      <c r="L118">
-        <v>7.87</v>
-      </c>
-      <c r="M118">
-        <v>32.4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
-      <c r="A119">
-        <f t="shared" si="3"/>
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>129</v>
-      </c>
-      <c r="C119" s="5">
-        <v>44000</v>
-      </c>
-      <c r="D119">
-        <v>353</v>
-      </c>
-      <c r="E119" s="4">
-        <v>124</v>
-      </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
-      <c r="H119">
-        <v>17.2</v>
-      </c>
-      <c r="I119">
-        <v>21</v>
-      </c>
-      <c r="J119">
-        <v>9.35</v>
-      </c>
-      <c r="K119">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-      <c r="L119">
-        <v>10.15</v>
-      </c>
-      <c r="M119">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
-      <c r="A120">
-        <f t="shared" si="3"/>
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
+      <c r="K17">
+        <v>40</v>
+      </c>
+      <c r="L17">
+        <v>30</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>130</v>
       </c>
-      <c r="C120" s="5">
-        <v>52000</v>
-      </c>
-      <c r="D120">
-        <v>420</v>
-      </c>
-      <c r="E120" s="4">
-        <v>123</v>
-      </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
-      <c r="H120">
-        <v>17.2</v>
-      </c>
-      <c r="I120">
-        <v>24.61</v>
-      </c>
-      <c r="J120">
-        <v>9.35</v>
-      </c>
-      <c r="K120">
-        <f t="shared" si="4"/>
-        <v>24.61</v>
-      </c>
-      <c r="L120">
-        <v>10.15</v>
-      </c>
-      <c r="M120">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
-      <c r="A121">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>113</v>
-      </c>
-      <c r="C121" s="5">
-        <v>36000</v>
-      </c>
-      <c r="D121">
-        <v>337</v>
-      </c>
-      <c r="E121" s="4">
-        <v>107</v>
-      </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="H121">
-        <v>18.8</v>
-      </c>
-      <c r="I121">
-        <v>18.8</v>
-      </c>
-      <c r="J121">
-        <v>9.5</v>
-      </c>
-      <c r="K121">
-        <f t="shared" si="4"/>
-        <v>18.8</v>
-      </c>
-      <c r="L121">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="M121">
-        <v>38.1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
-      <c r="A122">
-        <f t="shared" si="3"/>
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>131</v>
-      </c>
-      <c r="C122" s="5">
-        <v>27200</v>
-      </c>
-      <c r="D122">
-        <v>248</v>
-      </c>
-      <c r="E122" s="4">
-        <v>110</v>
-      </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-      <c r="H122">
-        <v>15.62</v>
-      </c>
-      <c r="I122">
-        <v>15.62</v>
-      </c>
-      <c r="J122">
-        <v>7.7</v>
-      </c>
-      <c r="K122">
-        <f t="shared" si="4"/>
-        <v>15.62</v>
-      </c>
-      <c r="L122">
-        <v>14.49</v>
-      </c>
-      <c r="M122">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
-      <c r="A123">
-        <f t="shared" si="3"/>
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>132</v>
-      </c>
-      <c r="C123" s="5">
-        <v>55900</v>
-      </c>
-      <c r="D123">
-        <v>402</v>
-      </c>
-      <c r="E123" s="4">
-        <v>139</v>
-      </c>
-      <c r="F123">
-        <v>1</v>
-      </c>
-      <c r="H123">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="I123">
-        <v>22.3</v>
-      </c>
-      <c r="J123">
-        <v>9</v>
-      </c>
-      <c r="K123">
-        <f t="shared" si="4"/>
-        <v>22.3</v>
-      </c>
-      <c r="L123">
-        <v>12.1</v>
-      </c>
-      <c r="M123">
-        <v>42.3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
-      <c r="A124">
-        <f t="shared" si="3"/>
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>114</v>
-      </c>
-      <c r="C124" s="5">
-        <v>79000</v>
-      </c>
-      <c r="D124">
-        <v>540</v>
-      </c>
-      <c r="E124" s="4">
-        <v>147</v>
-      </c>
-      <c r="F124">
-        <v>1</v>
-      </c>
-      <c r="H124">
+      <c r="C18">
+        <v>623930</v>
+      </c>
+      <c r="D18">
+        <v>1640</v>
+      </c>
+      <c r="E18">
+        <v>381</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>40</v>
+      </c>
+      <c r="I18">
+        <v>40</v>
+      </c>
+      <c r="J18">
+        <v>22</v>
+      </c>
+      <c r="K18">
+        <v>40</v>
+      </c>
+      <c r="L18">
+        <v>38</v>
+      </c>
+      <c r="M18">
         <v>20</v>
-      </c>
-      <c r="I124">
-        <v>27.4</v>
-      </c>
-      <c r="J124">
-        <v>9.9499999999999993</v>
-      </c>
-      <c r="K124">
-        <f t="shared" si="4"/>
-        <v>27.4</v>
-      </c>
-      <c r="L124">
-        <v>12.72</v>
-      </c>
-      <c r="M124">
-        <v>44.2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
-      <c r="A125">
-        <f t="shared" si="3"/>
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>115</v>
-      </c>
-      <c r="C125" s="5">
-        <v>102000</v>
-      </c>
-      <c r="D125">
-        <v>683</v>
-      </c>
-      <c r="E125" s="4">
-        <v>149</v>
-      </c>
-      <c r="F125">
-        <v>1</v>
-      </c>
-      <c r="H125">
-        <v>22</v>
-      </c>
-      <c r="I125">
-        <v>32</v>
-      </c>
-      <c r="J125">
-        <v>11.25</v>
-      </c>
-      <c r="K125">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="L125">
-        <v>13</v>
-      </c>
-      <c r="M125">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
-      <c r="A126">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>133</v>
-      </c>
-      <c r="C126" s="5">
-        <v>50300</v>
-      </c>
-      <c r="D126">
-        <v>368</v>
-      </c>
-      <c r="E126" s="4">
-        <v>137</v>
-      </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-      <c r="H126">
-        <v>19</v>
-      </c>
-      <c r="I126">
-        <v>19</v>
-      </c>
-      <c r="J126">
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="K126">
-        <f t="shared" si="4"/>
-        <v>19</v>
-      </c>
-      <c r="L126">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="M126">
-        <v>52.6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
-      <c r="A127">
-        <f t="shared" si="3"/>
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>116</v>
-      </c>
-      <c r="C127" s="5">
-        <v>72300</v>
-      </c>
-      <c r="D127">
-        <v>392</v>
-      </c>
-      <c r="E127" s="4">
-        <v>184</v>
-      </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
-      <c r="H127">
-        <v>19.8</v>
-      </c>
-      <c r="I127">
-        <v>19.8</v>
-      </c>
-      <c r="J127">
-        <v>11.25</v>
-      </c>
-      <c r="K127">
-        <f t="shared" si="4"/>
-        <v>19.8</v>
-      </c>
-      <c r="L127">
-        <v>19.45</v>
-      </c>
-      <c r="M127">
-        <v>59.1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
-      <c r="A128">
-        <f t="shared" si="3"/>
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>134</v>
-      </c>
-      <c r="C128" s="5">
-        <v>202000</v>
-      </c>
-      <c r="D128">
-        <v>738</v>
-      </c>
-      <c r="E128">
-        <v>274</v>
-      </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
-      <c r="H128">
-        <v>27.5</v>
-      </c>
-      <c r="I128">
-        <v>27.5</v>
-      </c>
-      <c r="J128">
-        <v>13.75</v>
-      </c>
-      <c r="K128">
-        <f t="shared" si="4"/>
-        <v>27.5</v>
-      </c>
-      <c r="L128">
-        <v>22.65</v>
-      </c>
-      <c r="M128">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13">
-      <c r="A129">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>135</v>
-      </c>
-      <c r="C129" s="5">
-        <v>11100</v>
-      </c>
-      <c r="D129">
-        <v>192</v>
-      </c>
-      <c r="E129">
-        <v>57.8</v>
-      </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
-      <c r="H129">
-        <v>7.62</v>
-      </c>
-      <c r="I129">
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="J129">
-        <v>3.81</v>
-      </c>
-      <c r="K129">
-        <f t="shared" si="4"/>
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="L129">
-        <v>11.43</v>
-      </c>
-      <c r="M129">
-        <v>30.23</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13">
-      <c r="A130">
-        <f t="shared" si="3"/>
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
-        <v>136</v>
-      </c>
-      <c r="C130" s="5">
-        <v>13100</v>
-      </c>
-      <c r="D130">
-        <v>227</v>
-      </c>
-      <c r="E130">
-        <v>57.5</v>
-      </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
-      <c r="H130">
-        <v>8.1300000000000008</v>
-      </c>
-      <c r="I130">
-        <v>8.51</v>
-      </c>
-      <c r="J130">
-        <v>4.2</v>
-      </c>
-      <c r="K130">
-        <f t="shared" si="4"/>
-        <v>8.51</v>
-      </c>
-      <c r="L130">
-        <v>13.46</v>
-      </c>
-      <c r="M130">
-        <v>34.4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13">
-      <c r="A131">
-        <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>137</v>
-      </c>
-      <c r="C131" s="5">
-        <v>13900</v>
-      </c>
-      <c r="D131">
-        <v>229</v>
-      </c>
-      <c r="E131">
-        <v>61.1</v>
-      </c>
-      <c r="F131">
-        <v>1</v>
-      </c>
-      <c r="H131">
-        <v>8.1</v>
-      </c>
-      <c r="I131">
-        <v>9.5</v>
-      </c>
-      <c r="J131">
-        <v>4.7</v>
-      </c>
-      <c r="K131">
-        <f t="shared" si="4"/>
-        <v>9.5</v>
-      </c>
-      <c r="L131">
-        <v>13.2</v>
-      </c>
-      <c r="M131">
-        <v>34.700000000000003</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13">
-      <c r="A132">
-        <f t="shared" si="3"/>
-        <v>131</v>
-      </c>
-      <c r="B132" t="s">
-        <v>138</v>
-      </c>
-      <c r="C132" s="5">
-        <v>24600</v>
-      </c>
-      <c r="D132">
-        <v>308</v>
-      </c>
-      <c r="E132">
-        <v>80.599999999999994</v>
-      </c>
-      <c r="F132">
-        <v>1</v>
-      </c>
-      <c r="H132">
-        <v>8.1</v>
-      </c>
-      <c r="I132">
-        <v>10.54</v>
-      </c>
-      <c r="J132">
-        <v>3.7</v>
-      </c>
-      <c r="K132">
-        <f t="shared" si="4"/>
-        <v>10.54</v>
-      </c>
-      <c r="L132">
-        <v>21.4</v>
-      </c>
-      <c r="M132">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13">
-      <c r="A133">
-        <f t="shared" si="3"/>
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>139</v>
-      </c>
-      <c r="C133" s="5">
-        <v>41400</v>
-      </c>
-      <c r="D133">
-        <v>516</v>
-      </c>
-      <c r="E133">
-        <v>80.2</v>
-      </c>
-      <c r="F133">
-        <v>1</v>
-      </c>
-      <c r="H133">
-        <v>10.16</v>
-      </c>
-      <c r="I133">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="J133">
-        <v>5.08</v>
-      </c>
-      <c r="K133">
-        <f t="shared" si="4"/>
-        <v>10.199999999999999</v>
-      </c>
-      <c r="L133">
-        <v>21.8</v>
-      </c>
-      <c r="M133">
-        <v>53.16</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13">
-      <c r="A134">
-        <f t="shared" si="3"/>
-        <v>133</v>
-      </c>
-      <c r="B134" t="s">
-        <v>140</v>
-      </c>
-      <c r="C134" s="5">
-        <v>79800</v>
-      </c>
-      <c r="D134">
-        <v>540</v>
-      </c>
-      <c r="E134">
-        <v>148</v>
-      </c>
-      <c r="F134">
-        <v>1</v>
-      </c>
-      <c r="H134">
-        <v>14</v>
-      </c>
-      <c r="I134">
-        <v>20.3</v>
-      </c>
-      <c r="J134">
-        <v>8</v>
-      </c>
-      <c r="K134">
-        <f t="shared" si="4"/>
-        <v>20.3</v>
-      </c>
-      <c r="L134">
-        <v>36</v>
-      </c>
-      <c r="M134">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13">
-      <c r="A135">
-        <f t="shared" si="3"/>
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>141</v>
-      </c>
-      <c r="C135" s="5">
-        <v>120</v>
-      </c>
-      <c r="D135">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="E135">
-        <v>14.2</v>
-      </c>
-      <c r="F135">
-        <v>2</v>
-      </c>
-      <c r="H135">
-        <v>3.5</v>
-      </c>
-      <c r="I135">
-        <v>5</v>
-      </c>
-      <c r="J135">
-        <f>(9.5-M135)/2</f>
-        <v>1</v>
-      </c>
-      <c r="K135">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="L135">
-        <f t="shared" ref="L135:L146" si="5">(M135-H135)/2</f>
-        <v>2</v>
-      </c>
-      <c r="M135">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13">
-      <c r="A136">
-        <f t="shared" si="3"/>
-        <v>135</v>
-      </c>
-      <c r="B136" t="s">
-        <v>142</v>
-      </c>
-      <c r="C136" s="5">
-        <v>174</v>
-      </c>
-      <c r="D136">
-        <v>11.9</v>
-      </c>
-      <c r="E136">
-        <v>14.7</v>
-      </c>
-      <c r="F136">
-        <v>2</v>
-      </c>
-      <c r="H136">
-        <v>4.25</v>
-      </c>
-      <c r="I136">
-        <v>6</v>
-      </c>
-      <c r="J136">
-        <f>(11-M136)/2</f>
-        <v>1.1500000000000004</v>
-      </c>
-      <c r="K136">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="L136">
-        <f t="shared" si="5"/>
-        <v>2.2249999999999996</v>
-      </c>
-      <c r="M136">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13">
-      <c r="A137">
-        <f t="shared" si="3"/>
-        <v>136</v>
-      </c>
-      <c r="B137" t="s">
-        <v>143</v>
-      </c>
-      <c r="C137" s="5">
-        <v>348</v>
-      </c>
-      <c r="D137">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="E137">
-        <v>17.5</v>
-      </c>
-      <c r="F137">
-        <v>2</v>
-      </c>
-      <c r="H137">
-        <v>5</v>
-      </c>
-      <c r="I137">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="J137">
-        <f>(12.8-M137)/2</f>
-        <v>0.80000000000000071</v>
-      </c>
-      <c r="K137">
-        <f t="shared" si="4"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="L137">
-        <f t="shared" si="5"/>
-        <v>3.0999999999999996</v>
-      </c>
-      <c r="M137">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13">
-      <c r="A138">
-        <f t="shared" si="3"/>
-        <v>137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>144</v>
-      </c>
-      <c r="C138" s="5">
-        <v>333</v>
-      </c>
-      <c r="D138">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="E138">
-        <v>19</v>
-      </c>
-      <c r="F138">
-        <v>2</v>
-      </c>
-      <c r="H138">
-        <v>4.8</v>
-      </c>
-      <c r="I138">
-        <v>6.8</v>
-      </c>
-      <c r="J138">
-        <f>(14.7-M138)/2</f>
-        <v>1.5499999999999998</v>
-      </c>
-      <c r="K138">
-        <f t="shared" si="4"/>
-        <v>6.8</v>
-      </c>
-      <c r="L138">
-        <f t="shared" si="5"/>
-        <v>3.4</v>
-      </c>
-      <c r="M138">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13">
-      <c r="A139">
-        <f t="shared" ref="A139:A146" si="6">A138+1</f>
-        <v>138</v>
-      </c>
-      <c r="B139" t="s">
-        <v>145</v>
-      </c>
-      <c r="C139" s="5">
-        <v>667</v>
-      </c>
-      <c r="D139">
-        <v>30.2</v>
-      </c>
-      <c r="E139">
-        <v>22.1</v>
-      </c>
-      <c r="F139">
-        <v>2</v>
-      </c>
-      <c r="H139">
-        <v>6.2</v>
-      </c>
-      <c r="I139">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="J139">
-        <f>(18-M139)/2</f>
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="K139">
-        <f t="shared" si="4"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="L139">
-        <f t="shared" si="5"/>
-        <v>4.6999999999999993</v>
-      </c>
-      <c r="M139">
-        <v>15.6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13">
-      <c r="A140">
-        <f t="shared" si="6"/>
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>146</v>
-      </c>
-      <c r="C140" s="5">
-        <v>1960</v>
-      </c>
-      <c r="D140">
-        <v>59</v>
-      </c>
-      <c r="E140">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="F140">
-        <v>2</v>
-      </c>
-      <c r="H140">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I140">
-        <v>14</v>
-      </c>
-      <c r="J140">
-        <f>(20-M140)/2</f>
-        <v>1</v>
-      </c>
-      <c r="K140">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="L140">
-        <f t="shared" si="5"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M140">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13">
-      <c r="A141">
-        <f t="shared" si="6"/>
-        <v>140</v>
-      </c>
-      <c r="B141" t="s">
-        <v>146</v>
-      </c>
-      <c r="C141" s="5">
-        <v>1960</v>
-      </c>
-      <c r="D141">
-        <v>59</v>
-      </c>
-      <c r="E141">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="F141">
-        <v>2</v>
-      </c>
-      <c r="H141">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I141">
-        <v>14</v>
-      </c>
-      <c r="J141">
-        <f>(20-M141)/2</f>
-        <v>1</v>
-      </c>
-      <c r="K141">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="L141">
-        <f t="shared" si="5"/>
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="M141">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13">
-      <c r="A142">
-        <f t="shared" si="6"/>
-        <v>141</v>
-      </c>
-      <c r="B142" t="s">
-        <v>147</v>
-      </c>
-      <c r="C142" s="5">
-        <v>1340</v>
-      </c>
-      <c r="D142">
-        <v>50.2</v>
-      </c>
-      <c r="E142">
-        <v>26.6</v>
-      </c>
-      <c r="F142">
-        <v>2</v>
-      </c>
-      <c r="H142">
-        <v>8</v>
-      </c>
-      <c r="I142">
-        <v>12.5</v>
-      </c>
-      <c r="J142">
-        <f>(23.2-M142)/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="K142">
-        <f t="shared" si="4"/>
-        <v>12.5</v>
-      </c>
-      <c r="L142">
-        <f t="shared" si="5"/>
-        <v>6.1</v>
-      </c>
-      <c r="M142">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13">
-      <c r="A143">
-        <f t="shared" si="6"/>
-        <v>142</v>
-      </c>
-      <c r="B143" t="s">
-        <v>148</v>
-      </c>
-      <c r="C143" s="5">
-        <v>3100</v>
-      </c>
-      <c r="D143">
-        <v>91.8</v>
-      </c>
-      <c r="E143">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="F143">
-        <v>2</v>
-      </c>
-      <c r="H143">
-        <v>11</v>
-      </c>
-      <c r="I143">
-        <v>18</v>
-      </c>
-      <c r="J143">
-        <f>(25-M143)/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="K143">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="L143">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="M143">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13">
-      <c r="A144">
-        <f t="shared" si="6"/>
-        <v>143</v>
-      </c>
-      <c r="B144" t="s">
-        <v>149</v>
-      </c>
-      <c r="C144" s="5">
-        <v>4145</v>
-      </c>
-      <c r="D144">
-        <v>100</v>
-      </c>
-      <c r="E144">
-        <v>41.4</v>
-      </c>
-      <c r="F144">
-        <v>2</v>
-      </c>
-      <c r="H144">
-        <v>11</v>
-      </c>
-      <c r="I144">
-        <v>18</v>
-      </c>
-      <c r="J144">
-        <f>(25-M144)/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="K144">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="L144">
-        <f t="shared" si="5"/>
-        <v>5.5</v>
-      </c>
-      <c r="M144">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13">
-      <c r="A145">
-        <f t="shared" si="6"/>
-        <v>144</v>
-      </c>
-      <c r="B145" t="s">
-        <v>150</v>
-      </c>
-      <c r="C145" s="5">
-        <v>4970</v>
-      </c>
-      <c r="D145">
-        <v>108</v>
-      </c>
-      <c r="E145">
-        <v>46</v>
-      </c>
-      <c r="F145">
-        <v>2</v>
-      </c>
-      <c r="H145">
-        <v>11</v>
-      </c>
-      <c r="I145">
-        <v>20</v>
-      </c>
-      <c r="J145">
-        <f>(30-M145)/2</f>
-        <v>2</v>
-      </c>
-      <c r="K145">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="L145">
-        <f t="shared" si="5"/>
-        <v>7.5</v>
-      </c>
-      <c r="M145">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13">
-      <c r="A146">
-        <f t="shared" si="6"/>
-        <v>145</v>
-      </c>
-      <c r="B146" t="s">
-        <v>151</v>
-      </c>
-      <c r="C146" s="5">
-        <v>5400</v>
-      </c>
-      <c r="D146">
-        <v>141</v>
-      </c>
-      <c r="E146">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="F146">
-        <v>2</v>
-      </c>
-      <c r="H146">
-        <v>12.4</v>
-      </c>
-      <c r="I146">
-        <v>25.4</v>
-      </c>
-      <c r="J146">
-        <f>(32.1-M146)/2</f>
-        <v>2.4500000000000011</v>
-      </c>
-      <c r="K146">
-        <f t="shared" si="4"/>
-        <v>25.4</v>
-      </c>
-      <c r="L146">
-        <f t="shared" si="5"/>
-        <v>7.3999999999999995</v>
-      </c>
-      <c r="M146">
-        <v>27.2</v>
       </c>
     </row>
   </sheetData>
